--- a/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>132</v>
       </c>
       <c r="E2">
-        <v>0.003000995586159725</v>
+        <v>0.002956493920201198</v>
       </c>
       <c r="F2">
         <v>0.522470255585625</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>126</v>
       </c>
       <c r="E3">
-        <v>0.002218130043088231</v>
+        <v>0.002184565466431852</v>
       </c>
       <c r="F3">
         <v>0.505615482467933</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>133</v>
       </c>
       <c r="E4">
-        <v>0.0275971032870046</v>
+        <v>0.01603984421151782</v>
       </c>
       <c r="F4">
         <v>0.5212948313572069</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>126</v>
       </c>
       <c r="E5">
-        <v>0.002289388602940029</v>
+        <v>0.002205412745566444</v>
       </c>
       <c r="F5">
         <v>0.5053448940239886</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>131</v>
       </c>
       <c r="E6">
-        <v>0.01009934634465456</v>
+        <v>0.001778565564443984</v>
       </c>
       <c r="F6">
         <v>0.513341390671134</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>149</v>
       </c>
       <c r="E2">
-        <v>0.003000995586159725</v>
+        <v>0.002956493920201198</v>
       </c>
       <c r="F2">
         <v>0.7116695190377962</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="E3">
-        <v>0.002218130043088231</v>
+        <v>0.002184565466431852</v>
       </c>
       <c r="F3">
         <v>0.7086068640607327</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.0275971032870046</v>
+        <v>0.01603984421151782</v>
       </c>
       <c r="F4">
         <v>0.7257050673416704</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>148</v>
       </c>
       <c r="E5">
-        <v>0.002289388602940029</v>
+        <v>0.002205412745566444</v>
       </c>
       <c r="F5">
         <v>0.7080899629386447</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>149</v>
       </c>
       <c r="E6">
-        <v>0.01009934634465456</v>
+        <v>0.001778565564443984</v>
       </c>
       <c r="F6">
         <v>0.7208536101563868</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.003000995586159725</v>
+        <v>0.002956493920201198</v>
       </c>
       <c r="F2">
         <v>0.8063224474526344</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>157</v>
       </c>
       <c r="E3">
-        <v>0.002218130043088231</v>
+        <v>0.002184565466431852</v>
       </c>
       <c r="F3">
         <v>0.8197112845301214</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>158</v>
       </c>
       <c r="E4">
-        <v>0.0275971032870046</v>
+        <v>0.01603984421151782</v>
       </c>
       <c r="F4">
         <v>0.8066518588490176</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.002289388602940029</v>
+        <v>0.002205412745566444</v>
       </c>
       <c r="F5">
         <v>0.8016359688989536</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.01009934634465456</v>
+        <v>0.001778565564443984</v>
       </c>
       <c r="F6">
         <v>0.808428352744674</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>170</v>
       </c>
       <c r="E2">
-        <v>0.003000995586159725</v>
+        <v>0.002956493920201198</v>
       </c>
       <c r="F2">
         <v>0.9181141499563742</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>169</v>
       </c>
       <c r="E3">
-        <v>0.002218130043088231</v>
+        <v>0.002184565466431852</v>
       </c>
       <c r="F3">
         <v>0.9121724028458186</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.0275971032870046</v>
+        <v>0.01603984421151782</v>
       </c>
       <c r="F4">
         <v>0.9129608844967495</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>169</v>
       </c>
       <c r="E5">
-        <v>0.002289388602940029</v>
+        <v>0.002205412745566444</v>
       </c>
       <c r="F5">
         <v>0.9028079288099431</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>169</v>
       </c>
       <c r="E6">
-        <v>0.01009934634465456</v>
+        <v>0.001778565564443984</v>
       </c>
       <c r="F6">
         <v>0.9039806670303985</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>47</v>

--- a/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>6.032532358820693E-05</v>
+        <v>5.318406875433648E-05</v>
       </c>
       <c r="C2">
-        <v>2.969376030507717E-05</v>
+        <v>2.251319866742678E-05</v>
       </c>
       <c r="D2">
-        <v>1.90792485534885E-05</v>
+        <v>1.188506624206501E-05</v>
       </c>
       <c r="E2">
-        <v>5.123875880085974E-05</v>
+        <v>4.40858439738042E-05</v>
       </c>
       <c r="F2">
-        <v>0.0001966380353980816</v>
+        <v>0.0001896716987349326</v>
       </c>
       <c r="G2">
-        <v>8.81211939377004E-05</v>
+        <v>8.101560711109493E-05</v>
       </c>
       <c r="H2">
-        <v>5.358993674583513E-05</v>
+        <v>4.644003897962238E-05</v>
       </c>
       <c r="I2">
-        <v>0.0001241897770935876</v>
+        <v>0.0001171304739224269</v>
       </c>
       <c r="J2">
-        <v>6.978767336675964E-05</v>
+        <v>6.265856073805857E-05</v>
       </c>
       <c r="K2">
-        <v>4.997852583035296E-05</v>
+        <v>4.282399385664282E-05</v>
       </c>
       <c r="L2">
-        <v>4.997852583035296E-05</v>
+        <v>4.282399385664282E-05</v>
       </c>
       <c r="M2">
-        <v>1.90792485534885E-05</v>
+        <v>1.188506624206501E-05</v>
       </c>
       <c r="N2">
-        <v>1.961911254085407E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.209413831278146E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>9.969431766685468E-06</v>
+        <v>2.763559624821389E-06</v>
       </c>
       <c r="Q2">
-        <v>3.642099614763972E-07</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.38266636764147E-05</v>
+        <v>6.625741182611613E-06</v>
       </c>
       <c r="S2">
-        <v>4.140606203097427E-05</v>
+        <v>3.424052976487426E-05</v>
       </c>
       <c r="T2">
-        <v>3.5639802165922E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.961911254085407E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4.791300887869224E-05</v>
+        <v>4.075582640788624E-05</v>
       </c>
       <c r="W2">
-        <v>2.977216530324226E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5.865836562721874E-07</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2.098191450896042E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.449323516081493E-05</v>
+        <v>7.293168019848407E-06</v>
       </c>
       <c r="AA2">
-        <v>2.015672452827234E-05</v>
+        <v>1.296392484744877E-05</v>
       </c>
       <c r="AB2">
-        <v>9.969431766685468E-06</v>
+        <v>2.763559624821389E-06</v>
       </c>
       <c r="AC2">
-        <v>9.969431766685468E-06</v>
+        <v>2.763559624821389E-06</v>
       </c>
       <c r="AD2">
-        <v>2.390620744052322E-07</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.744571818753848E-05</v>
+        <v>7.032643245739711E-05</v>
       </c>
       <c r="AF2">
-        <v>6.788677841124626E-05</v>
+        <v>6.075522653044657E-05</v>
       </c>
       <c r="AG2">
-        <v>1.084943174609084E-05</v>
+        <v>3.644688831168167E-06</v>
       </c>
       <c r="AH2">
-        <v>2.164122949353048E-05</v>
+        <v>1.445033474798038E-05</v>
       </c>
       <c r="AI2">
-        <v>8.613166798426126E-08</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>9.969431766685468E-06</v>
+        <v>2.763559624821389E-06</v>
       </c>
       <c r="AK2">
-        <v>4.511603394414981E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>8.616980798336867E-07</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>5.570809569626388E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.822574933943301E-05</v>
+        <v>2.104330393181503E-05</v>
       </c>
       <c r="AO2">
-        <v>3.095538627555134E-05</v>
+        <v>2.377644357207048E-05</v>
       </c>
       <c r="AP2">
-        <v>1.961911254085407E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.642099614763972E-07</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>8.613166798426126E-08</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.144565926407749E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2.015672452827234E-05</v>
+        <v>1.296392484744877E-05</v>
       </c>
       <c r="AU2">
-        <v>5.299504375975742E-05</v>
+        <v>4.584438261945051E-05</v>
       </c>
       <c r="AV2">
-        <v>0.000101403187626862</v>
+        <v>9.431464442009798E-05</v>
       </c>
       <c r="AW2">
-        <v>5.299504375975742E-05</v>
+        <v>4.584438261945051E-05</v>
       </c>
       <c r="AX2">
-        <v>9.527869077019356E-07</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>2.91747653172232E-05</v>
+        <v>2.199353769873593E-05</v>
       </c>
       <c r="AZ2">
-        <v>8.613166798426126E-08</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>3.411799720153678E-06</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>8.162681808968823E-09</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>5.782915364662479E-05</v>
+        <v>5.06846956963744E-05</v>
       </c>
       <c r="BD2">
-        <v>4.298635899399059E-05</v>
+        <v>3.582285458464948E-05</v>
       </c>
       <c r="BE2">
-        <v>1.734593759405316E-05</v>
+        <v>1.014953107640349E-05</v>
       </c>
       <c r="BF2">
-        <v>1.961911254085407E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>3.642099614763972E-07</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>4.242296400717571E-07</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>2.822574933943301E-05</v>
+        <v>2.104330393181503E-05</v>
       </c>
       <c r="BJ2">
-        <v>6.589703845781214E-05</v>
+        <v>5.876293331790517E-05</v>
       </c>
       <c r="BK2">
-        <v>1.768699258607145E-05</v>
+        <v>1.049102371443826E-05</v>
       </c>
       <c r="BL2">
-        <v>2.443193742821957E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>2.443193742821957E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>3.751241912209715E-05</v>
+        <v>3.034189048488824E-05</v>
       </c>
       <c r="BO2">
-        <v>6.446681849128357E-05</v>
+        <v>5.733087807529007E-05</v>
       </c>
       <c r="BP2">
-        <v>6.328694851889605E-05</v>
+        <v>5.614949407904874E-05</v>
       </c>
       <c r="BQ2">
-        <v>2.502775641427562E-05</v>
+        <v>1.784120730227803E-05</v>
       </c>
       <c r="BR2">
-        <v>3.701497113373892E-05</v>
+        <v>2.984380416507144E-05</v>
       </c>
       <c r="BS2">
-        <v>5.448834472480971E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>5.448834472480971E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>6.667587843958496E-05</v>
+        <v>5.954277271684963E-05</v>
       </c>
       <c r="BV2">
-        <v>9.070078287733031E-05</v>
+        <v>8.359850621140276E-05</v>
       </c>
       <c r="BW2">
-        <v>9.845180269593325E-05</v>
+        <v>9.135947223524139E-05</v>
       </c>
       <c r="BX2">
-        <v>8.326751805129094E-05</v>
+        <v>7.615570292729446E-05</v>
       </c>
       <c r="BY2">
-        <v>4.634020591550053E-05</v>
+        <v>3.918100520432962E-05</v>
       </c>
       <c r="BZ2">
-        <v>9.992204766152511E-05</v>
+        <v>9.283160383749743E-05</v>
       </c>
       <c r="CA2">
-        <v>4.038069905497082E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>2.098191450896042E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>7.301079429132897E-07</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.634747561742016E-05</v>
+        <v>9.149787860917785E-06</v>
       </c>
       <c r="CE2">
-        <v>1.506069964753457E-05</v>
+        <v>7.861360684069966E-06</v>
       </c>
       <c r="CF2">
-        <v>0.000152271256436397</v>
+        <v>0.0001452479877695211</v>
       </c>
       <c r="CG2">
-        <v>0.0001007382876424227</v>
+        <v>9.364889122771163E-05</v>
       </c>
       <c r="CH2">
-        <v>5.822499863736082E-05</v>
+        <v>5.108104864033615E-05</v>
       </c>
       <c r="CI2">
-        <v>4.450166595852787E-05</v>
+        <v>3.734010600996961E-05</v>
       </c>
       <c r="CJ2">
-        <v>4.046156705307827E-05</v>
+        <v>3.329482279925096E-05</v>
       </c>
       <c r="CK2">
-        <v>9.058979787992769E-06</v>
+        <v>1.851939342802256E-06</v>
       </c>
       <c r="CL2">
-        <v>2.667892237563339E-05</v>
+        <v>1.949449206037665E-05</v>
       </c>
       <c r="CM2">
-        <v>4.450166595852787E-05</v>
+        <v>3.734010600996961E-05</v>
       </c>
       <c r="CN2">
-        <v>0.006383021850618191</v>
+        <v>0.006383993958770431</v>
       </c>
       <c r="CO2">
-        <v>0.04979627883461808</v>
+        <v>0.04985295937521125</v>
       </c>
       <c r="CP2">
-        <v>0.04745417388943035</v>
+        <v>0.04750784901176714</v>
       </c>
       <c r="CQ2">
-        <v>0.02502679241429817</v>
+        <v>0.02505168844120347</v>
       </c>
       <c r="CR2">
-        <v>0.0003092011227637686</v>
+        <v>0.0003023792284572518</v>
       </c>
       <c r="CS2">
-        <v>0.04136632303190427</v>
+        <v>0.04141218614814505</v>
       </c>
       <c r="CT2">
-        <v>0.005133009879872212</v>
+        <v>0.005132377957084126</v>
       </c>
       <c r="CU2">
-        <v>0.001201629771878268</v>
+        <v>0.001195953053137037</v>
       </c>
       <c r="CV2">
-        <v>0.00884285479305074</v>
+        <v>0.008846983389492722</v>
       </c>
       <c r="CW2">
-        <v>0.04681163590446766</v>
+        <v>0.04686448651405391</v>
       </c>
       <c r="CX2">
-        <v>0.04733050489232458</v>
+        <v>0.04738402132106294</v>
       </c>
       <c r="CY2">
-        <v>0.005136733279785073</v>
+        <v>0.005136106134910162</v>
       </c>
       <c r="CZ2">
-        <v>0.0001657610661206951</v>
+        <v>0.0001587551077457357</v>
       </c>
       <c r="DA2">
-        <v>0.004334872498551014</v>
+        <v>0.00433321639592767</v>
       </c>
       <c r="DB2">
-        <v>0.0001921101155040485</v>
+        <v>0.0001851379685576579</v>
       </c>
       <c r="DC2">
-        <v>0.005097111880712332</v>
+        <v>0.005096433893164312</v>
       </c>
       <c r="DD2">
-        <v>0.002599827139156266</v>
+        <v>0.002595944604703092</v>
       </c>
       <c r="DE2">
-        <v>0.01808351757679158</v>
+        <v>0.01809950390688822</v>
       </c>
       <c r="DF2">
-        <v>0.04624634891769706</v>
+        <v>0.04629847414397645</v>
       </c>
       <c r="DG2">
-        <v>0.0001464976465715167</v>
+        <v>0.0001394669691365031</v>
       </c>
       <c r="DH2">
-        <v>4.894031885465011E-05</v>
+        <v>4.17844546408091E-05</v>
       </c>
       <c r="DI2">
-        <v>0.0001252581370685848</v>
+        <v>0.0001182002048302594</v>
       </c>
       <c r="DJ2">
-        <v>0.0136216726812121</v>
+        <v>0.01363193351632874</v>
       </c>
       <c r="DK2">
-        <v>9.52556277707333E-05</v>
+        <v>8.815919593854205E-05</v>
       </c>
       <c r="DL2">
-        <v>0.009603294775254168</v>
+        <v>0.009608399177759019</v>
       </c>
       <c r="DM2">
-        <v>0.005708880866395107</v>
+        <v>0.005708987908434268</v>
       </c>
       <c r="DN2">
-        <v>0.002500294941485617</v>
+        <v>0.002496284686075878</v>
       </c>
       <c r="DO2">
-        <v>0.005006873882824171</v>
+        <v>0.005006080100752583</v>
       </c>
       <c r="DP2">
-        <v>0.001761355658779008</v>
+        <v>0.001756397187271964</v>
       </c>
       <c r="DQ2">
-        <v>0.01491930065084373</v>
+        <v>0.01493122661834392</v>
       </c>
       <c r="DR2">
-        <v>0.003488518718358224</v>
+        <v>0.003485776564015647</v>
       </c>
       <c r="DS2">
-        <v>0.0005839339463341985</v>
+        <v>0.0005774645926110068</v>
       </c>
       <c r="DT2">
-        <v>0.001370703467921438</v>
+        <v>0.001365243706654211</v>
       </c>
       <c r="DU2">
-        <v>0.003611657915476399</v>
+        <v>0.003609073774886303</v>
       </c>
       <c r="DV2">
-        <v>0.008602953298665153</v>
+        <v>0.008606774050519538</v>
       </c>
       <c r="DW2">
-        <v>0.01593125762716091</v>
+        <v>0.01594448215046559</v>
       </c>
       <c r="DX2">
-        <v>0.007404576826710748</v>
+        <v>0.007406859806940412</v>
       </c>
       <c r="DY2">
-        <v>0.0003060939128364866</v>
+        <v>0.0002992680313194646</v>
       </c>
       <c r="DZ2">
-        <v>2.977216530324226E-06</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.005866108362715513</v>
+        <v>0.00586641716103755</v>
       </c>
       <c r="EB2">
-        <v>0.0217331954913782</v>
+        <v>0.02175386513366242</v>
       </c>
       <c r="EC2">
-        <v>0.03551794916877372</v>
+        <v>0.03555630757878239</v>
       </c>
       <c r="ED2">
-        <v>0.02258581947142425</v>
+        <v>0.0226075832114263</v>
       </c>
       <c r="EE2">
-        <v>0.01704665960105716</v>
+        <v>0.01706131542207651</v>
       </c>
       <c r="EF2">
-        <v>0.00741281112651804</v>
+        <v>0.007415104673103845</v>
       </c>
       <c r="EG2">
-        <v>0.0009557255776331619</v>
+        <v>0.0009497333115650602</v>
       </c>
       <c r="EH2">
-        <v>0.000224470574746717</v>
+        <v>0.0002175399531449496</v>
       </c>
       <c r="EI2">
-        <v>0.01100128774253695</v>
+        <v>0.01100818606704124</v>
       </c>
       <c r="EJ2">
-        <v>0.007921424814614959</v>
+        <v>0.007924371020624413</v>
       </c>
       <c r="EK2">
-        <v>0.00582267986373187</v>
+        <v>0.005822932934062742</v>
       </c>
       <c r="EL2">
-        <v>0.006020338559106064</v>
+        <v>0.00602084526753835</v>
       </c>
       <c r="EM2">
-        <v>0.009312602782057231</v>
+        <v>0.009317334164973387</v>
       </c>
       <c r="EN2">
-        <v>0.01749972959045397</v>
+        <v>0.01751496679653052</v>
       </c>
       <c r="EO2">
-        <v>0.02456077142520446</v>
+        <v>0.02458506944816833</v>
       </c>
       <c r="EP2">
-        <v>0.007145201832780898</v>
+        <v>0.007147151979785643</v>
       </c>
       <c r="EQ2">
-        <v>0.002528067640835653</v>
+        <v>0.002524093023699864</v>
       </c>
       <c r="ER2">
-        <v>0.002711255936548499</v>
+        <v>0.002707516388916927</v>
       </c>
       <c r="ES2">
-        <v>0.02009390252974256</v>
+        <v>0.02011246861086716</v>
       </c>
       <c r="ET2">
-        <v>0.02635651438317871</v>
+        <v>0.0263831167258874</v>
       </c>
       <c r="EU2">
-        <v>0.02360883944748252</v>
+        <v>0.02363191593946821</v>
       </c>
       <c r="EV2">
-        <v>0.02135616150020192</v>
+        <v>0.02137634732776952</v>
       </c>
       <c r="EW2">
-        <v>0.008508025800886741</v>
+        <v>0.008511724740592853</v>
       </c>
       <c r="EX2">
-        <v>0.004490279494914025</v>
+        <v>0.004488822812485322</v>
       </c>
       <c r="EY2">
-        <v>0.001153004673016241</v>
+        <v>0.001147265557942113</v>
       </c>
       <c r="EZ2">
-        <v>0.0004264724200192694</v>
+        <v>0.0004198010097029961</v>
       </c>
       <c r="FA2">
-        <v>0.001649199861403789</v>
+        <v>0.001644097470179705</v>
       </c>
       <c r="FB2">
-        <v>0.01805081357755695</v>
+        <v>0.01806675794147417</v>
       </c>
       <c r="FC2">
-        <v>0.01541013163935681</v>
+        <v>0.01542268744729892</v>
       </c>
       <c r="FD2">
-        <v>0.01764454258706491</v>
+        <v>0.01765996561898358</v>
       </c>
       <c r="FE2">
-        <v>0.01135715773420853</v>
+        <v>0.0113645127155215</v>
       </c>
       <c r="FF2">
-        <v>0.004623333891800154</v>
+        <v>0.004622047946431852</v>
       </c>
       <c r="FG2">
-        <v>0.008856742792725719</v>
+        <v>0.008860889210421975</v>
       </c>
       <c r="FH2">
-        <v>0.00209015625108409</v>
+        <v>0.002085619700595083</v>
       </c>
       <c r="FI2">
-        <v>0.000731347982884269</v>
+        <v>0.0007250677926900662</v>
       </c>
       <c r="FJ2">
-        <v>0.002519168141043928</v>
+        <v>0.002515182103959087</v>
       </c>
       <c r="FK2">
-        <v>0.0004865203086139691</v>
+        <v>0.0004799259524967446</v>
       </c>
       <c r="FL2">
-        <v>0.004793999187806076</v>
+        <v>0.004792932242272687</v>
       </c>
       <c r="FM2">
-        <v>0.006793349841015288</v>
+        <v>0.00679484848715891</v>
       </c>
       <c r="FN2">
-        <v>0.02417473043423898</v>
+        <v>0.02419853308459183</v>
       </c>
       <c r="FO2">
-        <v>0.02772065335125377</v>
+        <v>0.02774900617408818</v>
       </c>
       <c r="FP2">
-        <v>0.01363284068095074</v>
+        <v>0.01364311584698383</v>
       </c>
       <c r="FQ2">
-        <v>0.01174504472513081</v>
+        <v>0.01175289744786494</v>
       </c>
       <c r="FR2">
-        <v>0.0003351640721561579</v>
+        <v>0.0003283754938298894</v>
       </c>
       <c r="FS2">
-        <v>0.002011273952930172</v>
+        <v>0.002006636179693028</v>
       </c>
       <c r="FT2">
-        <v>0.001788722058138552</v>
+        <v>0.001783798703536247</v>
       </c>
       <c r="FU2">
-        <v>0.004272889900001592</v>
+        <v>0.004271154260535272</v>
       </c>
       <c r="FV2">
-        <v>0.00687820213902949</v>
+        <v>0.006879809668699476</v>
       </c>
       <c r="FW2">
-        <v>0.004377744897547671</v>
+        <v>0.004376143809321058</v>
       </c>
       <c r="FX2">
-        <v>0.006383021850618191</v>
+        <v>0.006383993958770431</v>
       </c>
       <c r="FY2">
-        <v>0.007486100824802842</v>
+        <v>0.007488488417642929</v>
       </c>
       <c r="FZ2">
-        <v>0.001334867868760098</v>
+        <v>0.001329362122805393</v>
       </c>
       <c r="GA2">
-        <v>2.389466044079345E-05</v>
+        <v>1.670665732592041E-05</v>
       </c>
       <c r="GB2">
-        <v>0.00300151192975564</v>
+        <v>0.002998144842232143</v>
       </c>
       <c r="GC2">
-        <v>0.005213707877983636</v>
+        <v>0.005213179507872503</v>
       </c>
       <c r="GD2">
-        <v>0.002131175150124125</v>
+        <v>0.002126691235597603</v>
       </c>
       <c r="GE2">
-        <v>0.001867287156299894</v>
+        <v>0.001862464617410741</v>
       </c>
       <c r="GF2">
-        <v>0.001011276376333107</v>
+        <v>0.001005355393742252</v>
       </c>
       <c r="GG2">
-        <v>2.550861940302198E-05</v>
+        <v>1.832268734040478E-05</v>
       </c>
       <c r="GH2">
-        <v>0.000617390885551206</v>
+        <v>0.0006109644641894065</v>
       </c>
       <c r="GI2">
-        <v>0.0009411769779736427</v>
+        <v>0.0009351660429611321</v>
       </c>
       <c r="GJ2">
-        <v>0.0001805208257752726</v>
+        <v>0.0001735338073078594</v>
       </c>
       <c r="GK2">
-        <v>0.0001047000475497056</v>
+        <v>9.761573491468483E-05</v>
       </c>
       <c r="GL2">
-        <v>0.0002232513147752513</v>
+        <v>0.0002163191286038923</v>
       </c>
       <c r="GM2">
-        <v>0.0003499173918108861</v>
+        <v>0.0003431477451282759</v>
       </c>
       <c r="GN2">
-        <v>0.0004897819885376361</v>
+        <v>0.0004831918178487414</v>
       </c>
       <c r="GO2">
-        <v>0.0002046845852097683</v>
+        <v>0.0001977285739796254</v>
       </c>
       <c r="GP2">
-        <v>1.694980860332376E-05</v>
+        <v>9.752893768016053E-06</v>
       </c>
       <c r="GQ2">
-        <v>0.0008707700796213748</v>
+        <v>0.0008646687975993856</v>
       </c>
       <c r="GR2">
-        <v>0.001028020175941252</v>
+        <v>0.00102212067920274</v>
       </c>
       <c r="GS2">
-        <v>0.003338451221870253</v>
+        <v>0.003335516499045824</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.032535718481179E-05</v>
+        <v>6.851093563322725E-05</v>
       </c>
       <c r="C3">
-        <v>1.513475639414189E-05</v>
+        <v>1.330173950553032E-05</v>
       </c>
       <c r="D3">
-        <v>6.459920541403487E-06</v>
+        <v>4.623980845393099E-06</v>
       </c>
       <c r="E3">
-        <v>1.837497126443313E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.654882133598997E-07</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.26130940932316E-06</v>
+        <v>5.425639724797974E-06</v>
       </c>
       <c r="H3">
-        <v>3.951154641831675E-07</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.227533400860718E-05</v>
+        <v>1.044135369647421E-05</v>
       </c>
       <c r="J3">
-        <v>2.401144503879995E-05</v>
+        <v>2.218141896773097E-05</v>
       </c>
       <c r="K3">
-        <v>7.884201184388234E-05</v>
+        <v>7.703045980379901E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001945717922111136</v>
+        <v>0.0001927992329386241</v>
       </c>
       <c r="M3">
-        <v>0.0001111687855498121</v>
+        <v>0.0001093681253507931</v>
       </c>
       <c r="N3">
-        <v>6.081544556550223E-05</v>
+        <v>5.89978198449265E-05</v>
       </c>
       <c r="O3">
-        <v>3.220488571080904E-05</v>
+        <v>3.037762025094061E-05</v>
       </c>
       <c r="P3">
-        <v>1.379419244780589E-05</v>
+        <v>1.196072388376351E-05</v>
       </c>
       <c r="Q3">
-        <v>3.040163478299482E-06</v>
+        <v>1.203071565530661E-06</v>
       </c>
       <c r="R3">
-        <v>1.559479237572623E-07</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.469150391188569E-05</v>
+        <v>1.285833767847306E-05</v>
       </c>
       <c r="T3">
-        <v>1.559479237572623E-07</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.258577749617984E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>4.252073429785621E-05</v>
+        <v>4.069694455085279E-05</v>
       </c>
       <c r="W3">
-        <v>2.275620808904823E-05</v>
+        <v>2.092575909172378E-05</v>
       </c>
       <c r="X3">
-        <v>6.705322731579814E-06</v>
+        <v>4.869465718786642E-06</v>
       </c>
       <c r="Y3">
-        <v>0.0001308128347634429</v>
+        <v>0.000129018793222501</v>
       </c>
       <c r="Z3">
-        <v>2.423978402965933E-05</v>
+        <v>2.240983489271375E-05</v>
       </c>
       <c r="AA3">
-        <v>0.000122630455090991</v>
+        <v>0.0001208336566656247</v>
       </c>
       <c r="AB3">
-        <v>2.795101588109533E-05</v>
+        <v>2.61223171673391E-05</v>
       </c>
       <c r="AC3">
-        <v>2.761020689473823E-06</v>
+        <v>9.238347252875048E-07</v>
       </c>
       <c r="AD3">
-        <v>1.685197232540017E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>6.654882133598997E-07</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.904814243686723E-05</v>
+        <v>3.722318267150765E-05</v>
       </c>
       <c r="AG3">
-        <v>4.23425323049898E-05</v>
+        <v>4.051868251649256E-05</v>
       </c>
       <c r="AH3">
-        <v>1.371366645102942E-07</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.031184858720729E-05</v>
+        <v>8.4772067190732E-06</v>
       </c>
       <c r="AJ3">
-        <v>1.033567958625332E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.86704812526036E-08</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.007478839576966E-06</v>
+        <v>2.170712843810256E-06</v>
       </c>
       <c r="AM3">
-        <v>2.354502105747132E-05</v>
+        <v>2.171483783444158E-05</v>
       </c>
       <c r="AN3">
-        <v>1.187647052457405E-05</v>
+        <v>1.004235582359937E-05</v>
       </c>
       <c r="AO3">
-        <v>2.875669984884307E-06</v>
+        <v>1.038522649418415E-06</v>
       </c>
       <c r="AP3">
-        <v>1.033567958625332E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.122633855059943E-05</v>
+        <v>9.392004801036854E-06</v>
       </c>
       <c r="AR3">
-        <v>1.96377412138833E-05</v>
+        <v>1.780624151332823E-05</v>
       </c>
       <c r="AS3">
-        <v>5.594877376031954E-06</v>
+        <v>3.758646221530943E-06</v>
       </c>
       <c r="AT3">
-        <v>1.563312737419165E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>3.209231471531536E-06</v>
+        <v>1.372196522743349E-06</v>
       </c>
       <c r="AV3">
-        <v>1.255681949733906E-08</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>6.219093751044003E-06</v>
+        <v>4.383072913403197E-06</v>
       </c>
       <c r="AX3">
-        <v>1.122633855059943E-05</v>
+        <v>9.392004801036854E-06</v>
       </c>
       <c r="AY3">
-        <v>9.79239460800151E-08</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1.748461330007498E-07</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>8.30519966753528E-06</v>
+        <v>6.469881700347695E-06</v>
       </c>
       <c r="BB3">
-        <v>7.458067101446769E-07</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>6.109400255435134E-07</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>8.031827678478611E-06</v>
+        <v>6.196417604225738E-06</v>
       </c>
       <c r="BE3">
-        <v>2.501204899874486E-07</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>5.936139362370926E-06</v>
+        <v>4.100023189072503E-06</v>
       </c>
       <c r="BG3">
-        <v>2.959268981537763E-05</v>
+        <v>2.776454422986532E-05</v>
       </c>
       <c r="BH3">
-        <v>0.0001442703942247245</v>
+        <v>0.0001424808869314654</v>
       </c>
       <c r="BI3">
-        <v>5.720513771002615E-05</v>
+        <v>5.538629557052433E-05</v>
       </c>
       <c r="BJ3">
-        <v>0.0001468090541230996</v>
+        <v>0.0001450204021790436</v>
       </c>
       <c r="BK3">
-        <v>0.0001479703340766125</v>
+        <v>0.0001461820734019359</v>
       </c>
       <c r="BL3">
-        <v>3.92192884300161E-05</v>
+        <v>3.739438632877646E-05</v>
       </c>
       <c r="BM3">
-        <v>7.0058433195497E-06</v>
+        <v>5.170087560983459E-06</v>
       </c>
       <c r="BN3">
-        <v>1.761002529505462E-05</v>
+        <v>1.577784239735428E-05</v>
       </c>
       <c r="BO3">
-        <v>1.368174345230733E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>3.463758861342573E-05</v>
+        <v>3.281114280273147E-05</v>
       </c>
       <c r="BQ3">
-        <v>5.52784177871545E-05</v>
+        <v>5.34589264790296E-05</v>
       </c>
       <c r="BR3">
-        <v>6.398874743847206E-05</v>
+        <v>6.217219089665089E-05</v>
       </c>
       <c r="BS3">
-        <v>1.451386041899693E-05</v>
+        <v>1.268063433226554E-05</v>
       </c>
       <c r="BT3">
-        <v>1.625390234934146E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>7.864932685159568E-07</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>4.49970581987267E-05</v>
+        <v>4.317410279809504E-05</v>
       </c>
       <c r="BW3">
-        <v>3.341016666256054E-05</v>
+        <v>3.158330729730222E-05</v>
       </c>
       <c r="BX3">
-        <v>1.701859731873002E-05</v>
+        <v>1.518621515154558E-05</v>
       </c>
       <c r="BY3">
-        <v>3.418151963168259E-06</v>
+        <v>1.581187405839816E-06</v>
       </c>
       <c r="BZ3">
-        <v>9.386103624265709E-07</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>1.563312737419165E-06</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1.891792924269803E-05</v>
+        <v>1.708618701631413E-05</v>
       </c>
       <c r="CC3">
-        <v>6.879921324590472E-07</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>7.446512701909303E-06</v>
+        <v>5.610905417821778E-06</v>
       </c>
       <c r="CE3">
-        <v>1.379419244780589E-05</v>
+        <v>1.196072388376351E-05</v>
       </c>
       <c r="CF3">
-        <v>1.577929436834045E-05</v>
+        <v>1.394649464353367E-05</v>
       </c>
       <c r="CG3">
-        <v>1.053232757838132E-05</v>
+        <v>8.697759996105496E-06</v>
       </c>
       <c r="CH3">
-        <v>9.79239460800151E-08</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1.311270047508664E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1.904747623751215E-06</v>
+        <v>6.727315597884808E-08</v>
       </c>
       <c r="CK3">
-        <v>2.611806395447007E-05</v>
+        <v>2.42887476652872E-05</v>
       </c>
       <c r="CL3">
-        <v>7.446512701909303E-06</v>
+        <v>5.610905417821778E-06</v>
       </c>
       <c r="CM3">
-        <v>1.423090043032407E-06</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.08916884643048972</v>
+        <v>0.08919705192182606</v>
       </c>
       <c r="CO3">
-        <v>0.0009478947620549078</v>
+        <v>0.0009463760194525354</v>
       </c>
       <c r="CP3">
-        <v>0.09126283634666539</v>
+        <v>0.09129174736480639</v>
       </c>
       <c r="CQ3">
-        <v>0.003913025843358005</v>
+        <v>0.003912506140646416</v>
       </c>
       <c r="CR3">
-        <v>0.002650927193880966</v>
+        <v>0.00264998225300541</v>
       </c>
       <c r="CS3">
-        <v>0.0129210994827566</v>
+        <v>0.01292361486505748</v>
       </c>
       <c r="CT3">
-        <v>0.002300845907895039</v>
+        <v>0.002299783014335395</v>
       </c>
       <c r="CU3">
-        <v>0.0001647083334065751</v>
+        <v>0.0001629257122562784</v>
       </c>
       <c r="CV3">
-        <v>0.06184688752421267</v>
+        <v>0.06186588744382444</v>
       </c>
       <c r="CW3">
-        <v>0.04536182818412463</v>
+        <v>0.04537527380228021</v>
       </c>
       <c r="CX3">
-        <v>0.005781641768555605</v>
+        <v>0.005781751657520955</v>
       </c>
       <c r="CY3">
-        <v>3.274999368898787E-05</v>
+        <v>3.09229118920335E-05</v>
       </c>
       <c r="CZ3">
-        <v>9.272741228803708E-05</v>
+        <v>9.092053864785003E-05</v>
       </c>
       <c r="DA3">
-        <v>0.003242712370191266</v>
+        <v>0.003241966819150998</v>
       </c>
       <c r="DB3">
-        <v>0.003123377074968366</v>
+        <v>0.003122591316356481</v>
       </c>
       <c r="DC3">
-        <v>1.775022128944245E-06</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>8.585925656297562E-05</v>
+        <v>8.405006883907447E-05</v>
       </c>
       <c r="DE3">
-        <v>0.07127495714679843</v>
+        <v>0.07129713366042503</v>
       </c>
       <c r="DF3">
-        <v>0.01337294746466871</v>
+        <v>0.01337561508784735</v>
       </c>
       <c r="DG3">
-        <v>0.005579787076636033</v>
+        <v>0.005579828954817428</v>
       </c>
       <c r="DH3">
-        <v>0.0002268814309177293</v>
+        <v>0.0002251197577130188</v>
       </c>
       <c r="DI3">
-        <v>0.005088110296318302</v>
+        <v>0.005087986514128051</v>
       </c>
       <c r="DJ3">
-        <v>0.008195410171930253</v>
+        <v>0.00819633333047997</v>
       </c>
       <c r="DK3">
-        <v>0.005459589181447664</v>
+        <v>0.005459590561422137</v>
       </c>
       <c r="DL3">
-        <v>0.0124087305032672</v>
+        <v>0.0124110732533858</v>
       </c>
       <c r="DM3">
-        <v>0.005255162789631039</v>
+        <v>0.005255095292340206</v>
       </c>
       <c r="DN3">
-        <v>0.001338422446421728</v>
+        <v>0.001337035284084929</v>
       </c>
       <c r="DO3">
-        <v>5.634028074464716E-05</v>
+        <v>5.452114720939097E-05</v>
       </c>
       <c r="DP3">
-        <v>0.01262397449465078</v>
+        <v>0.01262638976680222</v>
       </c>
       <c r="DQ3">
-        <v>0.007048804717829916</v>
+        <v>0.007049341551270817</v>
       </c>
       <c r="DR3">
-        <v>0.001437161642469108</v>
+        <v>0.001435807748272209</v>
       </c>
       <c r="DS3">
-        <v>7.925532682733695E-05</v>
+        <v>7.744391404523063E-05</v>
       </c>
       <c r="DT3">
-        <v>0.0003501541859830085</v>
+        <v>0.0003484340469959699</v>
       </c>
       <c r="DU3">
-        <v>0.00538713328434814</v>
+        <v>0.005387110251799342</v>
       </c>
       <c r="DV3">
-        <v>0.01003983959809606</v>
+        <v>0.01004138419917966</v>
       </c>
       <c r="DW3">
-        <v>0.01527352438858688</v>
+        <v>0.01527683237204318</v>
       </c>
       <c r="DX3">
-        <v>3.66434715331284E-07</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>2.710489491496633E-05</v>
+        <v>2.527591111816506E-05</v>
       </c>
       <c r="DZ3">
-        <v>0.002188465712393721</v>
+        <v>0.002187364954640163</v>
       </c>
       <c r="EA3">
-        <v>0.008936090642280139</v>
+        <v>0.008937263357869971</v>
       </c>
       <c r="EB3">
-        <v>0.02860835885478129</v>
+        <v>0.0286161597362591</v>
       </c>
       <c r="EC3">
-        <v>0.02151525113872487</v>
+        <v>0.02152066214354507</v>
       </c>
       <c r="ED3">
-        <v>0.01185043152561641</v>
+        <v>0.01185258616838517</v>
       </c>
       <c r="EE3">
-        <v>0.003640316854274795</v>
+        <v>0.003639705267882114</v>
       </c>
       <c r="EF3">
-        <v>0.000458966081627169</v>
+        <v>0.0004572826045688478</v>
       </c>
       <c r="EG3">
-        <v>4.707371611559619E-05</v>
+        <v>4.525146040210873E-05</v>
       </c>
       <c r="EH3">
-        <v>0.007426354702716246</v>
+        <v>0.007427018743853982</v>
       </c>
       <c r="EI3">
-        <v>0.01282249848670369</v>
+        <v>0.01282498064742831</v>
       </c>
       <c r="EJ3">
-        <v>0.005364690785246534</v>
+        <v>0.005364660191159565</v>
       </c>
       <c r="EK3">
-        <v>0.002580065396717628</v>
+        <v>0.002579096580417966</v>
       </c>
       <c r="EL3">
-        <v>0.004761915509376178</v>
+        <v>0.004761681822566068</v>
       </c>
       <c r="EM3">
-        <v>0.007319582706990426</v>
+        <v>0.007320210773501738</v>
       </c>
       <c r="EN3">
-        <v>0.02613572095376325</v>
+        <v>0.02614268873079108</v>
       </c>
       <c r="EO3">
-        <v>0.01409381443581175</v>
+        <v>0.01409672494027974</v>
       </c>
       <c r="EP3">
-        <v>0.002717899891199988</v>
+        <v>0.002716977515396391</v>
       </c>
       <c r="EQ3">
-        <v>0.0002981855580633601</v>
+        <v>0.0002964479093167402</v>
       </c>
       <c r="ER3">
-        <v>0.01244285050190134</v>
+        <v>0.01244520474805124</v>
       </c>
       <c r="ES3">
-        <v>0.02975537680886512</v>
+        <v>0.02976356415443512</v>
       </c>
       <c r="ET3">
-        <v>0.02899470883931535</v>
+        <v>0.02900263989346876</v>
       </c>
       <c r="EU3">
-        <v>0.02766813889241916</v>
+        <v>0.02767562298613185</v>
       </c>
       <c r="EV3">
-        <v>0.01525326838939775</v>
+        <v>0.01525656954801202</v>
       </c>
       <c r="EW3">
-        <v>0.006589830736203063</v>
+        <v>0.006590212927807262</v>
       </c>
       <c r="EX3">
-        <v>0.002845456286093789</v>
+        <v>0.002844576887792139</v>
       </c>
       <c r="EY3">
-        <v>2.795101588109533E-05</v>
+        <v>2.61223171673391E-05</v>
       </c>
       <c r="EZ3">
-        <v>0.001017796459256679</v>
+        <v>0.001016301268592492</v>
       </c>
       <c r="FA3">
-        <v>0.00673908473022829</v>
+        <v>0.006739517209893893</v>
       </c>
       <c r="FB3">
-        <v>0.02196818512059351</v>
+        <v>0.0219737487321968</v>
       </c>
       <c r="FC3">
-        <v>0.009843372605960814</v>
+        <v>0.009844851011535018</v>
       </c>
       <c r="FD3">
-        <v>0.01277488448860972</v>
+        <v>0.01277735060677766</v>
       </c>
       <c r="FE3">
-        <v>0.002893178584183421</v>
+        <v>0.002892315264927914</v>
       </c>
       <c r="FF3">
-        <v>0.005066300497191369</v>
+        <v>0.005066169366638182</v>
       </c>
       <c r="FG3">
-        <v>0.006919306723013839</v>
+        <v>0.006919799924770659</v>
       </c>
       <c r="FH3">
-        <v>1.830474626724431E-05</v>
+        <v>1.647279744147709E-05</v>
       </c>
       <c r="FI3">
-        <v>0.0007824099986794139</v>
+        <v>0.0007808354993919589</v>
       </c>
       <c r="FJ3">
-        <v>0.0001791461328286168</v>
+        <v>0.0001773683761976827</v>
       </c>
       <c r="FK3">
-        <v>0.004580740816628766</v>
+        <v>0.004580446086734796</v>
       </c>
       <c r="FL3">
-        <v>0.007261480409316314</v>
+        <v>0.007262088899454262</v>
       </c>
       <c r="FM3">
-        <v>0.01200923151925951</v>
+        <v>0.01201143966641776</v>
       </c>
       <c r="FN3">
-        <v>0.03013276179375805</v>
+        <v>0.03014107629143154</v>
       </c>
       <c r="FO3">
-        <v>0.01489625040368951</v>
+        <v>0.01489943127244148</v>
       </c>
       <c r="FP3">
-        <v>0.01004449659790964</v>
+        <v>0.01004604276807348</v>
       </c>
       <c r="FQ3">
-        <v>0.002078026916814687</v>
+        <v>0.002076888948981963</v>
       </c>
       <c r="FR3">
-        <v>0.002532670598614885</v>
+        <v>0.002531685813613462</v>
       </c>
       <c r="FS3">
-        <v>0.003712895851369392</v>
+        <v>0.003712308718975991</v>
       </c>
       <c r="FT3">
-        <v>0.002932412882612837</v>
+        <v>0.002931562782546682</v>
       </c>
       <c r="FU3">
-        <v>0.00839227866404943</v>
+        <v>0.008393268153385702</v>
       </c>
       <c r="FV3">
-        <v>0.006321729746935391</v>
+        <v>0.006322021607429196</v>
       </c>
       <c r="FW3">
-        <v>0.006190089752205059</v>
+        <v>0.006190337259311998</v>
       </c>
       <c r="FX3">
-        <v>0.01095096356162294</v>
+        <v>0.01095281514717369</v>
       </c>
       <c r="FY3">
-        <v>0.004542714818150982</v>
+        <v>0.004542407276179459</v>
       </c>
       <c r="FZ3">
-        <v>0.0001315951447321263</v>
+        <v>0.0001298013667744272</v>
       </c>
       <c r="GA3">
-        <v>0.0008791006648087984</v>
+        <v>0.0008775587434512496</v>
       </c>
       <c r="GB3">
-        <v>0.003797806847970327</v>
+        <v>0.00379724832458963</v>
       </c>
       <c r="GC3">
-        <v>0.00213952031435305</v>
+        <v>0.002138403065454996</v>
       </c>
       <c r="GD3">
-        <v>0.0002361961005448546</v>
+        <v>0.0002344375657263644</v>
       </c>
       <c r="GE3">
-        <v>0.0008487378660242489</v>
+        <v>0.0008471857145465638</v>
       </c>
       <c r="GF3">
-        <v>6.857170725501199E-05</v>
+        <v>6.675669484717648E-05</v>
       </c>
       <c r="GG3">
-        <v>9.569831616910909E-05</v>
+        <v>9.38924435138389E-05</v>
       </c>
       <c r="GH3">
-        <v>0.0009865656605068766</v>
+        <v>0.0009850599472678296</v>
       </c>
       <c r="GI3">
-        <v>0.0001392594644253166</v>
+        <v>0.0001374682688023943</v>
       </c>
       <c r="GJ3">
-        <v>0.0001491361540299437</v>
+        <v>0.0001473482861543059</v>
       </c>
       <c r="GK3">
-        <v>0.0001239048350399764</v>
+        <v>0.0001221084659907052</v>
       </c>
       <c r="GL3">
-        <v>0.0004371013625024337</v>
+        <v>0.0004354105185770137</v>
       </c>
       <c r="GM3">
-        <v>0.0004906426803591259</v>
+        <v>0.0004889698760787933</v>
       </c>
       <c r="GN3">
-        <v>0.0007810354687344376</v>
+        <v>0.0007794605063274076</v>
       </c>
       <c r="GO3">
-        <v>0.0001192642952257415</v>
+        <v>0.0001174663626420895</v>
       </c>
       <c r="GP3">
-        <v>0.0001055927557730257</v>
+        <v>0.0001037902168455369</v>
       </c>
       <c r="GQ3">
-        <v>0.0006186384452353386</v>
+        <v>0.0006170087664936269</v>
       </c>
       <c r="GR3">
-        <v>0.0004469835821068394</v>
+        <v>0.0004452960677919235</v>
       </c>
       <c r="GS3">
-        <v>0.002637715694409834</v>
+        <v>0.002636766302191446</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>6.199851788547508E-05</v>
+        <v>1.143954107918326E-05</v>
       </c>
       <c r="C4">
-        <v>3.104502544486756E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.380035110769293E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4.018822587040156E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001057151049200902</v>
+        <v>5.549098857800833E-05</v>
       </c>
       <c r="G4">
-        <v>0.0001613715375103981</v>
+        <v>0.0001115737385027116</v>
       </c>
       <c r="H4">
-        <v>3.190212148475769E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004079055189843443</v>
+        <v>0.0003599961218186068</v>
       </c>
       <c r="J4">
-        <v>8.863952412537503E-05</v>
+        <v>3.828461219060325E-05</v>
       </c>
       <c r="K4">
-        <v>1.913521489057267E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.52425667094048E-07</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>4.807541523747949E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.550669072169741E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>5.064593535711416E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>5.543444257997623E-05</v>
+        <v>4.825186247010293E-06</v>
       </c>
       <c r="Q4">
-        <v>7.346964341935311E-05</v>
+        <v>2.299853318000632E-05</v>
       </c>
       <c r="R4">
-        <v>1.915200789135424E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.000196620409150917</v>
+        <v>0.0001470926095718472</v>
       </c>
       <c r="T4">
-        <v>0.0001537077271537164</v>
+        <v>0.0001038512248650162</v>
       </c>
       <c r="U4">
-        <v>6.453469800351152E-05</v>
+        <v>1.399514783843881E-05</v>
       </c>
       <c r="V4">
-        <v>5.951317776980478E-05</v>
+        <v>8.93516374671939E-06</v>
       </c>
       <c r="W4">
-        <v>8.189127381130448E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2.453148114172048E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>4.428276706096573E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>4.702822218874204E-07</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1.292737860165356E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>6.95333832361555E-05</v>
+        <v>1.903212201747555E-05</v>
       </c>
       <c r="AC4">
-        <v>0.0001194537815595024</v>
+        <v>6.93349007801478E-05</v>
       </c>
       <c r="AD4">
-        <v>1.215118156552854E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>5.747686267503257E-05</v>
+        <v>6.88325087855803E-06</v>
       </c>
       <c r="AF4">
-        <v>4.09030519036703E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>7.724428359502876E-09</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>3.18792644836939E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>3.502780763023036E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>6.728509313151775E-05</v>
+        <v>1.676661045253666E-05</v>
       </c>
       <c r="AK4">
-        <v>0.0001039521148380388</v>
+        <v>5.371449433844334E-05</v>
       </c>
       <c r="AL4">
-        <v>1.231568557318473E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>5.118917538239711E-09</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>2.908122535347027E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0001270552759132838</v>
+        <v>7.699462108660894E-05</v>
       </c>
       <c r="AP4">
-        <v>3.273597952356631E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>2.574375419814092E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>3.78227357603092E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.28605110639518E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>9.689131950942211E-05</v>
+        <v>4.659961470540551E-05</v>
       </c>
       <c r="AU4">
-        <v>1.009305446974118E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>8.474302394402788E-05</v>
+        <v>3.43582655837223E-05</v>
       </c>
       <c r="AW4">
-        <v>2.182436001572826E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>2.18084910149897E-08</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>2.882814134169148E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>6.721667312833341E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>9.116782124304459E-07</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>4.09030519036703E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1.52425667094048E-07</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>9.431798038965626E-08</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>6.431714699338646E-05</v>
+        <v>1.377593043033575E-05</v>
       </c>
       <c r="BF4">
-        <v>7.449815346722103E-05</v>
+        <v>2.403492141268772E-05</v>
       </c>
       <c r="BG4">
-        <v>0.0001281809759656751</v>
+        <v>7.812894378014569E-05</v>
       </c>
       <c r="BH4">
-        <v>5.15004853968858E-05</v>
+        <v>8.610957251148703E-07</v>
       </c>
       <c r="BI4">
-        <v>3.273597952356631E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1.196846855702489E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>2.568084819521321E-06</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1.183628555087296E-06</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>3.282559352773704E-06</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1.448958367436019E-09</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0001005265046786074</v>
+        <v>5.026264467849276E-05</v>
       </c>
       <c r="BP4">
-        <v>6.705968312102694E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>9.906122861041192E-05</v>
+        <v>4.878614488361426E-05</v>
       </c>
       <c r="BR4">
-        <v>4.90161422812619E-06</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>5.118917538239711E-09</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>3.691759671818309E-06</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>3.900646181540103E-08</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1.257158258509444E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>3.273597952356631E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0001061992709426238</v>
+        <v>5.597886321711191E-05</v>
       </c>
       <c r="BY4">
-        <v>4.327668201414149E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>9.127047424782216E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>2.738707127462259E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>2.500290816366118E-07</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>4.124989191981259E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>2.121803298750918E-06</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>3.501376862957697E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>6.431714699338646E-05</v>
+        <v>1.377593043033575E-05</v>
       </c>
       <c r="CG4">
-        <v>5.290248946213651E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>1.002978646679663E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>7.87969076672895E-05</v>
+        <v>2.836660322501054E-05</v>
       </c>
       <c r="CJ4">
-        <v>5.290248946213651E-06</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>1.009305446974118E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>2.356720809684221E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>1.913521489057267E-06</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01231628357321256</v>
+        <v>0.01235959001135595</v>
       </c>
       <c r="CO4">
-        <v>0.01155219553765111</v>
+        <v>0.01158964921162325</v>
       </c>
       <c r="CP4">
-        <v>5.063537835662282E-06</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.005626880261880821</v>
+        <v>0.00561894718545857</v>
       </c>
       <c r="CR4">
-        <v>0.08039719974176875</v>
+        <v>0.08096199261649031</v>
       </c>
       <c r="CS4">
-        <v>0.08332798387817046</v>
+        <v>0.08391522598333258</v>
       </c>
       <c r="CT4">
-        <v>0.0003069417142853845</v>
+        <v>0.0002582589542200426</v>
       </c>
       <c r="CU4">
-        <v>0.001630446975882687</v>
+        <v>0.001591902005986826</v>
       </c>
       <c r="CV4">
-        <v>0.01587990573906722</v>
+        <v>0.01595050882257274</v>
       </c>
       <c r="CW4">
-        <v>0.02119533798645293</v>
+        <v>0.02130665623622765</v>
       </c>
       <c r="CX4">
-        <v>0.02209840302848251</v>
+        <v>0.02221663857898215</v>
       </c>
       <c r="CY4">
-        <v>0.04056939188814141</v>
+        <v>0.04082911158284162</v>
       </c>
       <c r="CZ4">
-        <v>0.0001861445586633601</v>
+        <v>0.0001365365161285793</v>
       </c>
       <c r="DA4">
-        <v>0.001808900684188107</v>
+        <v>0.001771722634622871</v>
       </c>
       <c r="DB4">
-        <v>0.00271479212634923</v>
+        <v>0.002684553027178399</v>
       </c>
       <c r="DC4">
-        <v>0.006664937710193087</v>
+        <v>0.006664955949795191</v>
       </c>
       <c r="DD4">
-        <v>0.0001005265046786074</v>
+        <v>5.026264467849276E-05</v>
       </c>
       <c r="DE4">
-        <v>0.01015485647261751</v>
+        <v>0.01018160680399785</v>
       </c>
       <c r="DF4">
-        <v>0.009025331420048247</v>
+        <v>0.009043429811533535</v>
       </c>
       <c r="DG4">
-        <v>0.0007051232328171637</v>
+        <v>0.0006594904649213798</v>
       </c>
       <c r="DH4">
-        <v>0.001430673266585012</v>
+        <v>0.001390598069341362</v>
       </c>
       <c r="DI4">
-        <v>0.001473473568576982</v>
+        <v>0.001433726213234211</v>
       </c>
       <c r="DJ4">
-        <v>0.002567686119502765</v>
+        <v>0.002536320217233109</v>
       </c>
       <c r="DK4">
-        <v>0.001858087186477297</v>
+        <v>0.001821285895852012</v>
       </c>
       <c r="DL4">
-        <v>0.01211066256364275</v>
+        <v>0.01215239398526754</v>
       </c>
       <c r="DM4">
-        <v>0.004816693524173893</v>
+        <v>0.00480255457658264</v>
       </c>
       <c r="DN4">
-        <v>0.0002279595006094707</v>
+        <v>0.0001786717523112893</v>
       </c>
       <c r="DO4">
-        <v>0.00139397486487703</v>
+        <v>0.001353618565089351</v>
       </c>
       <c r="DP4">
-        <v>0.0007379692743458525</v>
+        <v>0.0006925881006723039</v>
       </c>
       <c r="DQ4">
-        <v>0.00279045072987046</v>
+        <v>0.002760791160731938</v>
       </c>
       <c r="DR4">
-        <v>0.000604408928129816</v>
+        <v>0.0005580047084554776</v>
       </c>
       <c r="DS4">
-        <v>0.004317683800949465</v>
+        <v>0.004299722536958446</v>
       </c>
       <c r="DT4">
-        <v>0.01009541646985111</v>
+        <v>0.01012171150249316</v>
       </c>
       <c r="DU4">
-        <v>0.01329258461865062</v>
+        <v>0.01334336933091054</v>
       </c>
       <c r="DV4">
-        <v>0.01890483187985041</v>
+        <v>0.01899860530304648</v>
       </c>
       <c r="DW4">
-        <v>0.01791255583366886</v>
+        <v>0.01799872861738258</v>
       </c>
       <c r="DX4">
-        <v>0.002923597936067268</v>
+        <v>0.002894958248358191</v>
       </c>
       <c r="DY4">
-        <v>4.807541523747949E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.001999862093075648</v>
+        <v>0.001964146770369113</v>
       </c>
       <c r="EA4">
-        <v>0.005864035572918274</v>
+        <v>0.005857919059565802</v>
       </c>
       <c r="EB4">
-        <v>0.01789026583263145</v>
+        <v>0.01797626787931832</v>
       </c>
       <c r="EC4">
-        <v>0.02845321332424194</v>
+        <v>0.02862012547257205</v>
       </c>
       <c r="ED4">
-        <v>0.039590461842581</v>
+        <v>0.03984268312554047</v>
       </c>
       <c r="EE4">
-        <v>0.02925892336174052</v>
+        <v>0.02943200709059593</v>
       </c>
       <c r="EF4">
-        <v>0.009108829423934333</v>
+        <v>0.009127567393717895</v>
       </c>
       <c r="EG4">
-        <v>1.082507150381001E-05</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.006971596624465309</v>
+        <v>0.006973963811077069</v>
       </c>
       <c r="EI4">
-        <v>0.008595782400056593</v>
+        <v>0.008610590530476409</v>
       </c>
       <c r="EJ4">
-        <v>0.009204869428404133</v>
+        <v>0.009224343045745313</v>
       </c>
       <c r="EK4">
-        <v>0.008357256388955348</v>
+        <v>0.008370237457012307</v>
       </c>
       <c r="EL4">
-        <v>0.00904116542078518</v>
+        <v>0.009059385097603947</v>
       </c>
       <c r="EM4">
-        <v>0.00904116542078518</v>
+        <v>0.009059385097603947</v>
       </c>
       <c r="EN4">
-        <v>0.02064764796096287</v>
+        <v>0.02075477101279056</v>
       </c>
       <c r="EO4">
-        <v>0.01687446078535484</v>
+        <v>0.01695268196503559</v>
       </c>
       <c r="EP4">
-        <v>0.007216661335870875</v>
+        <v>0.007220905670004644</v>
       </c>
       <c r="EQ4">
-        <v>0.001767605782266199</v>
+        <v>0.001730111421868735</v>
       </c>
       <c r="ER4">
-        <v>0.003020990540600021</v>
+        <v>0.002993096861099193</v>
       </c>
       <c r="ES4">
-        <v>0.01353642662999928</v>
+        <v>0.01358907912413909</v>
       </c>
       <c r="ET4">
-        <v>0.02359118809795827</v>
+        <v>0.02372085808868387</v>
       </c>
       <c r="EU4">
-        <v>0.02816484131082081</v>
+        <v>0.0283295445862075</v>
       </c>
       <c r="EV4">
-        <v>0.02647193223203108</v>
+        <v>0.02662366815661474</v>
       </c>
       <c r="EW4">
-        <v>0.02031861294564924</v>
+        <v>0.02042321565393131</v>
       </c>
       <c r="EX4">
-        <v>0.007221132336078959</v>
+        <v>0.007225410917195549</v>
       </c>
       <c r="EY4">
-        <v>0.001619713675383148</v>
+        <v>0.001581086490515086</v>
       </c>
       <c r="EZ4">
-        <v>0.0001383011464366782</v>
+        <v>8.832663276784186E-05</v>
       </c>
       <c r="FA4">
-        <v>0.00428892219961087</v>
+        <v>0.004270740627406677</v>
       </c>
       <c r="FB4">
-        <v>0.01282346459681729</v>
+        <v>0.01287065594191529</v>
       </c>
       <c r="FC4">
-        <v>0.008064712375340045</v>
+        <v>0.008075452613752103</v>
       </c>
       <c r="FD4">
-        <v>0.01344235662562117</v>
+        <v>0.01349428856201686</v>
       </c>
       <c r="FE4">
-        <v>0.01252060458272187</v>
+        <v>0.0125654760796389</v>
       </c>
       <c r="FF4">
-        <v>0.007672285057076073</v>
+        <v>0.00768001937936164</v>
       </c>
       <c r="FG4">
-        <v>0.008415659391673483</v>
+        <v>0.008429087815252178</v>
       </c>
       <c r="FH4">
-        <v>0.00107751625014872</v>
+        <v>0.001034735939572018</v>
       </c>
       <c r="FI4">
-        <v>0.002928988436318148</v>
+        <v>0.002900390038781492</v>
       </c>
       <c r="FJ4">
-        <v>0.001269895459102247</v>
+        <v>0.001228588735454084</v>
       </c>
       <c r="FK4">
-        <v>0.002009677793532481</v>
+        <v>0.001974037657162174</v>
       </c>
       <c r="FL4">
-        <v>0.002748122527900462</v>
+        <v>0.002718138733054438</v>
       </c>
       <c r="FM4">
-        <v>0.009939117462576795</v>
+        <v>0.009964215275543623</v>
       </c>
       <c r="FN4">
-        <v>0.02601670621084439</v>
+        <v>0.02616495519358022</v>
       </c>
       <c r="FO4">
-        <v>0.01826809585021606</v>
+        <v>0.01835699200057531</v>
       </c>
       <c r="FP4">
-        <v>0.01583383073692284</v>
+        <v>0.01590408089496796</v>
       </c>
       <c r="FQ4">
-        <v>0.005362464249574627</v>
+        <v>0.005352505798468956</v>
       </c>
       <c r="FR4">
-        <v>0.0001479900268876088</v>
+        <v>9.808972813868149E-05</v>
       </c>
       <c r="FS4">
-        <v>0.0005729811266671336</v>
+        <v>0.000526336176210711</v>
       </c>
       <c r="FT4">
-        <v>0.002249966504715766</v>
+        <v>0.002216166932644486</v>
       </c>
       <c r="FU4">
-        <v>0.005974987278082081</v>
+        <v>0.005969720632983656</v>
       </c>
       <c r="FV4">
-        <v>0.005216595942785764</v>
+        <v>0.005205520169120441</v>
       </c>
       <c r="FW4">
-        <v>0.009708718451853787</v>
+        <v>0.009732051453683298</v>
       </c>
       <c r="FX4">
-        <v>0.01137934252960636</v>
+        <v>0.01141547218351105</v>
       </c>
       <c r="FY4">
-        <v>0.00904116542078518</v>
+        <v>0.009059385097603947</v>
       </c>
       <c r="FZ4">
-        <v>0.003034545141230866</v>
+        <v>0.003006755287306719</v>
       </c>
       <c r="GA4">
-        <v>1.274032159294773E-07</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001766466082213156</v>
+        <v>0.001728962991937294</v>
       </c>
       <c r="GC4">
-        <v>0.004457131707439515</v>
+        <v>0.004440238587003787</v>
       </c>
       <c r="GD4">
-        <v>0.00167226777782907</v>
+        <v>0.001634043147056259</v>
       </c>
       <c r="GE4">
-        <v>0.001017306247346484</v>
+        <v>0.0009740647399825656</v>
       </c>
       <c r="GF4">
-        <v>8.075491375841712E-05</v>
+        <v>3.0339607257951E-05</v>
       </c>
       <c r="GG4">
-        <v>0.0006825508317666209</v>
+        <v>0.0006367451637153851</v>
       </c>
       <c r="GH4">
-        <v>0.001362162663396458</v>
+        <v>0.001321562688398111</v>
       </c>
       <c r="GI4">
-        <v>0.0002696179025482957</v>
+        <v>0.000220649249421026</v>
       </c>
       <c r="GJ4">
-        <v>0.0001942910790425075</v>
+        <v>0.0001447454372526362</v>
       </c>
       <c r="GK4">
-        <v>0.0008401617891019977</v>
+        <v>0.0007955633900055891</v>
       </c>
       <c r="GL4">
-        <v>0.00118860145531874</v>
+        <v>0.001146672035579894</v>
       </c>
       <c r="GM4">
-        <v>0.0008587488399670581</v>
+        <v>0.0008142928140269996</v>
       </c>
       <c r="GN4">
-        <v>0.0004319991801056881</v>
+        <v>0.000384274335648542</v>
       </c>
       <c r="GO4">
-        <v>9.689131950942211E-05</v>
+        <v>4.659961470540551E-05</v>
       </c>
       <c r="GP4">
-        <v>7.143741832477126E-07</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0002495091316124127</v>
+        <v>0.0002003864492521438</v>
       </c>
       <c r="GR4">
-        <v>0.0004354689602671753</v>
+        <v>0.0003877706936440825</v>
       </c>
       <c r="GS4">
-        <v>0.002911756435516152</v>
+        <v>0.002883026044240295</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.159989277170997E-05</v>
+        <v>4.480370871340969E-05</v>
       </c>
       <c r="C5">
-        <v>7.822502662193006E-05</v>
+        <v>7.146107391348819E-05</v>
       </c>
       <c r="D5">
-        <v>3.658577642007965E-05</v>
+        <v>2.977141685739818E-05</v>
       </c>
       <c r="E5">
-        <v>3.315614456818488E-05</v>
+        <v>2.633763322678464E-05</v>
       </c>
       <c r="F5">
-        <v>1.223486447164955E-05</v>
+        <v>5.391026643551793E-06</v>
       </c>
       <c r="G5">
-        <v>3.625379843441579E-07</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.467643807069248E-05</v>
+        <v>3.787187274783395E-05</v>
       </c>
       <c r="I5">
-        <v>2.04629191163292E-05</v>
+        <v>1.362904185066086E-05</v>
       </c>
       <c r="J5">
-        <v>6.850356104174188E-06</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.284351228616546E-07</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.999164070484083E-07</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.590432431318758E-05</v>
+        <v>9.064928590230376E-06</v>
       </c>
       <c r="N5">
-        <v>7.449270178310679E-06</v>
+        <v>5.99639096183975E-07</v>
       </c>
       <c r="O5">
-        <v>3.340031155764078E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>7.317110084017881E-05</v>
+        <v>6.640103004606095E-05</v>
       </c>
       <c r="Q5">
-        <v>6.664563712197446E-05</v>
+        <v>5.986766685567844E-05</v>
       </c>
       <c r="R5">
-        <v>7.394964680655808E-05</v>
+        <v>6.718051848985891E-05</v>
       </c>
       <c r="S5">
-        <v>5.437490765187372E-05</v>
+        <v>4.75820829184868E-05</v>
       </c>
       <c r="T5">
-        <v>1.584523031573949E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>4.295952514483565E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.176192762839275E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2.362660697970848E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2.468493993400543E-05</v>
+        <v>1.785617368227037E-05</v>
       </c>
       <c r="Y5">
-        <v>2.670924884658766E-05</v>
+        <v>1.988293314436533E-05</v>
       </c>
       <c r="Z5">
-        <v>2.282705001423656E-05</v>
+        <v>1.599603467333863E-05</v>
       </c>
       <c r="AA5">
-        <v>1.435134738025134E-05</v>
+        <v>7.510071683915259E-06</v>
       </c>
       <c r="AB5">
-        <v>1.022899005827124E-05</v>
+        <v>3.38272399674738E-06</v>
       </c>
       <c r="AC5">
-        <v>1.121635851563272E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>6.171460133491634E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>4.384456410661613E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.536197760924808E-05</v>
+        <v>4.857034778430031E-05</v>
       </c>
       <c r="AG5">
-        <v>3.618496143738844E-05</v>
+        <v>2.937011666370266E-05</v>
       </c>
       <c r="AH5">
-        <v>9.516643589033215E-05</v>
+        <v>8.84229917919989E-05</v>
       </c>
       <c r="AI5">
-        <v>0.0001260204945579303</v>
+        <v>0.0001193144011811019</v>
       </c>
       <c r="AJ5">
-        <v>0.0001110071852062652</v>
+        <v>0.0001042829173019782</v>
       </c>
       <c r="AK5">
-        <v>0.0001753265324286981</v>
+        <v>0.000168680127020602</v>
       </c>
       <c r="AL5">
-        <v>0.000102934455554878</v>
+        <v>9.620041511854782E-05</v>
       </c>
       <c r="AM5">
-        <v>5.685786754464956E-05</v>
+        <v>5.006804858578527E-05</v>
       </c>
       <c r="AN5">
-        <v>3.510110648419364E-05</v>
+        <v>2.828494963792302E-05</v>
       </c>
       <c r="AO5">
-        <v>1.539822033504317E-08</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.507989548510962E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3.140279564390151E-05</v>
+        <v>2.458216176659515E-05</v>
       </c>
       <c r="AR5">
-        <v>1.554436932873188E-05</v>
+        <v>8.70453785829252E-06</v>
       </c>
       <c r="AS5">
-        <v>2.326281299541856E-05</v>
+        <v>1.643232517221053E-05</v>
       </c>
       <c r="AT5">
-        <v>9.04596760935889E-06</v>
+        <v>2.198269426942949E-06</v>
       </c>
       <c r="AU5">
-        <v>4.719845796178155E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.095864009492198E-05</v>
+        <v>1.412536292975954E-05</v>
       </c>
       <c r="AW5">
-        <v>1.53149783386379E-06</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.048430654724565E-07</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>5.372014768014887E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1.022899005827124E-05</v>
+        <v>3.38272399674738E-06</v>
       </c>
       <c r="BA5">
-        <v>5.099784379770885E-07</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.416898638812642E-05</v>
+        <v>7.327489932677134E-06</v>
       </c>
       <c r="BC5">
-        <v>3.277463358466006E-05</v>
+        <v>2.59556604009249E-05</v>
       </c>
       <c r="BD5">
-        <v>1.294325844105826E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>7.333770683298409E-06</v>
+        <v>4.839997819823202E-07</v>
       </c>
       <c r="BF5">
-        <v>1.327201142686139E-05</v>
+        <v>6.429429128465609E-06</v>
       </c>
       <c r="BG5">
-        <v>2.670924884658766E-05</v>
+        <v>1.988293314436533E-05</v>
       </c>
       <c r="BH5">
-        <v>3.507989548510962E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>3.684318540896369E-05</v>
+        <v>3.002913745557682E-05</v>
       </c>
       <c r="BJ5">
-        <v>2.50425059185643E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>3.253187859514319E-05</v>
+        <v>2.571261154167423E-05</v>
       </c>
       <c r="BL5">
-        <v>1.645895528923639E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>6.613428114405687E-08</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>5.099784379770885E-07</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>1.03653145523842E-05</v>
+        <v>3.5192135199824E-06</v>
       </c>
       <c r="BP5">
-        <v>3.176192762839275E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>1.223486447164955E-05</v>
+        <v>5.391026643551793E-06</v>
       </c>
       <c r="BR5">
-        <v>3.48498684950431E-05</v>
+        <v>2.803340750984979E-05</v>
       </c>
       <c r="BS5">
-        <v>8.455293634866557E-06</v>
+        <v>1.606880405546769E-06</v>
       </c>
       <c r="BT5">
-        <v>4.927533787209356E-07</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>2.400202596349639E-06</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>5.112368079227471E-05</v>
+        <v>4.432692025030294E-05</v>
       </c>
       <c r="BW5">
-        <v>3.588009145055395E-06</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>2.871326276004632E-06</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.239967346453244E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>2.087312309861495E-07</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>4.919116487572849E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>5.736001252296493E-05</v>
+        <v>5.057080144125036E-05</v>
       </c>
       <c r="CC5">
-        <v>2.468493993400543E-05</v>
+        <v>1.785617368227037E-05</v>
       </c>
       <c r="CD5">
-        <v>5.958110042704946E-05</v>
+        <v>5.279457810782921E-05</v>
       </c>
       <c r="CE5">
-        <v>2.370269297642279E-05</v>
+        <v>1.687273765478426E-05</v>
       </c>
       <c r="CF5">
-        <v>3.724761839149866E-05</v>
+        <v>3.043406002892577E-05</v>
       </c>
       <c r="CG5">
-        <v>3.201618861741275E-05</v>
+        <v>2.519629728974543E-05</v>
       </c>
       <c r="CH5">
-        <v>1.123990551461586E-05</v>
+        <v>4.394863227963294E-06</v>
       </c>
       <c r="CI5">
-        <v>2.362660697970848E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>7.967197655944496E-07</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>2.535145290522273E-05</v>
+        <v>1.852349350812665E-05</v>
       </c>
       <c r="CL5">
-        <v>2.251068002789868E-05</v>
+        <v>1.567928170181947E-05</v>
       </c>
       <c r="CM5">
-        <v>6.146517734568746E-05</v>
+        <v>5.46809358165908E-05</v>
       </c>
       <c r="CN5">
-        <v>0.001886416018537001</v>
+        <v>0.001881840991405388</v>
       </c>
       <c r="CO5">
-        <v>0.08859823617397332</v>
+        <v>0.08869863109846754</v>
       </c>
       <c r="CP5">
-        <v>0.05056022981660678</v>
+        <v>0.05061457741237329</v>
       </c>
       <c r="CQ5">
-        <v>0.001873820719080917</v>
+        <v>0.001869230444570431</v>
       </c>
       <c r="CR5">
-        <v>0.0001726921825424599</v>
+        <v>0.0001660425880930124</v>
       </c>
       <c r="CS5">
-        <v>0.07670232668768634</v>
+        <v>0.07678832088756099</v>
       </c>
       <c r="CT5">
-        <v>0.007955323656457262</v>
+        <v>0.007958095412498142</v>
       </c>
       <c r="CU5">
-        <v>0.0001036096905257186</v>
+        <v>9.687646750254044E-05</v>
       </c>
       <c r="CV5">
-        <v>0.02409022895968743</v>
+        <v>0.02411253300355403</v>
       </c>
       <c r="CW5">
-        <v>0.03676700841225333</v>
+        <v>0.03680465847150192</v>
       </c>
       <c r="CX5">
-        <v>0.01637365629291995</v>
+        <v>0.01638661895451483</v>
       </c>
       <c r="CY5">
-        <v>0.0009668038282495386</v>
+        <v>0.0009611155544238072</v>
       </c>
       <c r="CZ5">
-        <v>0.000178625652286229</v>
+        <v>0.0001719832406641153</v>
       </c>
       <c r="DA5">
-        <v>0.01966766515067145</v>
+        <v>0.01968461541107159</v>
       </c>
       <c r="DB5">
-        <v>0.0009312015197869889</v>
+        <v>0.0009254701471935188</v>
       </c>
       <c r="DC5">
-        <v>0.01549902033069023</v>
+        <v>0.01551092419206063</v>
       </c>
       <c r="DD5">
-        <v>0.003267732058886242</v>
+        <v>0.003264829199143983</v>
       </c>
       <c r="DE5">
-        <v>0.01186511948761662</v>
+        <v>0.01187262429018481</v>
       </c>
       <c r="DF5">
-        <v>0.04171067319876608</v>
+        <v>0.04175430786602504</v>
       </c>
       <c r="DG5">
-        <v>0.002918512673966934</v>
+        <v>0.002915187062841114</v>
       </c>
       <c r="DH5">
-        <v>0.001260614945561598</v>
+        <v>0.001255282348029088</v>
       </c>
       <c r="DI5">
-        <v>0.007370582881708712</v>
+        <v>0.007372646773346227</v>
       </c>
       <c r="DJ5">
-        <v>0.02006686013343261</v>
+        <v>0.02008429364372826</v>
       </c>
       <c r="DK5">
-        <v>0.000388137043238688</v>
+        <v>0.0003817482579449563</v>
       </c>
       <c r="DL5">
-        <v>0.01750374524411818</v>
+        <v>0.01751807594737483</v>
       </c>
       <c r="DM5">
-        <v>0.004261799415958433</v>
+        <v>0.004260099935434805</v>
       </c>
       <c r="DN5">
-        <v>5.017531783322882E-05</v>
+        <v>4.337740924000225E-05</v>
       </c>
       <c r="DO5">
-        <v>0.006980002998575516</v>
+        <v>0.006981594069421528</v>
       </c>
       <c r="DP5">
-        <v>0.001842252220444171</v>
+        <v>0.001837623730338985</v>
       </c>
       <c r="DQ5">
-        <v>0.008207735645557103</v>
+        <v>0.008210812961719291</v>
       </c>
       <c r="DR5">
-        <v>3.201618861741275E-05</v>
+        <v>2.519629728974543E-05</v>
       </c>
       <c r="DS5">
-        <v>0.001102203552402436</v>
+        <v>0.001096679188208275</v>
       </c>
       <c r="DT5">
-        <v>0.003178065762758392</v>
+        <v>0.003175054356490987</v>
       </c>
       <c r="DU5">
-        <v>0.004612019600834522</v>
+        <v>0.004610744083223896</v>
       </c>
       <c r="DV5">
-        <v>0.01070384453776512</v>
+        <v>0.01070994354611643</v>
       </c>
       <c r="DW5">
-        <v>0.01340654742105159</v>
+        <v>0.01341591821622976</v>
       </c>
       <c r="DX5">
-        <v>0.006035477139363925</v>
+        <v>0.00603592480399873</v>
       </c>
       <c r="DY5">
-        <v>0.001304395643670972</v>
+        <v>0.001299116045346119</v>
       </c>
       <c r="DZ5">
-        <v>0.0001798409322337483</v>
+        <v>0.0001731999917821979</v>
       </c>
       <c r="EA5">
-        <v>0.004803016092586529</v>
+        <v>0.00480197178788856</v>
       </c>
       <c r="EB5">
-        <v>0.01614064630298225</v>
+        <v>0.01615332689176021</v>
       </c>
       <c r="EC5">
-        <v>0.02776348680106145</v>
+        <v>0.02779023754777924</v>
       </c>
       <c r="ED5">
-        <v>0.01411426239048962</v>
+        <v>0.01412448991784079</v>
       </c>
       <c r="EE5">
-        <v>0.02121530208383829</v>
+        <v>0.0212341258532216</v>
       </c>
       <c r="EF5">
-        <v>0.01050630154629582</v>
+        <v>0.01051216141679693</v>
       </c>
       <c r="EG5">
-        <v>0.0004085500123571742</v>
+        <v>0.0004021859382086712</v>
       </c>
       <c r="EH5">
-        <v>0.001508985534835961</v>
+        <v>0.001503953605063564</v>
       </c>
       <c r="EI5">
-        <v>0.01471068436473373</v>
+        <v>0.01472163389729333</v>
       </c>
       <c r="EJ5">
-        <v>0.007846654661150025</v>
+        <v>0.00784929486673838</v>
       </c>
       <c r="EK5">
-        <v>0.005317711070359939</v>
+        <v>0.005317289835352146</v>
       </c>
       <c r="EL5">
-        <v>0.004986753484652012</v>
+        <v>0.004985931605283397</v>
       </c>
       <c r="EM5">
-        <v>0.006367132725041708</v>
+        <v>0.006367981879008909</v>
       </c>
       <c r="EN5">
-        <v>0.0170471752638347</v>
+        <v>0.01706095326125888</v>
       </c>
       <c r="EO5">
-        <v>0.01703532326434651</v>
+        <v>0.01704908691420181</v>
       </c>
       <c r="EP5">
-        <v>0.006461644220960323</v>
+        <v>0.006462607786862793</v>
       </c>
       <c r="EQ5">
-        <v>0.004137864821310425</v>
+        <v>0.004136015310394381</v>
       </c>
       <c r="ER5">
-        <v>0.000304926186832066</v>
+        <v>0.0002984366697170429</v>
       </c>
       <c r="ES5">
-        <v>0.01454893437171875</v>
+        <v>0.01455968809603777</v>
       </c>
       <c r="ET5">
-        <v>0.02187885805518328</v>
+        <v>0.02189848509957672</v>
       </c>
       <c r="EU5">
-        <v>0.02193797705263029</v>
+        <v>0.02195767566417906</v>
       </c>
       <c r="EV5">
-        <v>0.02599274987752896</v>
+        <v>0.02601735703910609</v>
       </c>
       <c r="EW5">
-        <v>0.01349147941738389</v>
+        <v>0.01350095302792829</v>
       </c>
       <c r="EX5">
-        <v>0.007850418660987481</v>
+        <v>0.007853063423127414</v>
       </c>
       <c r="EY5">
-        <v>0.002394522896594911</v>
+        <v>0.002390562963856599</v>
       </c>
       <c r="EZ5">
-        <v>0.0002518722491231475</v>
+        <v>0.0002453185069778473</v>
       </c>
       <c r="FA5">
-        <v>0.001846930720242134</v>
+        <v>0.001842307893746553</v>
       </c>
       <c r="FB5">
-        <v>0.01366847440974053</v>
+        <v>0.01367816228352785</v>
       </c>
       <c r="FC5">
-        <v>0.01016240456114667</v>
+        <v>0.01016784812335405</v>
       </c>
       <c r="FD5">
-        <v>0.0125463304581992</v>
+        <v>0.01255465990823185</v>
       </c>
       <c r="FE5">
-        <v>0.008842943618126278</v>
+        <v>0.008846789892315566</v>
       </c>
       <c r="FF5">
-        <v>0.005282025771900973</v>
+        <v>0.005281561337660986</v>
       </c>
       <c r="FG5">
-        <v>0.01208696347803651</v>
+        <v>0.01209473683629758</v>
       </c>
       <c r="FH5">
-        <v>0.0007299543684776469</v>
+        <v>0.0007239793739223738</v>
       </c>
       <c r="FI5">
-        <v>0.0003111906865615398</v>
+        <v>0.000304708753005856</v>
       </c>
       <c r="FJ5">
-        <v>0.001482305235988123</v>
+        <v>0.00147724100808527</v>
       </c>
       <c r="FK5">
-        <v>0.0003418022052396118</v>
+        <v>0.0003353573287959696</v>
       </c>
       <c r="FL5">
-        <v>0.006245078730312489</v>
+        <v>0.006245780130468278</v>
       </c>
       <c r="FM5">
-        <v>0.007161667290730524</v>
+        <v>0.007163478277291896</v>
       </c>
       <c r="FN5">
-        <v>0.02021201612716419</v>
+        <v>0.02022962535765131</v>
       </c>
       <c r="FO5">
-        <v>0.02184932905645846</v>
+        <v>0.02186892035419635</v>
       </c>
       <c r="FP5">
-        <v>0.01165250249679827</v>
+        <v>0.01165974991351986</v>
       </c>
       <c r="FQ5">
-        <v>0.009191760603062963</v>
+        <v>0.009196029141506067</v>
       </c>
       <c r="FR5">
-        <v>4.303418014161175E-05</v>
+        <v>3.622762676527835E-05</v>
       </c>
       <c r="FS5">
-        <v>0.00165333042860257</v>
+        <v>0.001648473237135619</v>
       </c>
       <c r="FT5">
-        <v>0.0006079930237444263</v>
+        <v>0.0006018703875362168</v>
       </c>
       <c r="FU5">
-        <v>0.003443345251302562</v>
+        <v>0.003440654982050039</v>
       </c>
       <c r="FV5">
-        <v>0.00827035564285292</v>
+        <v>0.008273508764344475</v>
       </c>
       <c r="FW5">
-        <v>0.005091140280144173</v>
+        <v>0.005090444767363799</v>
       </c>
       <c r="FX5">
-        <v>0.007935354157319626</v>
+        <v>0.00793810173906276</v>
       </c>
       <c r="FY5">
-        <v>0.01128053751286121</v>
+        <v>0.01128733464326312</v>
       </c>
       <c r="FZ5">
-        <v>0.001746893524562141</v>
+        <v>0.001742149596934413</v>
       </c>
       <c r="GA5">
-        <v>3.71497803957237E-06</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0001897965018038269</v>
+        <v>0.0001831676131769794</v>
       </c>
       <c r="GC5">
-        <v>0.002575497888779686</v>
+        <v>0.002571757037317041</v>
       </c>
       <c r="GD5">
-        <v>0.002114498208687499</v>
+        <v>0.002110199288970352</v>
       </c>
       <c r="GE5">
-        <v>0.0007932401657447127</v>
+        <v>0.0007873417825103162</v>
       </c>
       <c r="GF5">
-        <v>0.0002525469390940117</v>
+        <v>0.0002459940137021077</v>
       </c>
       <c r="GG5">
-        <v>0.0001966097115096052</v>
+        <v>0.0001899890706890193</v>
       </c>
       <c r="GH5">
-        <v>0.001307676143529307</v>
+        <v>0.00130240051644979</v>
       </c>
       <c r="GI5">
-        <v>0.0004063512124521272</v>
+        <v>0.0003999844765221133</v>
       </c>
       <c r="GJ5">
-        <v>4.303418014161175E-05</v>
+        <v>3.622762676527835E-05</v>
       </c>
       <c r="GK5">
-        <v>0.0003925632430475469</v>
+        <v>0.0003861798159388815</v>
       </c>
       <c r="GL5">
-        <v>0.0008988016611861445</v>
+        <v>0.000893031066585987</v>
       </c>
       <c r="GM5">
-        <v>0.000790175135877073</v>
+        <v>0.0007842730422369168</v>
       </c>
       <c r="GN5">
-        <v>0.001126652051346652</v>
+        <v>0.001121157283552923</v>
       </c>
       <c r="GO5">
-        <v>0.000289589767494354</v>
+        <v>0.0002830816847075101</v>
       </c>
       <c r="GP5">
-        <v>0.000103857480515018</v>
+        <v>9.712455745674826E-05</v>
       </c>
       <c r="GQ5">
-        <v>0.0003978543528190556</v>
+        <v>0.0003914773309217646</v>
       </c>
       <c r="GR5">
-        <v>0.0004398267010065215</v>
+        <v>0.0004335004891989157</v>
       </c>
       <c r="GS5">
-        <v>0.002104208709131841</v>
+        <v>0.002099897333347359</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.710509112696874E-07</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.3261021248456E-05</v>
+        <v>5.296580663834204E-05</v>
       </c>
       <c r="D6">
-        <v>6.886026135895699E-05</v>
+        <v>5.857516150071998E-05</v>
       </c>
       <c r="E6">
-        <v>7.805123654034083E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.246722524604064E-05</v>
+        <v>2.080254141596424E-06</v>
       </c>
       <c r="G6">
-        <v>2.164683842720027E-05</v>
+        <v>1.127644984249471E-05</v>
       </c>
       <c r="H6">
-        <v>1.183219823350838E-05</v>
+        <v>1.444079983998022E-06</v>
       </c>
       <c r="I6">
-        <v>2.45432934843618E-05</v>
+        <v>1.417813720326311E-05</v>
       </c>
       <c r="J6">
-        <v>1.039072220506086E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.123363122169567E-05</v>
+        <v>8.444316903172781E-07</v>
       </c>
       <c r="L6">
-        <v>5.574800610018668E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.64162283239742E-05</v>
+        <v>6.036390899369807E-06</v>
       </c>
       <c r="N6">
-        <v>7.522551148457516E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>7.812363154176955E-07</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3.212084563390476E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.113232521969639E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.501891329639819E-05</v>
+        <v>4.636551690919444E-06</v>
       </c>
       <c r="S6">
-        <v>8.305349163906033E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>9.599042189437059E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2.293284745257965E-05</v>
+        <v>1.256478197992975E-05</v>
       </c>
       <c r="V6">
-        <v>1.138139722461183E-08</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.45432934843618E-05</v>
+        <v>1.417813720326311E-05</v>
       </c>
       <c r="X6">
-        <v>1.06699592105716E-05</v>
+        <v>2.797414334277195E-07</v>
       </c>
       <c r="Y6">
-        <v>4.396134086757688E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>4.829108795302442E-05</v>
+        <v>3.796883089466577E-05</v>
       </c>
       <c r="AA6">
-        <v>5.336392505313685E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.043389720591292E-07</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1.06699592105716E-05</v>
+        <v>2.797414334277195E-07</v>
       </c>
       <c r="AD6">
-        <v>2.090769741261332E-05</v>
+        <v>1.053597360601745E-05</v>
       </c>
       <c r="AE6">
-        <v>1.309738625847687E-05</v>
+        <v>2.711553508908942E-06</v>
       </c>
       <c r="AF6">
-        <v>6.985650437861783E-07</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>4.054619280017896E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>3.837433075731726E-07</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>2.442713048206932E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.747149134479981E-05</v>
+        <v>7.093560200942436E-06</v>
       </c>
       <c r="AK6">
-        <v>2.941020858041035E-07</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.153411742497572E-08</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.244629924562767E-05</v>
+        <v>2.05929033939289E-06</v>
       </c>
       <c r="AN6">
-        <v>7.089460139910467E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.015293720036817E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>7.805123654034083E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>6.196605122289976E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.968062038839696E-05</v>
+        <v>9.306679927507131E-06</v>
       </c>
       <c r="AS6">
-        <v>2.931307057849333E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1.625205232073419E-07</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>3.357144766253238E-07</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>2.627661651856892E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>1.468727628985334E-05</v>
+        <v>4.304315598432886E-06</v>
       </c>
       <c r="AX6">
-        <v>5.710509112696874E-07</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1.432111328262711E-05</v>
+        <v>3.937491135742791E-06</v>
       </c>
       <c r="AZ6">
-        <v>1.096669221642763E-05</v>
+        <v>5.770104728648546E-07</v>
       </c>
       <c r="BA6">
-        <v>2.637281352046737E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>6.181855121998886E-06</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>3.293983065006742E-05</v>
+        <v>2.258984230039883E-05</v>
       </c>
       <c r="BD6">
-        <v>3.524629469558549E-06</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1.501891329639819E-05</v>
+        <v>4.636551690919444E-06</v>
       </c>
       <c r="BF6">
-        <v>9.599042189437059E-06</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>4.198286082853158E-05</v>
+        <v>3.164920826812472E-05</v>
       </c>
       <c r="BH6">
-        <v>4.302758084914913E-05</v>
+        <v>3.269581552407794E-05</v>
       </c>
       <c r="BI6">
-        <v>1.125351222208802E-05</v>
+        <v>8.643486047590482E-07</v>
       </c>
       <c r="BJ6">
-        <v>1.040984320543821E-05</v>
+        <v>1.915554152412327E-08</v>
       </c>
       <c r="BK6">
-        <v>1.501891329639819E-05</v>
+        <v>4.636551690919444E-06</v>
       </c>
       <c r="BL6">
-        <v>1.336727126380305E-05</v>
+        <v>2.981926048223719E-06</v>
       </c>
       <c r="BM6">
-        <v>1.123363122169567E-05</v>
+        <v>8.444316903172781E-07</v>
       </c>
       <c r="BN6">
-        <v>4.054619280017896E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>1.210456723888359E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>2.723299653744308E-05</v>
+        <v>1.68726990726244E-05</v>
       </c>
       <c r="BQ6">
-        <v>7.395501745950196E-05</v>
+        <v>6.367912102758953E-05</v>
       </c>
       <c r="BR6">
-        <v>5.134454601328441E-05</v>
+        <v>4.102780487673599E-05</v>
       </c>
       <c r="BS6">
-        <v>1.040984320543821E-05</v>
+        <v>1.915554152412327E-08</v>
       </c>
       <c r="BT6">
-        <v>1.307593725805357E-05</v>
+        <v>2.69006576192129E-06</v>
       </c>
       <c r="BU6">
-        <v>0.0001022936580187649</v>
+        <v>9.206895394726753E-05</v>
       </c>
       <c r="BV6">
-        <v>3.293983065006742E-05</v>
+        <v>2.258984230039883E-05</v>
       </c>
       <c r="BW6">
-        <v>2.358791046550732E-06</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>2.08726214119211E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1.338895726423102E-05</v>
+        <v>3.003651223344902E-06</v>
       </c>
       <c r="BZ6">
-        <v>5.15290810169262E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1.71136543377379E-05</v>
+        <v>6.735076778926462E-06</v>
       </c>
       <c r="CB6">
-        <v>7.864856755212916E-07</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>4.396134086757688E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>8.633629170384638E-05</v>
+        <v>7.608276143491866E-05</v>
       </c>
       <c r="CE6">
-        <v>4.366057786164133E-05</v>
+        <v>3.332995601454104E-05</v>
       </c>
       <c r="CF6">
-        <v>5.644522511394629E-05</v>
+        <v>4.613769810333085E-05</v>
       </c>
       <c r="CG6">
-        <v>4.198286082853158E-05</v>
+        <v>3.164920826812472E-05</v>
       </c>
       <c r="CH6">
-        <v>6.952674537211005E-05</v>
+        <v>5.924284948446368E-05</v>
       </c>
       <c r="CI6">
-        <v>3.493455068943322E-05</v>
+        <v>2.458816570341112E-05</v>
       </c>
       <c r="CJ6">
-        <v>6.952674537211005E-05</v>
+        <v>5.924284948446368E-05</v>
       </c>
       <c r="CK6">
-        <v>0.0001023536520199489</v>
+        <v>9.212905632466402E-05</v>
       </c>
       <c r="CL6">
-        <v>0.0001015446620039835</v>
+        <v>9.131860490802262E-05</v>
       </c>
       <c r="CM6">
-        <v>4.250361683880871E-05</v>
+        <v>3.21709049985225E-05</v>
       </c>
       <c r="CN6">
-        <v>0.008278277163371766</v>
+        <v>0.00828282197139024</v>
       </c>
       <c r="CO6">
-        <v>0.02809196055439473</v>
+        <v>0.02813229780697953</v>
       </c>
       <c r="CP6">
-        <v>0.05005138498776388</v>
+        <v>0.05013139086057585</v>
       </c>
       <c r="CQ6">
-        <v>0.002954780858312588</v>
+        <v>0.002949709032076968</v>
       </c>
       <c r="CR6">
-        <v>0.003552868770115851</v>
+        <v>0.003548877360277654</v>
       </c>
       <c r="CS6">
-        <v>0.04405820486948849</v>
+        <v>0.04412738435717429</v>
       </c>
       <c r="CT6">
-        <v>0.001094634921602616</v>
+        <v>0.001086202833218306</v>
       </c>
       <c r="CU6">
-        <v>0.01365480126947745</v>
+        <v>0.01366905850386459</v>
       </c>
       <c r="CV6">
-        <v>0.054611919077766</v>
+        <v>0.05470016333111469</v>
       </c>
       <c r="CW6">
-        <v>0.06775648133717388</v>
+        <v>0.06786847059576635</v>
       </c>
       <c r="CX6">
-        <v>0.001393883127508278</v>
+        <v>0.001385991616290266</v>
       </c>
       <c r="CY6">
-        <v>0.0007701761151994225</v>
+        <v>0.0007611579079389267</v>
       </c>
       <c r="CZ6">
-        <v>6.389990126106429E-05</v>
+        <v>5.360584075627162E-05</v>
       </c>
       <c r="DA6">
-        <v>0.02258046344562535</v>
+        <v>0.02261084444975044</v>
       </c>
       <c r="DB6">
-        <v>0.0006391439126135026</v>
+        <v>0.0006298890021234808</v>
       </c>
       <c r="DC6">
-        <v>0.004613494091047287</v>
+        <v>0.004611418648687518</v>
       </c>
       <c r="DD6">
-        <v>0.001924820237986319</v>
+        <v>0.001917887838545757</v>
       </c>
       <c r="DE6">
-        <v>0.04729759093341777</v>
+        <v>0.04737262221270808</v>
       </c>
       <c r="DF6">
-        <v>0.02930981957842917</v>
+        <v>0.02935235683344397</v>
       </c>
       <c r="DG6">
-        <v>0.005004995098773558</v>
+        <v>0.005003626883729385</v>
       </c>
       <c r="DH6">
-        <v>0.0002412835947617308</v>
+        <v>0.0002313099691751356</v>
       </c>
       <c r="DI6">
-        <v>9.285752683254292E-05</v>
+        <v>8.261577685414683E-05</v>
       </c>
       <c r="DJ6">
-        <v>0.009093480179459794</v>
+        <v>0.009099497611633393</v>
       </c>
       <c r="DK6">
-        <v>0.003913061777224258</v>
+        <v>0.003909721038338335</v>
       </c>
       <c r="DL6">
-        <v>0.02002665839522602</v>
+        <v>0.02005242607612919</v>
       </c>
       <c r="DM6">
-        <v>0.01185518723396207</v>
+        <v>0.01186619355410294</v>
       </c>
       <c r="DN6">
-        <v>0.0002617709051660478</v>
+        <v>0.000251834288898088</v>
       </c>
       <c r="DO6">
-        <v>0.0003071396560613999</v>
+        <v>0.0002972849962105998</v>
       </c>
       <c r="DP6">
-        <v>0.00463787379152842</v>
+        <v>0.004635842389898524</v>
       </c>
       <c r="DQ6">
-        <v>0.007455617147136575</v>
+        <v>0.007458675860295908</v>
       </c>
       <c r="DR6">
-        <v>0.000404989387992464</v>
+        <v>0.0003953114888699372</v>
       </c>
       <c r="DS6">
-        <v>0.0001990108039274774</v>
+        <v>0.0001889608146233069</v>
       </c>
       <c r="DT6">
-        <v>0.0009613123189714947</v>
+        <v>0.0009526393898626237</v>
       </c>
       <c r="DU6">
-        <v>0.0058471661153938</v>
+        <v>0.00584731924087137</v>
       </c>
       <c r="DV6">
-        <v>0.01724886534040629</v>
+        <v>0.01726961507477376</v>
       </c>
       <c r="DW6">
-        <v>0.01679519033145302</v>
+        <v>0.01681512052422952</v>
       </c>
       <c r="DX6">
-        <v>0.002379126846952058</v>
+        <v>0.002373015130056817</v>
       </c>
       <c r="DY6">
-        <v>0.000377615277452236</v>
+        <v>0.0003678879283453359</v>
       </c>
       <c r="DZ6">
-        <v>0.0001928715838063199</v>
+        <v>0.0001828105043029406</v>
       </c>
       <c r="EA6">
-        <v>0.005209552702810502</v>
+        <v>0.005208554011017438</v>
       </c>
       <c r="EB6">
-        <v>0.01631609032199798</v>
+        <v>0.01633515504417057</v>
       </c>
       <c r="EC6">
-        <v>0.02175411042931728</v>
+        <v>0.02178299866736023</v>
       </c>
       <c r="ED6">
-        <v>0.01815842735835649</v>
+        <v>0.01818082017177517</v>
       </c>
       <c r="EE6">
-        <v>0.01706547733678713</v>
+        <v>0.01708589578974547</v>
       </c>
       <c r="EF6">
-        <v>0.006612821130503998</v>
+        <v>0.006614357374109804</v>
       </c>
       <c r="EG6">
-        <v>0.000226731794474551</v>
+        <v>0.0002167318817764259</v>
       </c>
       <c r="EH6">
-        <v>0.002936838257958491</v>
+        <v>0.002931734019297787</v>
       </c>
       <c r="EI6">
-        <v>0.01405346527734508</v>
+        <v>0.01406844267865528</v>
       </c>
       <c r="EJ6">
-        <v>0.01006879519870763</v>
+        <v>0.01007657448949541</v>
       </c>
       <c r="EK6">
-        <v>0.002737983154034087</v>
+        <v>0.002732519693408264</v>
       </c>
       <c r="EL6">
-        <v>0.003757629074156795</v>
+        <v>0.003754007553737295</v>
       </c>
       <c r="EM6">
-        <v>0.00578727811421191</v>
+        <v>0.005787323054960766</v>
       </c>
       <c r="EN6">
-        <v>0.02301354945417231</v>
+        <v>0.02304471280687174</v>
       </c>
       <c r="EO6">
-        <v>0.02089389241234088</v>
+        <v>0.02092122670884354</v>
       </c>
       <c r="EP6">
-        <v>0.004721183393172536</v>
+        <v>0.004719302486240665</v>
       </c>
       <c r="EQ6">
-        <v>0.004649885591765474</v>
+        <v>0.00464787588886194</v>
       </c>
       <c r="ER6">
-        <v>0.002765411554575386</v>
+        <v>0.002759997642006154</v>
       </c>
       <c r="ES6">
-        <v>0.01804200735605894</v>
+        <v>0.01806418986246926</v>
       </c>
       <c r="ET6">
-        <v>0.03026673259731385</v>
+        <v>0.03031099846863422</v>
       </c>
       <c r="EU6">
-        <v>0.02810439555464013</v>
+        <v>0.0281447552704413</v>
       </c>
       <c r="EV6">
-        <v>0.01880542037112489</v>
+        <v>0.01882898194560063</v>
       </c>
       <c r="EW6">
-        <v>0.01105774521822456</v>
+        <v>0.01106731099858391</v>
       </c>
       <c r="EX6">
-        <v>0.007078120639686682</v>
+        <v>0.007080497423971397</v>
       </c>
       <c r="EY6">
-        <v>0.0009213092181820337</v>
+        <v>0.000912564025439025</v>
       </c>
       <c r="EZ6">
-        <v>0.0004463029688077873</v>
+        <v>0.0004366997006371126</v>
       </c>
       <c r="FA6">
-        <v>0.002103858241519634</v>
+        <v>0.002097249265426981</v>
       </c>
       <c r="FB6">
-        <v>0.01905759037610147</v>
+        <v>0.01908160748328894</v>
       </c>
       <c r="FC6">
-        <v>0.009285496183249231</v>
+        <v>0.009291860482889916</v>
       </c>
       <c r="FD6">
-        <v>0.01279862325258078</v>
+        <v>0.01281133384348907</v>
       </c>
       <c r="FE6">
-        <v>0.005980252418020257</v>
+        <v>0.005980645957358052</v>
       </c>
       <c r="FF6">
-        <v>0.00641670612663367</v>
+        <v>0.006417888098130342</v>
       </c>
       <c r="FG6">
-        <v>0.01461364128840015</v>
+        <v>0.01462963062012366</v>
       </c>
       <c r="FH6">
-        <v>0.0004442741087677478</v>
+        <v>0.0004346671755611945</v>
       </c>
       <c r="FI6">
-        <v>0.001661051032780835</v>
+        <v>0.001653642147243806</v>
       </c>
       <c r="FJ6">
-        <v>0.001085835921428967</v>
+        <v>0.001077387938083597</v>
       </c>
       <c r="FK6">
-        <v>0.001739431434327672</v>
+        <v>0.001732164139131121</v>
       </c>
       <c r="FL6">
-        <v>0.004810380794932846</v>
+        <v>0.004808661018720334</v>
       </c>
       <c r="FM6">
-        <v>0.01230250324278985</v>
+        <v>0.0123143176173007</v>
       </c>
       <c r="FN6">
-        <v>0.02441411848181253</v>
+        <v>0.02444781189357739</v>
       </c>
       <c r="FO6">
-        <v>0.01923637337962975</v>
+        <v>0.01926071344952016</v>
       </c>
       <c r="FP6">
-        <v>0.01840542836323105</v>
+        <v>0.018428267371817</v>
       </c>
       <c r="FQ6">
-        <v>0.005391546606402151</v>
+        <v>0.005390876677645075</v>
       </c>
       <c r="FR6">
-        <v>0.0002163264642692019</v>
+        <v>0.0002063077548538173</v>
       </c>
       <c r="FS6">
-        <v>0.0008954085176708836</v>
+        <v>0.0008866165365862536</v>
       </c>
       <c r="FT6">
-        <v>0.0003304165065207684</v>
+        <v>0.0003206038951555177</v>
       </c>
       <c r="FU6">
-        <v>0.005053861599737939</v>
+        <v>0.005052581659624398</v>
       </c>
       <c r="FV6">
-        <v>0.004567209690133865</v>
+        <v>0.004565050637280212</v>
       </c>
       <c r="FW6">
-        <v>0.007203198142155086</v>
+        <v>0.00720580087279643</v>
       </c>
       <c r="FX6">
-        <v>0.01178092223249645</v>
+        <v>0.01179179439656468</v>
       </c>
       <c r="FY6">
-        <v>0.009964549196650338</v>
+        <v>0.009972140172162447</v>
       </c>
       <c r="FZ6">
-        <v>0.001963682038753257</v>
+        <v>0.001956819841244474</v>
       </c>
       <c r="GA6">
-        <v>0.000145468182870814</v>
+        <v>0.0001353214714550459</v>
       </c>
       <c r="GB6">
-        <v>0.0007991861157719348</v>
+        <v>0.0007902203136506991</v>
       </c>
       <c r="GC6">
-        <v>0.001944294338370641</v>
+        <v>0.001937397117934645</v>
       </c>
       <c r="GD6">
-        <v>0.0008465276167062191</v>
+        <v>0.0008376473346780643</v>
       </c>
       <c r="GE6">
-        <v>0.0004334079385533039</v>
+        <v>0.0004237813761446798</v>
       </c>
       <c r="GF6">
-        <v>7.864856755212916E-07</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0003239325363928073</v>
+        <v>0.000314108212054416</v>
       </c>
       <c r="GH6">
-        <v>0.001696261233475709</v>
+        <v>0.001688915953434521</v>
       </c>
       <c r="GI6">
-        <v>0.0003116495061504018</v>
+        <v>0.0003018029931219834</v>
       </c>
       <c r="GJ6">
-        <v>8.23090816243694E-05</v>
+        <v>7.204827639849997E-05</v>
       </c>
       <c r="GK6">
-        <v>0.0002087644041199647</v>
+        <v>0.0001987320342148389</v>
       </c>
       <c r="GL6">
-        <v>0.0004172153082337424</v>
+        <v>0.0004075594946348344</v>
       </c>
       <c r="GM6">
-        <v>0.0006546313129191464</v>
+        <v>0.000645404379656073</v>
       </c>
       <c r="GN6">
-        <v>0.0006928947536742751</v>
+        <v>0.0006837369414350476</v>
       </c>
       <c r="GO6">
-        <v>3.7502312740108E-05</v>
+        <v>2.716056628994238E-05</v>
       </c>
       <c r="GP6">
-        <v>5.449159807539147E-05</v>
+        <v>4.418054193361446E-05</v>
       </c>
       <c r="GQ6">
-        <v>0.0005147581101587492</v>
+        <v>0.0005052785028341542</v>
       </c>
       <c r="GR6">
-        <v>0.0001498238629567733</v>
+        <v>0.0001396850198628588</v>
       </c>
       <c r="GS6">
-        <v>0.00169650553348053</v>
+        <v>0.001689160694755286</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>6.032532358820693E-05</v>
+        <v>5.318406875433648E-05</v>
       </c>
       <c r="C2">
-        <v>9.00190838932841E-05</v>
+        <v>7.569726742176326E-05</v>
       </c>
       <c r="D2">
-        <v>0.0001090983324467726</v>
+        <v>8.758233366382827E-05</v>
       </c>
       <c r="E2">
-        <v>0.0001603370912476323</v>
+        <v>0.0001316681776376325</v>
       </c>
       <c r="F2">
-        <v>0.000356975126645714</v>
+        <v>0.000321339876372565</v>
       </c>
       <c r="G2">
-        <v>0.0004450963205834144</v>
+        <v>0.00040235548348366</v>
       </c>
       <c r="H2">
-        <v>0.0004986862573292495</v>
+        <v>0.0004487955224632824</v>
       </c>
       <c r="I2">
-        <v>0.0006228760344228372</v>
+        <v>0.0005659259963857093</v>
       </c>
       <c r="J2">
-        <v>0.0006926637077895968</v>
+        <v>0.0006285845571237679</v>
       </c>
       <c r="K2">
-        <v>0.0007426422336199498</v>
+        <v>0.0006714085509804107</v>
       </c>
       <c r="L2">
-        <v>0.0007926207594503028</v>
+        <v>0.0007142325448370535</v>
       </c>
       <c r="M2">
-        <v>0.0008117000080037914</v>
+        <v>0.0007261176110791185</v>
       </c>
       <c r="N2">
-        <v>0.0008136619192578768</v>
+        <v>0.0007261176110791185</v>
       </c>
       <c r="O2">
-        <v>0.0008208713330891549</v>
+        <v>0.0007261176110791185</v>
       </c>
       <c r="P2">
-        <v>0.0008308407648558403</v>
+        <v>0.0007288811707039398</v>
       </c>
       <c r="Q2">
-        <v>0.0008312049748173167</v>
+        <v>0.0007288811707039398</v>
       </c>
       <c r="R2">
-        <v>0.0008450316384937314</v>
+        <v>0.0007355069118865514</v>
       </c>
       <c r="S2">
-        <v>0.0008864377005247056</v>
+        <v>0.0007697474416514257</v>
       </c>
       <c r="T2">
-        <v>0.0008900016807412978</v>
+        <v>0.0007697474416514257</v>
       </c>
       <c r="U2">
-        <v>0.0008919635919953832</v>
+        <v>0.0007697474416514257</v>
       </c>
       <c r="V2">
-        <v>0.0009398766008740755</v>
+        <v>0.0008105032680593119</v>
       </c>
       <c r="W2">
-        <v>0.0009428538174043997</v>
+        <v>0.0008105032680593119</v>
       </c>
       <c r="X2">
-        <v>0.0009434404010606719</v>
+        <v>0.0008105032680593119</v>
       </c>
       <c r="Y2">
-        <v>0.0009455385925115679</v>
+        <v>0.0008105032680593119</v>
       </c>
       <c r="Z2">
-        <v>0.0009600318276723829</v>
+        <v>0.0008177964360791603</v>
       </c>
       <c r="AA2">
-        <v>0.0009801885522006551</v>
+        <v>0.0008307603609266091</v>
       </c>
       <c r="AB2">
-        <v>0.0009901579839673405</v>
+        <v>0.0008335239205514304</v>
       </c>
       <c r="AC2">
-        <v>0.001000127415734026</v>
+        <v>0.0008362874801762517</v>
       </c>
       <c r="AD2">
-        <v>0.001000366477808431</v>
+        <v>0.0008362874801762517</v>
       </c>
       <c r="AE2">
-        <v>0.00107781219599597</v>
+        <v>0.0009066139126336489</v>
       </c>
       <c r="AF2">
-        <v>0.001145698974407216</v>
+        <v>0.0009673691391640954</v>
       </c>
       <c r="AG2">
-        <v>0.001156548406153307</v>
+        <v>0.0009710138279952636</v>
       </c>
       <c r="AH2">
-        <v>0.001178189635646837</v>
+        <v>0.0009854641627432439</v>
       </c>
       <c r="AI2">
-        <v>0.001178275767314822</v>
+        <v>0.0009854641627432439</v>
       </c>
       <c r="AJ2">
-        <v>0.001188245199081507</v>
+        <v>0.0009882277223680653</v>
       </c>
       <c r="AK2">
-        <v>0.001192756802475922</v>
+        <v>0.0009882277223680653</v>
       </c>
       <c r="AL2">
-        <v>0.001193618500555756</v>
+        <v>0.0009882277223680653</v>
       </c>
       <c r="AM2">
-        <v>0.001199189310125382</v>
+        <v>0.0009882277223680653</v>
       </c>
       <c r="AN2">
-        <v>0.001227415059464815</v>
+        <v>0.00100927102629988</v>
       </c>
       <c r="AO2">
-        <v>0.001258370445740366</v>
+        <v>0.001033047469871951</v>
       </c>
       <c r="AP2">
-        <v>0.001260332356994452</v>
+        <v>0.001033047469871951</v>
       </c>
       <c r="AQ2">
-        <v>0.001260696566955928</v>
+        <v>0.001033047469871951</v>
       </c>
       <c r="AR2">
-        <v>0.001260782698623913</v>
+        <v>0.001033047469871951</v>
       </c>
       <c r="AS2">
-        <v>0.00126392726455032</v>
+        <v>0.001033047469871951</v>
       </c>
       <c r="AT2">
-        <v>0.001284083989078593</v>
+        <v>0.001046011394719399</v>
       </c>
       <c r="AU2">
-        <v>0.00133707903283835</v>
+        <v>0.00109185577733885</v>
       </c>
       <c r="AV2">
-        <v>0.001438482220465212</v>
+        <v>0.001186170421758948</v>
       </c>
       <c r="AW2">
-        <v>0.00149147726422497</v>
+        <v>0.001232014804378398</v>
       </c>
       <c r="AX2">
-        <v>0.001492430051132672</v>
+        <v>0.001232014804378398</v>
       </c>
       <c r="AY2">
-        <v>0.001521604816449895</v>
+        <v>0.001254008342077134</v>
       </c>
       <c r="AZ2">
-        <v>0.001521690948117879</v>
+        <v>0.001254008342077134</v>
       </c>
       <c r="BA2">
-        <v>0.001525102747838033</v>
+        <v>0.001254008342077134</v>
       </c>
       <c r="BB2">
-        <v>0.001525110910519842</v>
+        <v>0.001254008342077134</v>
       </c>
       <c r="BC2">
-        <v>0.001582940064166467</v>
+        <v>0.001304693037773509</v>
       </c>
       <c r="BD2">
-        <v>0.001625926423160457</v>
+        <v>0.001340515892358158</v>
       </c>
       <c r="BE2">
-        <v>0.001643272360754511</v>
+        <v>0.001350665423434562</v>
       </c>
       <c r="BF2">
-        <v>0.001645234272008596</v>
+        <v>0.001350665423434562</v>
       </c>
       <c r="BG2">
-        <v>0.001645598481970072</v>
+        <v>0.001350665423434562</v>
       </c>
       <c r="BH2">
-        <v>0.001646022711610144</v>
+        <v>0.001350665423434562</v>
       </c>
       <c r="BI2">
-        <v>0.001674248460949577</v>
+        <v>0.001371708727366376</v>
       </c>
       <c r="BJ2">
-        <v>0.001740145499407389</v>
+        <v>0.001430471660684282</v>
       </c>
       <c r="BK2">
-        <v>0.001757832491993461</v>
+        <v>0.00144096268439872</v>
       </c>
       <c r="BL2">
-        <v>0.001760275685736283</v>
+        <v>0.00144096268439872</v>
       </c>
       <c r="BM2">
-        <v>0.001762718879479104</v>
+        <v>0.00144096268439872</v>
       </c>
       <c r="BN2">
-        <v>0.001800231298601202</v>
+        <v>0.001471304574883608</v>
       </c>
       <c r="BO2">
-        <v>0.001864698117092485</v>
+        <v>0.001528635452958898</v>
       </c>
       <c r="BP2">
-        <v>0.001927985065611381</v>
+        <v>0.001584784947037947</v>
       </c>
       <c r="BQ2">
-        <v>0.001953012822025657</v>
+        <v>0.001602626154340225</v>
       </c>
       <c r="BR2">
-        <v>0.001990027793159396</v>
+        <v>0.001632469958505296</v>
       </c>
       <c r="BS2">
-        <v>0.001995476627631877</v>
+        <v>0.001632469958505296</v>
       </c>
       <c r="BT2">
-        <v>0.002000925462104358</v>
+        <v>0.001632469958505296</v>
       </c>
       <c r="BU2">
-        <v>0.002067601340543943</v>
+        <v>0.001692012731222146</v>
       </c>
       <c r="BV2">
-        <v>0.002158302123421273</v>
+        <v>0.001775611237433549</v>
       </c>
       <c r="BW2">
-        <v>0.002256753926117207</v>
+        <v>0.00186697070966879</v>
       </c>
       <c r="BX2">
-        <v>0.002340021444168497</v>
+        <v>0.001943126412596085</v>
       </c>
       <c r="BY2">
-        <v>0.002386361650083998</v>
+        <v>0.001982307417800414</v>
       </c>
       <c r="BZ2">
-        <v>0.002486283697745523</v>
+        <v>0.002075139021637912</v>
       </c>
       <c r="CA2">
-        <v>0.00249032176765102</v>
+        <v>0.002075139021637912</v>
       </c>
       <c r="CB2">
-        <v>0.002492419959101916</v>
+        <v>0.002075139021637912</v>
       </c>
       <c r="CC2">
-        <v>0.00249315006704483</v>
+        <v>0.002075139021637912</v>
       </c>
       <c r="CD2">
-        <v>0.00250949754266225</v>
+        <v>0.00208428880949883</v>
       </c>
       <c r="CE2">
-        <v>0.002524558242309785</v>
+        <v>0.0020921501701829</v>
       </c>
       <c r="CF2">
-        <v>0.002676829498746182</v>
+        <v>0.00223739815795242</v>
       </c>
       <c r="CG2">
-        <v>0.002777567786388605</v>
+        <v>0.002331047049180132</v>
       </c>
       <c r="CH2">
-        <v>0.002835792785025965</v>
+        <v>0.002382128097820469</v>
       </c>
       <c r="CI2">
-        <v>0.002880294450984493</v>
+        <v>0.002419468203830438</v>
       </c>
       <c r="CJ2">
-        <v>0.002920756018037571</v>
+        <v>0.00245276302662969</v>
       </c>
       <c r="CK2">
-        <v>0.002929814997825564</v>
+        <v>0.002454614965972492</v>
       </c>
       <c r="CL2">
-        <v>0.002956493920201198</v>
+        <v>0.002474109458032868</v>
       </c>
       <c r="CM2">
-        <v>0.003000995586159725</v>
+        <v>0.002511449564042838</v>
       </c>
       <c r="CN2">
-        <v>0.009384017436777917</v>
+        <v>0.00889544352281327</v>
       </c>
       <c r="CO2">
-        <v>0.059180296271396</v>
+        <v>0.05874840289802451</v>
       </c>
       <c r="CP2">
-        <v>0.1066344701608263</v>
+        <v>0.1062562519097917</v>
       </c>
       <c r="CQ2">
-        <v>0.1316612625751245</v>
+        <v>0.1313079403509951</v>
       </c>
       <c r="CR2">
-        <v>0.1319704636978883</v>
+        <v>0.1316103195794524</v>
       </c>
       <c r="CS2">
-        <v>0.1733367867297926</v>
+        <v>0.1730225057275974</v>
       </c>
       <c r="CT2">
-        <v>0.1784697966096648</v>
+        <v>0.1781548836846815</v>
       </c>
       <c r="CU2">
-        <v>0.1796714263815431</v>
+        <v>0.1793508367378186</v>
       </c>
       <c r="CV2">
-        <v>0.1885142811745938</v>
+        <v>0.1881978201273113</v>
       </c>
       <c r="CW2">
-        <v>0.2353259170790615</v>
+        <v>0.2350623066413652</v>
       </c>
       <c r="CX2">
-        <v>0.2826564219713861</v>
+        <v>0.2824463279624282</v>
       </c>
       <c r="CY2">
-        <v>0.2877931552511712</v>
+        <v>0.2875824340973384</v>
       </c>
       <c r="CZ2">
-        <v>0.2879589163172919</v>
+        <v>0.2877411892050841</v>
       </c>
       <c r="DA2">
-        <v>0.2922937888158429</v>
+        <v>0.2920744056010117</v>
       </c>
       <c r="DB2">
-        <v>0.292485898931347</v>
+        <v>0.2922595435695694</v>
       </c>
       <c r="DC2">
-        <v>0.2975830108120593</v>
+        <v>0.2973559774627337</v>
       </c>
       <c r="DD2">
-        <v>0.3001828379512155</v>
+        <v>0.2999519220674368</v>
       </c>
       <c r="DE2">
-        <v>0.3182663555280071</v>
+        <v>0.318051425974325</v>
       </c>
       <c r="DF2">
-        <v>0.3645127044457042</v>
+        <v>0.3643499001183015</v>
       </c>
       <c r="DG2">
-        <v>0.3646592020922758</v>
+        <v>0.364489367087438</v>
       </c>
       <c r="DH2">
-        <v>0.3647081424111304</v>
+        <v>0.3645311515420788</v>
       </c>
       <c r="DI2">
-        <v>0.364833400548199</v>
+        <v>0.3646493517469091</v>
       </c>
       <c r="DJ2">
-        <v>0.3784550732294111</v>
+        <v>0.3782812852632378</v>
       </c>
       <c r="DK2">
-        <v>0.3785503288571819</v>
+        <v>0.3783694444591764</v>
       </c>
       <c r="DL2">
-        <v>0.3881536236324361</v>
+        <v>0.3879778436369354</v>
       </c>
       <c r="DM2">
-        <v>0.3938625044988311</v>
+        <v>0.3936868315453697</v>
       </c>
       <c r="DN2">
-        <v>0.3963627994403168</v>
+        <v>0.3961831162314455</v>
       </c>
       <c r="DO2">
-        <v>0.4013696733231409</v>
+        <v>0.4011891963321981</v>
       </c>
       <c r="DP2">
-        <v>0.4031310289819199</v>
+        <v>0.4029455935194701</v>
       </c>
       <c r="DQ2">
-        <v>0.4180503296327637</v>
+        <v>0.417876820137814</v>
       </c>
       <c r="DR2">
-        <v>0.4215388483511219</v>
+        <v>0.4213625967018296</v>
       </c>
       <c r="DS2">
-        <v>0.4221227822974561</v>
+        <v>0.4219400612944406</v>
       </c>
       <c r="DT2">
-        <v>0.4234934857653775</v>
+        <v>0.4233053050010948</v>
       </c>
       <c r="DU2">
-        <v>0.4271051436808539</v>
+        <v>0.4269143787759811</v>
       </c>
       <c r="DV2">
-        <v>0.4357080969795191</v>
+        <v>0.4355211528265006</v>
       </c>
       <c r="DW2">
-        <v>0.45163935460668</v>
+        <v>0.4514656349769662</v>
       </c>
       <c r="DX2">
-        <v>0.4590439314333908</v>
+        <v>0.4588724947839066</v>
       </c>
       <c r="DY2">
-        <v>0.4593500253462273</v>
+        <v>0.459171762815226</v>
       </c>
       <c r="DZ2">
-        <v>0.4593530025627576</v>
+        <v>0.459171762815226</v>
       </c>
       <c r="EA2">
-        <v>0.4652191109254731</v>
+        <v>0.4650381799762636</v>
       </c>
       <c r="EB2">
-        <v>0.4869523064168513</v>
+        <v>0.486792045109926</v>
       </c>
       <c r="EC2">
-        <v>0.522470255585625</v>
+        <v>0.5223483526887084</v>
       </c>
       <c r="ED2">
-        <v>0.5450560750570492</v>
+        <v>0.5449559359001347</v>
       </c>
       <c r="EE2">
-        <v>0.5621027346581063</v>
+        <v>0.5620172513222113</v>
       </c>
       <c r="EF2">
-        <v>0.5695155457846244</v>
+        <v>0.5694323559953151</v>
       </c>
       <c r="EG2">
-        <v>0.5704712713622575</v>
+        <v>0.5703820893068802</v>
       </c>
       <c r="EH2">
-        <v>0.5706957419370042</v>
+        <v>0.5705996292600252</v>
       </c>
       <c r="EI2">
-        <v>0.5816970296795412</v>
+        <v>0.5816078153270664</v>
       </c>
       <c r="EJ2">
-        <v>0.5896184544941562</v>
+        <v>0.5895321863476908</v>
       </c>
       <c r="EK2">
-        <v>0.595441134357888</v>
+        <v>0.5953551192817536</v>
       </c>
       <c r="EL2">
-        <v>0.6014614729169941</v>
+        <v>0.6013759645492919</v>
       </c>
       <c r="EM2">
-        <v>0.6107740756990514</v>
+        <v>0.6106932987142653</v>
       </c>
       <c r="EN2">
-        <v>0.6282738052895054</v>
+        <v>0.6282082655107958</v>
       </c>
       <c r="EO2">
-        <v>0.6528345767147099</v>
+        <v>0.6527933349589641</v>
       </c>
       <c r="EP2">
-        <v>0.6599797785474908</v>
+        <v>0.6599404869387497</v>
       </c>
       <c r="EQ2">
-        <v>0.6625078461883265</v>
+        <v>0.6624645799624496</v>
       </c>
       <c r="ER2">
-        <v>0.665219102124875</v>
+        <v>0.6651720963513665</v>
       </c>
       <c r="ES2">
-        <v>0.6853130046546175</v>
+        <v>0.6852845649622337</v>
       </c>
       <c r="ET2">
-        <v>0.7116695190377962</v>
+        <v>0.7116676816881211</v>
       </c>
       <c r="EU2">
-        <v>0.7352783584852787</v>
+        <v>0.7352995976275893</v>
       </c>
       <c r="EV2">
-        <v>0.7566345199854806</v>
+        <v>0.7566759449553588</v>
       </c>
       <c r="EW2">
-        <v>0.7651425457863673</v>
+        <v>0.7651876696959516</v>
       </c>
       <c r="EX2">
-        <v>0.7696328252812813</v>
+        <v>0.7696764925084369</v>
       </c>
       <c r="EY2">
-        <v>0.7707858299542976</v>
+        <v>0.770823758066379</v>
       </c>
       <c r="EZ2">
-        <v>0.7712123023743168</v>
+        <v>0.771243559076082</v>
       </c>
       <c r="FA2">
-        <v>0.7728615022357206</v>
+        <v>0.7728876565462617</v>
       </c>
       <c r="FB2">
-        <v>0.7909123158132776</v>
+        <v>0.7909544144877358</v>
       </c>
       <c r="FC2">
-        <v>0.8063224474526344</v>
+        <v>0.8063771019350348</v>
       </c>
       <c r="FD2">
-        <v>0.8239669900396993</v>
+        <v>0.8240370675540183</v>
       </c>
       <c r="FE2">
-        <v>0.8353241477739078</v>
+        <v>0.8354015802695398</v>
       </c>
       <c r="FF2">
-        <v>0.839947481665708</v>
+        <v>0.8400236282159717</v>
       </c>
       <c r="FG2">
-        <v>0.8488042244584337</v>
+        <v>0.8488845174263936</v>
       </c>
       <c r="FH2">
-        <v>0.8508943807095178</v>
+        <v>0.8509701371269887</v>
       </c>
       <c r="FI2">
-        <v>0.8516257286924022</v>
+        <v>0.8516952049196788</v>
       </c>
       <c r="FJ2">
-        <v>0.8541448968334461</v>
+        <v>0.8542103870236378</v>
       </c>
       <c r="FK2">
-        <v>0.85463141714206</v>
+        <v>0.8546903129761346</v>
       </c>
       <c r="FL2">
-        <v>0.8594254163298661</v>
+        <v>0.8594832452184074</v>
       </c>
       <c r="FM2">
-        <v>0.8662187661708814</v>
+        <v>0.8662780937055663</v>
       </c>
       <c r="FN2">
-        <v>0.8903934966051205</v>
+        <v>0.8904766267901582</v>
       </c>
       <c r="FO2">
-        <v>0.9181141499563742</v>
+        <v>0.9182256329642463</v>
       </c>
       <c r="FP2">
-        <v>0.9317469906373249</v>
+        <v>0.9318687488112302</v>
       </c>
       <c r="FQ2">
-        <v>0.9434920353624557</v>
+        <v>0.9436216462590951</v>
       </c>
       <c r="FR2">
-        <v>0.9438271994346119</v>
+        <v>0.943950021752925</v>
       </c>
       <c r="FS2">
-        <v>0.9458384733875421</v>
+        <v>0.945956657932618</v>
       </c>
       <c r="FT2">
-        <v>0.9476271954456806</v>
+        <v>0.9477404566361542</v>
       </c>
       <c r="FU2">
-        <v>0.9519000853456823</v>
+        <v>0.9520116108966895</v>
       </c>
       <c r="FV2">
-        <v>0.9587782874847117</v>
+        <v>0.958891420565389</v>
       </c>
       <c r="FW2">
-        <v>0.9631560323822594</v>
+        <v>0.9632675643747101</v>
       </c>
       <c r="FX2">
-        <v>0.9695390542328777</v>
+        <v>0.9696515583334805</v>
       </c>
       <c r="FY2">
-        <v>0.9770251550576805</v>
+        <v>0.9771400467511234</v>
       </c>
       <c r="FZ2">
-        <v>0.9783600229264406</v>
+        <v>0.9784694088739289</v>
       </c>
       <c r="GA2">
-        <v>0.9783839175868815</v>
+        <v>0.9784861155312548</v>
       </c>
       <c r="GB2">
-        <v>0.9813854295166371</v>
+        <v>0.9814842603734869</v>
       </c>
       <c r="GC2">
-        <v>0.9865991373946207</v>
+        <v>0.9866974398813594</v>
       </c>
       <c r="GD2">
-        <v>0.9887303125447449</v>
+        <v>0.988824131116957</v>
       </c>
       <c r="GE2">
-        <v>0.9905975997010448</v>
+        <v>0.9906865957343677</v>
       </c>
       <c r="GF2">
-        <v>0.9916088760773779</v>
+        <v>0.9916919511281099</v>
       </c>
       <c r="GG2">
-        <v>0.9916343846967809</v>
+        <v>0.9917102738154503</v>
       </c>
       <c r="GH2">
-        <v>0.9922517755823321</v>
+        <v>0.9923212382796397</v>
       </c>
       <c r="GI2">
-        <v>0.9931929525603058</v>
+        <v>0.9932564043226009</v>
       </c>
       <c r="GJ2">
-        <v>0.9933734733860811</v>
+        <v>0.9934299381299088</v>
       </c>
       <c r="GK2">
-        <v>0.9934781734336308</v>
+        <v>0.9935275538648235</v>
       </c>
       <c r="GL2">
-        <v>0.9937014247484061</v>
+        <v>0.9937438729934274</v>
       </c>
       <c r="GM2">
-        <v>0.994051342140217</v>
+        <v>0.9940870207385556</v>
       </c>
       <c r="GN2">
-        <v>0.9945411241287546</v>
+        <v>0.9945702125564043</v>
       </c>
       <c r="GO2">
-        <v>0.9947458087139643</v>
+        <v>0.9947679411303839</v>
       </c>
       <c r="GP2">
-        <v>0.9947627585225677</v>
+        <v>0.9947776940241519</v>
       </c>
       <c r="GQ2">
-        <v>0.995633528602189</v>
+        <v>0.9956423628217513</v>
       </c>
       <c r="GR2">
-        <v>0.9966615487781303</v>
+        <v>0.996664483500954</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.032535718481179E-05</v>
+        <v>6.851093563322725E-05</v>
       </c>
       <c r="C3">
-        <v>8.546011357895368E-05</v>
+        <v>8.181267513875756E-05</v>
       </c>
       <c r="D3">
-        <v>9.192003412035718E-05</v>
+        <v>8.643665598415066E-05</v>
       </c>
       <c r="E3">
-        <v>9.375753124680049E-05</v>
+        <v>8.643665598415066E-05</v>
       </c>
       <c r="F3">
-        <v>9.442301946016039E-05</v>
+        <v>8.643665598415066E-05</v>
       </c>
       <c r="G3">
-        <v>0.0001016843288694836</v>
+        <v>9.186229570894864E-05</v>
       </c>
       <c r="H3">
-        <v>0.0001020794443336667</v>
+        <v>9.186229570894864E-05</v>
       </c>
       <c r="I3">
-        <v>0.0001143547783422739</v>
+        <v>0.0001023036494054229</v>
       </c>
       <c r="J3">
-        <v>0.0001383662233810738</v>
+        <v>0.0001244850683731538</v>
       </c>
       <c r="K3">
-        <v>0.0002172082352249562</v>
+        <v>0.0002015155281769528</v>
       </c>
       <c r="L3">
-        <v>0.0004117800274360698</v>
+        <v>0.0003943147611155769</v>
       </c>
       <c r="M3">
-        <v>0.0005229488129858819</v>
+        <v>0.00050368288646637</v>
       </c>
       <c r="N3">
-        <v>0.0005837642585513841</v>
+        <v>0.0005626807063112965</v>
       </c>
       <c r="O3">
-        <v>0.0006159691442621932</v>
+        <v>0.0005930583265622371</v>
       </c>
       <c r="P3">
-        <v>0.0006297633367099991</v>
+        <v>0.0006050190504460006</v>
       </c>
       <c r="Q3">
-        <v>0.0006328035001882986</v>
+        <v>0.0006062221220115313</v>
       </c>
       <c r="R3">
-        <v>0.0006329594481120558</v>
+        <v>0.0006062221220115313</v>
       </c>
       <c r="S3">
-        <v>0.0006476509520239415</v>
+        <v>0.0006190804596900044</v>
       </c>
       <c r="T3">
-        <v>0.0006478068999476987</v>
+        <v>0.0006190804596900044</v>
       </c>
       <c r="U3">
-        <v>0.0006490654776973167</v>
+        <v>0.0006190804596900044</v>
       </c>
       <c r="V3">
-        <v>0.0006915862119951729</v>
+        <v>0.0006597774042408572</v>
       </c>
       <c r="W3">
-        <v>0.0007143424200842212</v>
+        <v>0.000680703163332581</v>
       </c>
       <c r="X3">
-        <v>0.000721047742815801</v>
+        <v>0.0006855726290513677</v>
       </c>
       <c r="Y3">
-        <v>0.0008518605775792438</v>
+        <v>0.0008145914222738688</v>
       </c>
       <c r="Z3">
-        <v>0.0008761003616089032</v>
+        <v>0.0008370012571665825</v>
       </c>
       <c r="AA3">
-        <v>0.0009987308166998941</v>
+        <v>0.0009578349138322072</v>
       </c>
       <c r="AB3">
-        <v>0.001026681832580989</v>
+        <v>0.0009839572309995462</v>
       </c>
       <c r="AC3">
-        <v>0.001029442853270463</v>
+        <v>0.0009848810657248337</v>
       </c>
       <c r="AD3">
-        <v>0.001031128050503003</v>
+        <v>0.0009848810657248337</v>
       </c>
       <c r="AE3">
-        <v>0.001031793538716363</v>
+        <v>0.0009848810657248337</v>
       </c>
       <c r="AF3">
-        <v>0.00107084168115323</v>
+        <v>0.001022104248396341</v>
       </c>
       <c r="AG3">
-        <v>0.00111318421345822</v>
+        <v>0.001062622930912834</v>
       </c>
       <c r="AH3">
-        <v>0.00111332135012273</v>
+        <v>0.001062622930912834</v>
       </c>
       <c r="AI3">
-        <v>0.001123633198709938</v>
+        <v>0.001071100137631907</v>
       </c>
       <c r="AJ3">
-        <v>0.001124666766668563</v>
+        <v>0.001071100137631907</v>
       </c>
       <c r="AK3">
-        <v>0.001124685437149816</v>
+        <v>0.001071100137631907</v>
       </c>
       <c r="AL3">
-        <v>0.001128692915989393</v>
+        <v>0.001073270850475717</v>
       </c>
       <c r="AM3">
-        <v>0.001152237937046864</v>
+        <v>0.001094985688310159</v>
       </c>
       <c r="AN3">
-        <v>0.001164114407571438</v>
+        <v>0.001105028044133758</v>
       </c>
       <c r="AO3">
-        <v>0.001166990077556322</v>
+        <v>0.001106066566783177</v>
       </c>
       <c r="AP3">
-        <v>0.001168023645514948</v>
+        <v>0.001106066566783177</v>
       </c>
       <c r="AQ3">
-        <v>0.001179249984065547</v>
+        <v>0.001115458571584214</v>
       </c>
       <c r="AR3">
-        <v>0.00119888772527943</v>
+        <v>0.001133264813097542</v>
       </c>
       <c r="AS3">
-        <v>0.001204482602655462</v>
+        <v>0.001137023459319073</v>
       </c>
       <c r="AT3">
-        <v>0.001206045915392881</v>
+        <v>0.001137023459319073</v>
       </c>
       <c r="AU3">
-        <v>0.001209255146864413</v>
+        <v>0.001138395655841816</v>
       </c>
       <c r="AV3">
-        <v>0.00120926770368391</v>
+        <v>0.001138395655841816</v>
       </c>
       <c r="AW3">
-        <v>0.001215486797434954</v>
+        <v>0.001142778728755219</v>
       </c>
       <c r="AX3">
-        <v>0.001226713135985554</v>
+        <v>0.001152170733556256</v>
       </c>
       <c r="AY3">
-        <v>0.001226811059931634</v>
+        <v>0.001152170733556256</v>
       </c>
       <c r="AZ3">
-        <v>0.001226985906064634</v>
+        <v>0.001152170733556256</v>
       </c>
       <c r="BA3">
-        <v>0.00123529110573217</v>
+        <v>0.001158640615256604</v>
       </c>
       <c r="BB3">
-        <v>0.001236036912442314</v>
+        <v>0.001158640615256604</v>
       </c>
       <c r="BC3">
-        <v>0.001236647852467858</v>
+        <v>0.001158640615256604</v>
       </c>
       <c r="BD3">
-        <v>0.001244679680146337</v>
+        <v>0.00116483703286083</v>
       </c>
       <c r="BE3">
-        <v>0.001244929800636324</v>
+        <v>0.00116483703286083</v>
       </c>
       <c r="BF3">
-        <v>0.001250865939998695</v>
+        <v>0.001168937056049902</v>
       </c>
       <c r="BG3">
-        <v>0.001280458629814073</v>
+        <v>0.001196701600279768</v>
       </c>
       <c r="BH3">
-        <v>0.001424729024038797</v>
+        <v>0.001339182487211233</v>
       </c>
       <c r="BI3">
-        <v>0.001481934161748823</v>
+        <v>0.001394568782781757</v>
       </c>
       <c r="BJ3">
-        <v>0.001628743215871923</v>
+        <v>0.001539589184960801</v>
       </c>
       <c r="BK3">
-        <v>0.001776713549948535</v>
+        <v>0.001685771258362737</v>
       </c>
       <c r="BL3">
-        <v>0.001815932838378551</v>
+        <v>0.001723165644691513</v>
       </c>
       <c r="BM3">
-        <v>0.001822938681698101</v>
+        <v>0.001728335732252497</v>
       </c>
       <c r="BN3">
-        <v>0.001840548706993156</v>
+        <v>0.001744113574649851</v>
       </c>
       <c r="BO3">
-        <v>0.001841916881338386</v>
+        <v>0.001744113574649851</v>
       </c>
       <c r="BP3">
-        <v>0.001876554469951812</v>
+        <v>0.001776924717452583</v>
       </c>
       <c r="BQ3">
-        <v>0.001931832887738967</v>
+        <v>0.001830383643931612</v>
       </c>
       <c r="BR3">
-        <v>0.001995821635177438</v>
+        <v>0.001892555834828263</v>
       </c>
       <c r="BS3">
-        <v>0.002010335495596435</v>
+        <v>0.001905236469160528</v>
       </c>
       <c r="BT3">
-        <v>0.002011960885831369</v>
+        <v>0.001905236469160528</v>
       </c>
       <c r="BU3">
-        <v>0.002012747379099885</v>
+        <v>0.001905236469160528</v>
       </c>
       <c r="BV3">
-        <v>0.002057744437298612</v>
+        <v>0.001948410571958624</v>
       </c>
       <c r="BW3">
-        <v>0.002091154603961173</v>
+        <v>0.001979993879255926</v>
       </c>
       <c r="BX3">
-        <v>0.002108173201279903</v>
+        <v>0.001995180094407471</v>
       </c>
       <c r="BY3">
-        <v>0.002111591353243071</v>
+        <v>0.001996761281813311</v>
       </c>
       <c r="BZ3">
-        <v>0.002112529963605498</v>
+        <v>0.001996761281813311</v>
       </c>
       <c r="CA3">
-        <v>0.002114093276342917</v>
+        <v>0.001996761281813311</v>
       </c>
       <c r="CB3">
-        <v>0.002133011205585616</v>
+        <v>0.002013847468829625</v>
       </c>
       <c r="CC3">
-        <v>0.002133699197718075</v>
+        <v>0.002013847468829625</v>
       </c>
       <c r="CD3">
-        <v>0.002141145710419984</v>
+        <v>0.002019458374247447</v>
       </c>
       <c r="CE3">
-        <v>0.00215493990286779</v>
+        <v>0.00203141909813121</v>
       </c>
       <c r="CF3">
-        <v>0.002170719197236131</v>
+        <v>0.002045365592774744</v>
       </c>
       <c r="CG3">
-        <v>0.002181251524814512</v>
+        <v>0.002054063352770849</v>
       </c>
       <c r="CH3">
-        <v>0.002181349448760592</v>
+        <v>0.002054063352770849</v>
       </c>
       <c r="CI3">
-        <v>0.002182660718808101</v>
+        <v>0.002054063352770849</v>
       </c>
       <c r="CJ3">
-        <v>0.002184565466431852</v>
+        <v>0.002054130625926828</v>
       </c>
       <c r="CK3">
-        <v>0.002210683530386322</v>
+        <v>0.002078419373592115</v>
       </c>
       <c r="CL3">
-        <v>0.002218130043088231</v>
+        <v>0.002084030279009937</v>
       </c>
       <c r="CM3">
-        <v>0.002219553133131264</v>
+        <v>0.002084030279009937</v>
       </c>
       <c r="CN3">
-        <v>0.09138839956362099</v>
+        <v>0.091281082200836</v>
       </c>
       <c r="CO3">
-        <v>0.0923362943256759</v>
+        <v>0.09222745822028854</v>
       </c>
       <c r="CP3">
-        <v>0.1835991306723413</v>
+        <v>0.1835192055850949</v>
       </c>
       <c r="CQ3">
-        <v>0.1875121565156993</v>
+        <v>0.1874317117257414</v>
       </c>
       <c r="CR3">
-        <v>0.1901630837095803</v>
+        <v>0.1900816939787468</v>
       </c>
       <c r="CS3">
-        <v>0.2030841831923369</v>
+        <v>0.2030053088438042</v>
       </c>
       <c r="CT3">
-        <v>0.2053850291002319</v>
+        <v>0.2053050918581396</v>
       </c>
       <c r="CU3">
-        <v>0.2055497374336385</v>
+        <v>0.2054680175703959</v>
       </c>
       <c r="CV3">
-        <v>0.2673966249578512</v>
+        <v>0.2673339050142204</v>
       </c>
       <c r="CW3">
-        <v>0.3127584531419758</v>
+        <v>0.3127091788165006</v>
       </c>
       <c r="CX3">
-        <v>0.3185400949105314</v>
+        <v>0.3184909304740215</v>
       </c>
       <c r="CY3">
-        <v>0.3185728449042204</v>
+        <v>0.3185218533859136</v>
       </c>
       <c r="CZ3">
-        <v>0.3186655723165084</v>
+        <v>0.3186127739245614</v>
       </c>
       <c r="DA3">
-        <v>0.3219082846866997</v>
+        <v>0.3218547407437125</v>
       </c>
       <c r="DB3">
-        <v>0.325031661761668</v>
+        <v>0.324977332060069</v>
       </c>
       <c r="DC3">
-        <v>0.325033436783797</v>
+        <v>0.324977332060069</v>
       </c>
       <c r="DD3">
-        <v>0.3251192960403599</v>
+        <v>0.325061382128908</v>
       </c>
       <c r="DE3">
-        <v>0.3963942531871584</v>
+        <v>0.396358515789333</v>
       </c>
       <c r="DF3">
-        <v>0.4097672006518271</v>
+        <v>0.4097341308771804</v>
       </c>
       <c r="DG3">
-        <v>0.4153469877284631</v>
+        <v>0.4153139598319978</v>
       </c>
       <c r="DH3">
-        <v>0.4155738691593808</v>
+        <v>0.4155390795897108</v>
       </c>
       <c r="DI3">
-        <v>0.4206619794556991</v>
+        <v>0.4206270661038388</v>
       </c>
       <c r="DJ3">
-        <v>0.4288573896276294</v>
+        <v>0.4288233994343188</v>
       </c>
       <c r="DK3">
-        <v>0.434316978809077</v>
+        <v>0.4342829899957409</v>
       </c>
       <c r="DL3">
-        <v>0.4467257093123442</v>
+        <v>0.4466940632491267</v>
       </c>
       <c r="DM3">
-        <v>0.4519808721019753</v>
+        <v>0.4519491585414669</v>
       </c>
       <c r="DN3">
-        <v>0.453319294548397</v>
+        <v>0.4532861938255519</v>
       </c>
       <c r="DO3">
-        <v>0.4533756348291417</v>
+        <v>0.4533407149727612</v>
       </c>
       <c r="DP3">
-        <v>0.4659996093237925</v>
+        <v>0.4659671047395635</v>
       </c>
       <c r="DQ3">
-        <v>0.4730484140416224</v>
+        <v>0.4730164462908343</v>
       </c>
       <c r="DR3">
-        <v>0.4744855756840915</v>
+        <v>0.4744522540391065</v>
       </c>
       <c r="DS3">
-        <v>0.4745648310109188</v>
+        <v>0.4745296979531518</v>
       </c>
       <c r="DT3">
-        <v>0.4749149851969018</v>
+        <v>0.4748781320001477</v>
       </c>
       <c r="DU3">
-        <v>0.48030211848125</v>
+        <v>0.4802652422519471</v>
       </c>
       <c r="DV3">
-        <v>0.4903419580793461</v>
+        <v>0.4903066264511267</v>
       </c>
       <c r="DW3">
-        <v>0.505615482467933</v>
+        <v>0.5055834588231699</v>
       </c>
       <c r="DX3">
-        <v>0.5056158489026483</v>
+        <v>0.5055834588231699</v>
       </c>
       <c r="DY3">
-        <v>0.5056429537975633</v>
+        <v>0.505608734734288</v>
       </c>
       <c r="DZ3">
-        <v>0.507831419509957</v>
+        <v>0.5077960996889281</v>
       </c>
       <c r="EA3">
-        <v>0.5167675101522372</v>
+        <v>0.5167333630467981</v>
       </c>
       <c r="EB3">
-        <v>0.5453758690070185</v>
+        <v>0.5453495227830572</v>
       </c>
       <c r="EC3">
-        <v>0.5668911201457434</v>
+        <v>0.5668701849266022</v>
       </c>
       <c r="ED3">
-        <v>0.5787415516713598</v>
+        <v>0.5787227710949874</v>
       </c>
       <c r="EE3">
-        <v>0.5823818685256346</v>
+        <v>0.5823624763628695</v>
       </c>
       <c r="EF3">
-        <v>0.5828408346072618</v>
+        <v>0.5828197589674384</v>
       </c>
       <c r="EG3">
-        <v>0.5828879083233773</v>
+        <v>0.5828650104278406</v>
       </c>
       <c r="EH3">
-        <v>0.5903142630260936</v>
+        <v>0.5902920291716945</v>
       </c>
       <c r="EI3">
-        <v>0.6031367615127973</v>
+        <v>0.6031170098191229</v>
       </c>
       <c r="EJ3">
-        <v>0.6085014522980438</v>
+        <v>0.6084816700102824</v>
       </c>
       <c r="EK3">
-        <v>0.6110815176947614</v>
+        <v>0.6110607665907004</v>
       </c>
       <c r="EL3">
-        <v>0.6158434332041376</v>
+        <v>0.6158224484132665</v>
       </c>
       <c r="EM3">
-        <v>0.623163015911128</v>
+        <v>0.6231426591867683</v>
       </c>
       <c r="EN3">
-        <v>0.6492987368648913</v>
+        <v>0.6492853479175593</v>
       </c>
       <c r="EO3">
-        <v>0.663392551300703</v>
+        <v>0.663382072857839</v>
       </c>
       <c r="EP3">
-        <v>0.6661104511919029</v>
+        <v>0.6660990503732354</v>
       </c>
       <c r="EQ3">
-        <v>0.6664086367499663</v>
+        <v>0.6663954982825521</v>
       </c>
       <c r="ER3">
-        <v>0.6788514872518676</v>
+        <v>0.6788407030306033</v>
       </c>
       <c r="ES3">
-        <v>0.7086068640607327</v>
+        <v>0.7086042671850384</v>
       </c>
       <c r="ET3">
-        <v>0.737601572900048</v>
+        <v>0.7376069070785072</v>
       </c>
       <c r="EU3">
-        <v>0.7652697117924672</v>
+        <v>0.7652825300646391</v>
       </c>
       <c r="EV3">
-        <v>0.7805229801818649</v>
+        <v>0.7805390996126511</v>
       </c>
       <c r="EW3">
-        <v>0.7871128109180681</v>
+        <v>0.7871293125404584</v>
       </c>
       <c r="EX3">
-        <v>0.7899582672041618</v>
+        <v>0.7899738894282505</v>
       </c>
       <c r="EY3">
-        <v>0.7899862182200429</v>
+        <v>0.7900000117454179</v>
       </c>
       <c r="EZ3">
-        <v>0.7910040146792996</v>
+        <v>0.7910163130140104</v>
       </c>
       <c r="FA3">
-        <v>0.7977430994095279</v>
+        <v>0.7977558302239043</v>
       </c>
       <c r="FB3">
-        <v>0.8197112845301214</v>
+        <v>0.8197295789561011</v>
       </c>
       <c r="FC3">
-        <v>0.8295546571360822</v>
+        <v>0.8295744299676361</v>
       </c>
       <c r="FD3">
-        <v>0.842329541624692</v>
+        <v>0.8423517805744137</v>
       </c>
       <c r="FE3">
-        <v>0.8452227202088755</v>
+        <v>0.8452440958393417</v>
       </c>
       <c r="FF3">
-        <v>0.8502890207060668</v>
+        <v>0.8503102652059799</v>
       </c>
       <c r="FG3">
-        <v>0.8572083274290807</v>
+        <v>0.8572300651307505</v>
       </c>
       <c r="FH3">
-        <v>0.857226632175348</v>
+        <v>0.8572465379281919</v>
       </c>
       <c r="FI3">
-        <v>0.8580090421740274</v>
+        <v>0.858027373427584</v>
       </c>
       <c r="FJ3">
-        <v>0.8581881883068561</v>
+        <v>0.8582047418037816</v>
       </c>
       <c r="FK3">
-        <v>0.8627689291234848</v>
+        <v>0.8627851878905164</v>
       </c>
       <c r="FL3">
-        <v>0.8700304095328011</v>
+        <v>0.8700472767899706</v>
       </c>
       <c r="FM3">
-        <v>0.8820396410520606</v>
+        <v>0.8820587164563883</v>
       </c>
       <c r="FN3">
-        <v>0.9121724028458186</v>
+        <v>0.9121997927478199</v>
       </c>
       <c r="FO3">
-        <v>0.927068653249508</v>
+        <v>0.9270992240202615</v>
       </c>
       <c r="FP3">
-        <v>0.9371131498474177</v>
+        <v>0.937145266788335</v>
       </c>
       <c r="FQ3">
-        <v>0.9391911767642324</v>
+        <v>0.9392221557373169</v>
       </c>
       <c r="FR3">
-        <v>0.9417238473628472</v>
+        <v>0.9417538415509304</v>
       </c>
       <c r="FS3">
-        <v>0.9454367432142166</v>
+        <v>0.9454661502699064</v>
       </c>
       <c r="FT3">
-        <v>0.9483691560968294</v>
+        <v>0.9483977130524531</v>
       </c>
       <c r="FU3">
-        <v>0.9567614347608788</v>
+        <v>0.9567909812058388</v>
       </c>
       <c r="FV3">
-        <v>0.9630831645078142</v>
+        <v>0.9631130028132681</v>
       </c>
       <c r="FW3">
-        <v>0.9692732542600192</v>
+        <v>0.96930334007258</v>
       </c>
       <c r="FX3">
-        <v>0.9802242178216422</v>
+        <v>0.9802561552197537</v>
       </c>
       <c r="FY3">
-        <v>0.9847669326397931</v>
+        <v>0.9847985624959332</v>
       </c>
       <c r="FZ3">
-        <v>0.9848985277845252</v>
+        <v>0.9849283638627077</v>
       </c>
       <c r="GA3">
-        <v>0.985777628449334</v>
+        <v>0.985805922606159</v>
       </c>
       <c r="GB3">
-        <v>0.9895754352973044</v>
+        <v>0.9896031709307486</v>
       </c>
       <c r="GC3">
-        <v>0.9917149556116575</v>
+        <v>0.9917415739962036</v>
       </c>
       <c r="GD3">
-        <v>0.9919511517122023</v>
+        <v>0.9919760115619299</v>
       </c>
       <c r="GE3">
-        <v>0.9927998895782265</v>
+        <v>0.9928231972764765</v>
       </c>
       <c r="GF3">
-        <v>0.9928684612854816</v>
+        <v>0.9928899539713236</v>
       </c>
       <c r="GG3">
-        <v>0.9929641596016506</v>
+        <v>0.9929838464148375</v>
       </c>
       <c r="GH3">
-        <v>0.9939507252621576</v>
+        <v>0.9939689063621053</v>
       </c>
       <c r="GI3">
-        <v>0.9940899847265828</v>
+        <v>0.9941063746309077</v>
       </c>
       <c r="GJ3">
-        <v>0.9942391208806127</v>
+        <v>0.9942537229170619</v>
       </c>
       <c r="GK3">
-        <v>0.9943630257156527</v>
+        <v>0.9943758313830526</v>
       </c>
       <c r="GL3">
-        <v>0.9948001270781551</v>
+        <v>0.9948112419016296</v>
       </c>
       <c r="GM3">
-        <v>0.9952907697585143</v>
+        <v>0.9953002117777084</v>
       </c>
       <c r="GN3">
-        <v>0.9960718052272487</v>
+        <v>0.9960796722840358</v>
       </c>
       <c r="GO3">
-        <v>0.9961910695224745</v>
+        <v>0.9961971386466779</v>
       </c>
       <c r="GP3">
-        <v>0.9962966622782475</v>
+        <v>0.9963009288635235</v>
       </c>
       <c r="GQ3">
-        <v>0.9969153007234829</v>
+        <v>0.9969179376300171</v>
       </c>
       <c r="GR3">
-        <v>0.9973622843055897</v>
+        <v>0.9973632336978091</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>6.199851788547508E-05</v>
+        <v>1.143954107918326E-05</v>
       </c>
       <c r="C4">
-        <v>6.510302042996183E-05</v>
+        <v>1.143954107918326E-05</v>
       </c>
       <c r="D4">
-        <v>6.748305554073112E-05</v>
+        <v>1.143954107918326E-05</v>
       </c>
       <c r="E4">
-        <v>7.150187812777127E-05</v>
+        <v>1.143954107918326E-05</v>
       </c>
       <c r="F4">
-        <v>0.0001772169830478615</v>
+        <v>6.693052965719158E-05</v>
       </c>
       <c r="G4">
-        <v>0.0003385885205582595</v>
+        <v>0.0001785042681599031</v>
       </c>
       <c r="H4">
-        <v>0.0003704906420430172</v>
+        <v>0.0001785042681599031</v>
       </c>
       <c r="I4">
-        <v>0.0007783961610273615</v>
+        <v>0.0005385003899785099</v>
       </c>
       <c r="J4">
-        <v>0.0008670356851527365</v>
+        <v>0.0005767850021691131</v>
       </c>
       <c r="K4">
-        <v>0.0008689492066417938</v>
+        <v>0.0005767850021691131</v>
       </c>
       <c r="L4">
-        <v>0.0008691016323088878</v>
+        <v>0.0005767850021691131</v>
       </c>
       <c r="M4">
-        <v>0.0009171770475463673</v>
+        <v>0.0005767850021691131</v>
       </c>
       <c r="N4">
-        <v>0.0009326837382680646</v>
+        <v>0.0005767850021691131</v>
       </c>
       <c r="O4">
-        <v>0.0009833296736251789</v>
+        <v>0.0005767850021691131</v>
       </c>
       <c r="P4">
-        <v>0.001038764116205155</v>
+        <v>0.0005816101884161234</v>
       </c>
       <c r="Q4">
-        <v>0.001112233759624508</v>
+        <v>0.0006046087215961297</v>
       </c>
       <c r="R4">
-        <v>0.001131385767515862</v>
+        <v>0.0006046087215961297</v>
       </c>
       <c r="S4">
-        <v>0.001328006176666779</v>
+        <v>0.000751701331167977</v>
       </c>
       <c r="T4">
-        <v>0.001481713903820496</v>
+        <v>0.0008555525560329931</v>
       </c>
       <c r="U4">
-        <v>0.001546248601824007</v>
+        <v>0.0008695477038714319</v>
       </c>
       <c r="V4">
-        <v>0.001605761779593812</v>
+        <v>0.0008784828676181512</v>
       </c>
       <c r="W4">
-        <v>0.001613950906974942</v>
+        <v>0.0008784828676181512</v>
       </c>
       <c r="X4">
-        <v>0.001616404055089114</v>
+        <v>0.0008784828676181512</v>
       </c>
       <c r="Y4">
-        <v>0.001620832331795211</v>
+        <v>0.0008784828676181512</v>
       </c>
       <c r="Z4">
-        <v>0.001621302614017098</v>
+        <v>0.0008784828676181512</v>
       </c>
       <c r="AA4">
-        <v>0.001634229992618752</v>
+        <v>0.0008784828676181512</v>
       </c>
       <c r="AB4">
-        <v>0.001703763375854907</v>
+        <v>0.0008975149896356268</v>
       </c>
       <c r="AC4">
-        <v>0.00182321715741441</v>
+        <v>0.0009668498904157746</v>
       </c>
       <c r="AD4">
-        <v>0.001835368338979939</v>
+        <v>0.0009668498904157746</v>
       </c>
       <c r="AE4">
-        <v>0.001892845201654971</v>
+        <v>0.0009737331412943326</v>
       </c>
       <c r="AF4">
-        <v>0.001933748253558641</v>
+        <v>0.0009737331412943326</v>
       </c>
       <c r="AG4">
-        <v>0.001933755977987001</v>
+        <v>0.0009737331412943326</v>
       </c>
       <c r="AH4">
-        <v>0.00193694390443537</v>
+        <v>0.0009737331412943326</v>
       </c>
       <c r="AI4">
-        <v>0.001940446685198393</v>
+        <v>0.0009737331412943326</v>
       </c>
       <c r="AJ4">
-        <v>0.002007731778329911</v>
+        <v>0.0009904997517468693</v>
       </c>
       <c r="AK4">
-        <v>0.00211168389316795</v>
+        <v>0.001044214246085313</v>
       </c>
       <c r="AL4">
-        <v>0.002123999578741135</v>
+        <v>0.001044214246085313</v>
       </c>
       <c r="AM4">
-        <v>0.002124004697658673</v>
+        <v>0.001044214246085313</v>
       </c>
       <c r="AN4">
-        <v>0.002153085923012143</v>
+        <v>0.001044214246085313</v>
       </c>
       <c r="AO4">
-        <v>0.002280141198925427</v>
+        <v>0.001121208867171922</v>
       </c>
       <c r="AP4">
-        <v>0.002312877178448993</v>
+        <v>0.001121208867171922</v>
       </c>
       <c r="AQ4">
-        <v>0.002338620932647134</v>
+        <v>0.001121208867171922</v>
       </c>
       <c r="AR4">
-        <v>0.002376443668407443</v>
+        <v>0.001121208867171922</v>
       </c>
       <c r="AS4">
-        <v>0.002399304179471395</v>
+        <v>0.001121208867171922</v>
       </c>
       <c r="AT4">
-        <v>0.002496195498980817</v>
+        <v>0.001167808481877327</v>
       </c>
       <c r="AU4">
-        <v>0.002497204804427792</v>
+        <v>0.001167808481877327</v>
       </c>
       <c r="AV4">
-        <v>0.002581947828371819</v>
+        <v>0.001202166747461049</v>
       </c>
       <c r="AW4">
-        <v>0.002603772188387548</v>
+        <v>0.001202166747461049</v>
       </c>
       <c r="AX4">
-        <v>0.002603793996878562</v>
+        <v>0.001202166747461049</v>
       </c>
       <c r="AY4">
-        <v>0.002632622138220254</v>
+        <v>0.001202166747461049</v>
       </c>
       <c r="AZ4">
-        <v>0.002639343805533087</v>
+        <v>0.001202166747461049</v>
       </c>
       <c r="BA4">
-        <v>0.002640255483745518</v>
+        <v>0.001202166747461049</v>
       </c>
       <c r="BB4">
-        <v>0.002681158535649188</v>
+        <v>0.001202166747461049</v>
       </c>
       <c r="BC4">
-        <v>0.002681310961316282</v>
+        <v>0.001202166747461049</v>
       </c>
       <c r="BD4">
-        <v>0.002681405279296672</v>
+        <v>0.001202166747461049</v>
       </c>
       <c r="BE4">
-        <v>0.002745722426290059</v>
+        <v>0.001215942677891385</v>
       </c>
       <c r="BF4">
-        <v>0.00282022057975728</v>
+        <v>0.001239977599304073</v>
       </c>
       <c r="BG4">
-        <v>0.002948401555722955</v>
+        <v>0.001318106543084219</v>
       </c>
       <c r="BH4">
-        <v>0.002999902041119841</v>
+        <v>0.001318967638809333</v>
       </c>
       <c r="BI4">
-        <v>0.003032638020643407</v>
+        <v>0.001318967638809333</v>
       </c>
       <c r="BJ4">
-        <v>0.003044606489200432</v>
+        <v>0.001318967638809333</v>
       </c>
       <c r="BK4">
-        <v>0.003047174574019953</v>
+        <v>0.001318967638809333</v>
       </c>
       <c r="BL4">
-        <v>0.003048358202575041</v>
+        <v>0.001318967638809333</v>
       </c>
       <c r="BM4">
-        <v>0.003051640761927814</v>
+        <v>0.001318967638809333</v>
       </c>
       <c r="BN4">
-        <v>0.003051642210886182</v>
+        <v>0.001318967638809333</v>
       </c>
       <c r="BO4">
-        <v>0.003152168715564789</v>
+        <v>0.001369230283487826</v>
       </c>
       <c r="BP4">
-        <v>0.003152839312395999</v>
+        <v>0.001369230283487826</v>
       </c>
       <c r="BQ4">
-        <v>0.003251900541006411</v>
+        <v>0.001418016428371441</v>
       </c>
       <c r="BR4">
-        <v>0.003256802155234538</v>
+        <v>0.001418016428371441</v>
       </c>
       <c r="BS4">
-        <v>0.003256807274152076</v>
+        <v>0.001418016428371441</v>
       </c>
       <c r="BT4">
-        <v>0.003260499033823894</v>
+        <v>0.001418016428371441</v>
       </c>
       <c r="BU4">
-        <v>0.003260538040285709</v>
+        <v>0.001418016428371441</v>
       </c>
       <c r="BV4">
-        <v>0.003273109622870804</v>
+        <v>0.001418016428371441</v>
       </c>
       <c r="BW4">
-        <v>0.00330584560239437</v>
+        <v>0.001418016428371441</v>
       </c>
       <c r="BX4">
-        <v>0.003412044873336994</v>
+        <v>0.001473995291588552</v>
       </c>
       <c r="BY4">
-        <v>0.003455321555351135</v>
+        <v>0.001473995291588552</v>
       </c>
       <c r="BZ4">
-        <v>0.003464448602775917</v>
+        <v>0.001473995291588552</v>
       </c>
       <c r="CA4">
-        <v>0.00349183567405054</v>
+        <v>0.001473995291588552</v>
       </c>
       <c r="CB4">
-        <v>0.003492085703132177</v>
+        <v>0.001473995291588552</v>
       </c>
       <c r="CC4">
-        <v>0.003496210692324158</v>
+        <v>0.001473995291588552</v>
       </c>
       <c r="CD4">
-        <v>0.003498332495622909</v>
+        <v>0.001473995291588552</v>
       </c>
       <c r="CE4">
-        <v>0.003533346264252486</v>
+        <v>0.001473995291588552</v>
       </c>
       <c r="CF4">
-        <v>0.003597663411245873</v>
+        <v>0.001487771222018888</v>
       </c>
       <c r="CG4">
-        <v>0.003602953660192086</v>
+        <v>0.001487771222018888</v>
       </c>
       <c r="CH4">
-        <v>0.003612983446658883</v>
+        <v>0.001487771222018888</v>
       </c>
       <c r="CI4">
-        <v>0.003691780354326172</v>
+        <v>0.001516137825243899</v>
       </c>
       <c r="CJ4">
-        <v>0.003697070603272386</v>
+        <v>0.001516137825243899</v>
       </c>
       <c r="CK4">
-        <v>0.00369807990871936</v>
+        <v>0.001516137825243899</v>
       </c>
       <c r="CL4">
-        <v>0.003721647116816202</v>
+        <v>0.001516137825243899</v>
       </c>
       <c r="CM4">
-        <v>0.00372356063830526</v>
+        <v>0.001516137825243899</v>
       </c>
       <c r="CN4">
-        <v>0.01603984421151782</v>
+        <v>0.01387572783659985</v>
       </c>
       <c r="CO4">
-        <v>0.02759203974916893</v>
+        <v>0.0254653770482231</v>
       </c>
       <c r="CP4">
-        <v>0.0275971032870046</v>
+        <v>0.0254653770482231</v>
       </c>
       <c r="CQ4">
-        <v>0.03322398354888541</v>
+        <v>0.03108432423368167</v>
       </c>
       <c r="CR4">
-        <v>0.1136211832906542</v>
+        <v>0.112046316850172</v>
       </c>
       <c r="CS4">
-        <v>0.1969491671688246</v>
+        <v>0.1959615428335046</v>
       </c>
       <c r="CT4">
-        <v>0.19725610888311</v>
+        <v>0.1962198017877246</v>
       </c>
       <c r="CU4">
-        <v>0.1988865558589927</v>
+        <v>0.1978117037937114</v>
       </c>
       <c r="CV4">
-        <v>0.2147664615980599</v>
+        <v>0.2137622126162842</v>
       </c>
       <c r="CW4">
-        <v>0.2359617995845128</v>
+        <v>0.2350688688525118</v>
       </c>
       <c r="CX4">
-        <v>0.2580602026129953</v>
+        <v>0.257285507431494</v>
       </c>
       <c r="CY4">
-        <v>0.2986295945011367</v>
+        <v>0.2981146190143356</v>
       </c>
       <c r="CZ4">
-        <v>0.2988157390598001</v>
+        <v>0.2982511555304642</v>
       </c>
       <c r="DA4">
-        <v>0.3006246397439882</v>
+        <v>0.3000228781650871</v>
       </c>
       <c r="DB4">
-        <v>0.3033394318703374</v>
+        <v>0.3027074311922655</v>
       </c>
       <c r="DC4">
-        <v>0.3100043695805305</v>
+        <v>0.3093723871420607</v>
       </c>
       <c r="DD4">
-        <v>0.3101048960852091</v>
+        <v>0.3094226497867392</v>
       </c>
       <c r="DE4">
-        <v>0.3202597525578266</v>
+        <v>0.319604256590737</v>
       </c>
       <c r="DF4">
-        <v>0.3292850839778749</v>
+        <v>0.3286476864022706</v>
       </c>
       <c r="DG4">
-        <v>0.3299902072106921</v>
+        <v>0.329307176867192</v>
       </c>
       <c r="DH4">
-        <v>0.3314208804772771</v>
+        <v>0.3306977749365334</v>
       </c>
       <c r="DI4">
-        <v>0.332894354045854</v>
+        <v>0.3321315011497676</v>
       </c>
       <c r="DJ4">
-        <v>0.3354620401653568</v>
+        <v>0.3346678213670007</v>
       </c>
       <c r="DK4">
-        <v>0.3373201273518341</v>
+        <v>0.3364891072628527</v>
       </c>
       <c r="DL4">
-        <v>0.3494307899154768</v>
+        <v>0.3486415012481202</v>
       </c>
       <c r="DM4">
-        <v>0.3542474834396507</v>
+        <v>0.3534440558247028</v>
       </c>
       <c r="DN4">
-        <v>0.3544754429402602</v>
+        <v>0.3536227275770141</v>
       </c>
       <c r="DO4">
-        <v>0.3558694178051373</v>
+        <v>0.3549763461421035</v>
       </c>
       <c r="DP4">
-        <v>0.3566073870794831</v>
+        <v>0.3556689342427758</v>
       </c>
       <c r="DQ4">
-        <v>0.3593978378093535</v>
+        <v>0.3584297254035077</v>
       </c>
       <c r="DR4">
-        <v>0.3600022467374833</v>
+        <v>0.3589877301119632</v>
       </c>
       <c r="DS4">
-        <v>0.3643199305384328</v>
+        <v>0.3632874526489216</v>
       </c>
       <c r="DT4">
-        <v>0.3744153470082839</v>
+        <v>0.3734091641514148</v>
       </c>
       <c r="DU4">
-        <v>0.3877079316269346</v>
+        <v>0.3867525334823253</v>
       </c>
       <c r="DV4">
-        <v>0.406612763506785</v>
+        <v>0.4057511387853718</v>
       </c>
       <c r="DW4">
-        <v>0.4245253193404538</v>
+        <v>0.4237498674027544</v>
       </c>
       <c r="DX4">
-        <v>0.4274489172765211</v>
+        <v>0.4266448256511126</v>
       </c>
       <c r="DY4">
-        <v>0.4274969926917586</v>
+        <v>0.4266448256511126</v>
       </c>
       <c r="DZ4">
-        <v>0.4294968547848342</v>
+        <v>0.4286089724214817</v>
       </c>
       <c r="EA4">
-        <v>0.4353608903577525</v>
+        <v>0.4344668914810474</v>
       </c>
       <c r="EB4">
-        <v>0.4532511561903839</v>
+        <v>0.4524431593603658</v>
       </c>
       <c r="EC4">
-        <v>0.4817043695146259</v>
+        <v>0.4810632848329378</v>
       </c>
       <c r="ED4">
-        <v>0.5212948313572069</v>
+        <v>0.5209059679584783</v>
       </c>
       <c r="EE4">
-        <v>0.5505537547189474</v>
+        <v>0.5503379750490742</v>
       </c>
       <c r="EF4">
-        <v>0.5596625841428817</v>
+        <v>0.5594655424427921</v>
       </c>
       <c r="EG4">
-        <v>0.5596734092143856</v>
+        <v>0.5594655424427921</v>
       </c>
       <c r="EH4">
-        <v>0.5666450058388509</v>
+        <v>0.5664395062538692</v>
       </c>
       <c r="EI4">
-        <v>0.5752407882389075</v>
+        <v>0.5750500967843456</v>
       </c>
       <c r="EJ4">
-        <v>0.5844456576673116</v>
+        <v>0.5842744398300909</v>
       </c>
       <c r="EK4">
-        <v>0.5928029140562669</v>
+        <v>0.5926446772871031</v>
       </c>
       <c r="EL4">
-        <v>0.6018440794770521</v>
+        <v>0.6017040623847071</v>
       </c>
       <c r="EM4">
-        <v>0.6108852448978372</v>
+        <v>0.610763447482311</v>
       </c>
       <c r="EN4">
-        <v>0.6315328928588001</v>
+        <v>0.6315182184951016</v>
       </c>
       <c r="EO4">
-        <v>0.6484073536441549</v>
+        <v>0.6484709004601372</v>
       </c>
       <c r="EP4">
-        <v>0.6556240149800258</v>
+        <v>0.6556918061301419</v>
       </c>
       <c r="EQ4">
-        <v>0.657391620762292</v>
+        <v>0.6574219175520106</v>
       </c>
       <c r="ER4">
-        <v>0.660412611302892</v>
+        <v>0.6604150144131098</v>
       </c>
       <c r="ES4">
-        <v>0.6739490379328913</v>
+        <v>0.6740040935372489</v>
       </c>
       <c r="ET4">
-        <v>0.6975402260308495</v>
+        <v>0.6977249516259327</v>
       </c>
       <c r="EU4">
-        <v>0.7257050673416704</v>
+        <v>0.7260544962121402</v>
       </c>
       <c r="EV4">
-        <v>0.7521769995737014</v>
+        <v>0.752678164368755</v>
       </c>
       <c r="EW4">
-        <v>0.7724956125193507</v>
+        <v>0.7731013800226864</v>
       </c>
       <c r="EX4">
-        <v>0.7797167448554296</v>
+        <v>0.7803267909398819</v>
       </c>
       <c r="EY4">
-        <v>0.7813364585308128</v>
+        <v>0.781907877430397</v>
       </c>
       <c r="EZ4">
-        <v>0.7814747596772494</v>
+        <v>0.7819962040631648</v>
       </c>
       <c r="FA4">
-        <v>0.7857636818768603</v>
+        <v>0.7862669446905715</v>
       </c>
       <c r="FB4">
-        <v>0.7985871464736776</v>
+        <v>0.7991376006324867</v>
       </c>
       <c r="FC4">
-        <v>0.8066518588490176</v>
+        <v>0.8072130532462388</v>
       </c>
       <c r="FD4">
-        <v>0.8200942154746388</v>
+        <v>0.8207073418082557</v>
       </c>
       <c r="FE4">
-        <v>0.8326148200573606</v>
+        <v>0.8332728178878945</v>
       </c>
       <c r="FF4">
-        <v>0.8402871051144367</v>
+        <v>0.8409528372672562</v>
       </c>
       <c r="FG4">
-        <v>0.8487027645061102</v>
+        <v>0.8493819250825084</v>
       </c>
       <c r="FH4">
-        <v>0.8497802807562589</v>
+        <v>0.8504166610220805</v>
       </c>
       <c r="FI4">
-        <v>0.8527092691925771</v>
+        <v>0.853317051060862</v>
       </c>
       <c r="FJ4">
-        <v>0.8539791646516793</v>
+        <v>0.854545639796316</v>
       </c>
       <c r="FK4">
-        <v>0.8559888424452118</v>
+        <v>0.8565196774534782</v>
       </c>
       <c r="FL4">
-        <v>0.8587369649731122</v>
+        <v>0.8592378161865327</v>
       </c>
       <c r="FM4">
-        <v>0.8686760824356891</v>
+        <v>0.8692020314620763</v>
       </c>
       <c r="FN4">
-        <v>0.8946927886465335</v>
+        <v>0.8953669866556565</v>
       </c>
       <c r="FO4">
-        <v>0.9129608844967495</v>
+        <v>0.9137239786562318</v>
       </c>
       <c r="FP4">
-        <v>0.9287947152336723</v>
+        <v>0.9296280595511998</v>
       </c>
       <c r="FQ4">
-        <v>0.9341571794832469</v>
+        <v>0.9349805653496687</v>
       </c>
       <c r="FR4">
-        <v>0.9343051695101345</v>
+        <v>0.9350786550778073</v>
       </c>
       <c r="FS4">
-        <v>0.9348781506368017</v>
+        <v>0.935604991254018</v>
       </c>
       <c r="FT4">
-        <v>0.9371281171415174</v>
+        <v>0.9378211581866625</v>
       </c>
       <c r="FU4">
-        <v>0.9431031044195995</v>
+        <v>0.9437908788196461</v>
       </c>
       <c r="FV4">
-        <v>0.9483197003623853</v>
+        <v>0.9489963989887665</v>
       </c>
       <c r="FW4">
-        <v>0.9580284188142392</v>
+        <v>0.9587284504424498</v>
       </c>
       <c r="FX4">
-        <v>0.9694077613438455</v>
+        <v>0.9701439226259608</v>
       </c>
       <c r="FY4">
-        <v>0.9784489267646307</v>
+        <v>0.9792033077235648</v>
       </c>
       <c r="FZ4">
-        <v>0.9814834719058616</v>
+        <v>0.9822100630108715</v>
       </c>
       <c r="GA4">
-        <v>0.9814835993090776</v>
+        <v>0.9822100630108715</v>
       </c>
       <c r="GB4">
-        <v>0.9832500653912908</v>
+        <v>0.9839390260028088</v>
       </c>
       <c r="GC4">
-        <v>0.9877071970987303</v>
+        <v>0.9883792645898126</v>
       </c>
       <c r="GD4">
-        <v>0.9893794648765594</v>
+        <v>0.9900133077368689</v>
       </c>
       <c r="GE4">
-        <v>0.9903967711239059</v>
+        <v>0.9909873724768514</v>
       </c>
       <c r="GF4">
-        <v>0.9904775260376643</v>
+        <v>0.9910177120841094</v>
       </c>
       <c r="GG4">
-        <v>0.9911600768694309</v>
+        <v>0.9916544572478247</v>
       </c>
       <c r="GH4">
-        <v>0.9925222395328274</v>
+        <v>0.9929760199362229</v>
       </c>
       <c r="GI4">
-        <v>0.9927918574353757</v>
+        <v>0.9931966691856439</v>
       </c>
       <c r="GJ4">
-        <v>0.9929861485144181</v>
+        <v>0.9933414146228965</v>
       </c>
       <c r="GK4">
-        <v>0.9938263103035201</v>
+        <v>0.9941369780129021</v>
       </c>
       <c r="GL4">
-        <v>0.9950149117588388</v>
+        <v>0.9952836500484821</v>
       </c>
       <c r="GM4">
-        <v>0.9958736605988059</v>
+        <v>0.9960979428625091</v>
       </c>
       <c r="GN4">
-        <v>0.9963056597789116</v>
+        <v>0.9964822171981577</v>
       </c>
       <c r="GO4">
-        <v>0.996402551098421</v>
+        <v>0.9965288168128631</v>
       </c>
       <c r="GP4">
-        <v>0.9964032654726043</v>
+        <v>0.9965288168128631</v>
       </c>
       <c r="GQ4">
-        <v>0.9966527746042166</v>
+        <v>0.9967292032621152</v>
       </c>
       <c r="GR4">
-        <v>0.9970882435644838</v>
+        <v>0.9971169739557593</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.159989277170997E-05</v>
+        <v>4.480370871340969E-05</v>
       </c>
       <c r="C5">
-        <v>0.00012982491939364</v>
+        <v>0.0001162647826268979</v>
       </c>
       <c r="D5">
-        <v>0.0001664106958137197</v>
+        <v>0.000146036199484296</v>
       </c>
       <c r="E5">
-        <v>0.0001995668403819046</v>
+        <v>0.0001723738327110807</v>
       </c>
       <c r="F5">
-        <v>0.0002118017048535541</v>
+        <v>0.0001777648593546325</v>
       </c>
       <c r="G5">
-        <v>0.0002121642428378983</v>
+        <v>0.0001777648593546325</v>
       </c>
       <c r="H5">
-        <v>0.0002568406809085907</v>
+        <v>0.0002156367321024664</v>
       </c>
       <c r="I5">
-        <v>0.00027730360002492</v>
+        <v>0.0002292657739531273</v>
       </c>
       <c r="J5">
-        <v>0.0002841539561290941</v>
+        <v>0.0002292657739531273</v>
       </c>
       <c r="K5">
-        <v>0.0002847823912519558</v>
+        <v>0.0002292657739531273</v>
       </c>
       <c r="L5">
-        <v>0.0002850823076590042</v>
+        <v>0.0002292657739531273</v>
       </c>
       <c r="M5">
-        <v>0.0003009866319721917</v>
+        <v>0.0002383307025433577</v>
       </c>
       <c r="N5">
-        <v>0.0003084359021505024</v>
+        <v>0.0002389303416395417</v>
       </c>
       <c r="O5">
-        <v>0.0003117759333062665</v>
+        <v>0.0002389303416395417</v>
       </c>
       <c r="P5">
-        <v>0.0003849470341464453</v>
+        <v>0.0003053313716856026</v>
       </c>
       <c r="Q5">
-        <v>0.0004515926712684198</v>
+        <v>0.000365199038541281</v>
       </c>
       <c r="R5">
-        <v>0.0005255423180749779</v>
+        <v>0.00043237955703114</v>
       </c>
       <c r="S5">
-        <v>0.0005799172257268516</v>
+        <v>0.0004799616399496268</v>
       </c>
       <c r="T5">
-        <v>0.0005815017487584256</v>
+        <v>0.0004799616399496268</v>
       </c>
       <c r="U5">
-        <v>0.0005857977012729092</v>
+        <v>0.0004799616399496268</v>
       </c>
       <c r="V5">
-        <v>0.0005889738940357484</v>
+        <v>0.0004799616399496268</v>
       </c>
       <c r="W5">
-        <v>0.0005913365547337193</v>
+        <v>0.0004799616399496268</v>
       </c>
       <c r="X5">
-        <v>0.0006160214946677247</v>
+        <v>0.0004978178136318971</v>
       </c>
       <c r="Y5">
-        <v>0.0006427307435143123</v>
+        <v>0.0005177007467762624</v>
       </c>
       <c r="Z5">
-        <v>0.0006655577935285489</v>
+        <v>0.0005336967814496011</v>
       </c>
       <c r="AA5">
-        <v>0.0006799091409088002</v>
+        <v>0.0005412068531335163</v>
       </c>
       <c r="AB5">
-        <v>0.0006901381309670714</v>
+        <v>0.0005445895771302637</v>
       </c>
       <c r="AC5">
-        <v>0.0006912597668186346</v>
+        <v>0.0005445895771302637</v>
       </c>
       <c r="AD5">
-        <v>0.0006974312269521262</v>
+        <v>0.0005445895771302637</v>
       </c>
       <c r="AE5">
-        <v>0.0007018156833627879</v>
+        <v>0.0005445895771302637</v>
       </c>
       <c r="AF5">
-        <v>0.0007571776609720359</v>
+        <v>0.000593159924914564</v>
       </c>
       <c r="AG5">
-        <v>0.0007933626224094244</v>
+        <v>0.0006225300415782667</v>
       </c>
       <c r="AH5">
-        <v>0.0008885290582997565</v>
+        <v>0.0007109530333702656</v>
       </c>
       <c r="AI5">
-        <v>0.001014549552857687</v>
+        <v>0.0008302674345513674</v>
       </c>
       <c r="AJ5">
-        <v>0.001125556738063952</v>
+        <v>0.0009345503518533456</v>
       </c>
       <c r="AK5">
-        <v>0.00130088327049265</v>
+        <v>0.001103230478873948</v>
       </c>
       <c r="AL5">
-        <v>0.001403817726047528</v>
+        <v>0.001199430893992496</v>
       </c>
       <c r="AM5">
-        <v>0.001460675593592178</v>
+        <v>0.001249498942578281</v>
       </c>
       <c r="AN5">
-        <v>0.001495776700076371</v>
+        <v>0.001277783892216204</v>
       </c>
       <c r="AO5">
-        <v>0.001495792098296706</v>
+        <v>0.001277783892216204</v>
       </c>
       <c r="AP5">
-        <v>0.001499300087845217</v>
+        <v>0.001277783892216204</v>
       </c>
       <c r="AQ5">
-        <v>0.001530702883489119</v>
+        <v>0.001302366053982799</v>
       </c>
       <c r="AR5">
-        <v>0.001546247252817851</v>
+        <v>0.001311070591841091</v>
       </c>
       <c r="AS5">
-        <v>0.001569510065813269</v>
+        <v>0.001327502917013302</v>
       </c>
       <c r="AT5">
-        <v>0.001578556033422628</v>
+        <v>0.001329701186440245</v>
       </c>
       <c r="AU5">
-        <v>0.001583275879218806</v>
+        <v>0.001329701186440245</v>
       </c>
       <c r="AV5">
-        <v>0.001604234519313728</v>
+        <v>0.001343826549370004</v>
       </c>
       <c r="AW5">
-        <v>0.001605766017147592</v>
+        <v>0.001343826549370004</v>
       </c>
       <c r="AX5">
-        <v>0.001605870860213064</v>
+        <v>0.001343826549370004</v>
       </c>
       <c r="AY5">
-        <v>0.001611242874981079</v>
+        <v>0.001343826549370004</v>
       </c>
       <c r="AZ5">
-        <v>0.00162147186503935</v>
+        <v>0.001347209273366752</v>
       </c>
       <c r="BA5">
-        <v>0.001621981843477327</v>
+        <v>0.001347209273366752</v>
       </c>
       <c r="BB5">
-        <v>0.001636150829865454</v>
+        <v>0.001354536763299429</v>
       </c>
       <c r="BC5">
-        <v>0.001668925463450114</v>
+        <v>0.001380492423700354</v>
       </c>
       <c r="BD5">
-        <v>0.00167021978929422</v>
+        <v>0.001380492423700354</v>
       </c>
       <c r="BE5">
-        <v>0.001677553559977518</v>
+        <v>0.001380976423482336</v>
       </c>
       <c r="BF5">
-        <v>0.001690825571404379</v>
+        <v>0.001387405852610802</v>
       </c>
       <c r="BG5">
-        <v>0.001717534820250967</v>
+        <v>0.001407288785755167</v>
       </c>
       <c r="BH5">
-        <v>0.001721042809799478</v>
+        <v>0.001407288785755167</v>
       </c>
       <c r="BI5">
-        <v>0.001757885995208442</v>
+        <v>0.001437317923210744</v>
       </c>
       <c r="BJ5">
-        <v>0.001760390245800298</v>
+        <v>0.001437317923210744</v>
       </c>
       <c r="BK5">
-        <v>0.001792922124395441</v>
+        <v>0.001463030534752418</v>
       </c>
       <c r="BL5">
-        <v>0.001794568019924365</v>
+        <v>0.001463030534752418</v>
       </c>
       <c r="BM5">
-        <v>0.001794634154205509</v>
+        <v>0.001463030534752418</v>
       </c>
       <c r="BN5">
-        <v>0.001795144132643486</v>
+        <v>0.001463030534752418</v>
       </c>
       <c r="BO5">
-        <v>0.00180550944719587</v>
+        <v>0.001466549748272401</v>
       </c>
       <c r="BP5">
-        <v>0.001808685639958709</v>
+        <v>0.001466549748272401</v>
       </c>
       <c r="BQ5">
-        <v>0.001820920504430359</v>
+        <v>0.001471940774915953</v>
       </c>
       <c r="BR5">
-        <v>0.001855770372925402</v>
+        <v>0.001499974182425802</v>
       </c>
       <c r="BS5">
-        <v>0.001864225666560268</v>
+        <v>0.001501581062831349</v>
       </c>
       <c r="BT5">
-        <v>0.001864718419938989</v>
+        <v>0.001501581062831349</v>
       </c>
       <c r="BU5">
-        <v>0.001867118622535339</v>
+        <v>0.001501581062831349</v>
       </c>
       <c r="BV5">
-        <v>0.001918242303327614</v>
+        <v>0.001545907983081652</v>
       </c>
       <c r="BW5">
-        <v>0.001921830312472669</v>
+        <v>0.001545907983081652</v>
       </c>
       <c r="BX5">
-        <v>0.001924701638748674</v>
+        <v>0.001545907983081652</v>
       </c>
       <c r="BY5">
-        <v>0.001925941606095127</v>
+        <v>0.001545907983081652</v>
       </c>
       <c r="BZ5">
-        <v>0.001926150337326113</v>
+        <v>0.001545907983081652</v>
       </c>
       <c r="CA5">
-        <v>0.001931069453813686</v>
+        <v>0.001545907983081652</v>
       </c>
       <c r="CB5">
-        <v>0.001988429466336651</v>
+        <v>0.001596478784522903</v>
       </c>
       <c r="CC5">
-        <v>0.002013114406270656</v>
+        <v>0.001614334958205173</v>
       </c>
       <c r="CD5">
-        <v>0.002072695506697706</v>
+        <v>0.001667129536313002</v>
       </c>
       <c r="CE5">
-        <v>0.002096398199674129</v>
+        <v>0.001684002273967786</v>
       </c>
       <c r="CF5">
-        <v>0.002133645818065627</v>
+        <v>0.001714436333996712</v>
       </c>
       <c r="CG5">
-        <v>0.00216566200668304</v>
+        <v>0.001739632631286458</v>
       </c>
       <c r="CH5">
-        <v>0.002176901912197656</v>
+        <v>0.001744027494514421</v>
       </c>
       <c r="CI5">
-        <v>0.002179264572895627</v>
+        <v>0.001744027494514421</v>
       </c>
       <c r="CJ5">
-        <v>0.002180061292661221</v>
+        <v>0.001744027494514421</v>
       </c>
       <c r="CK5">
-        <v>0.002205412745566444</v>
+        <v>0.001762550988022548</v>
       </c>
       <c r="CL5">
-        <v>0.002227923425594342</v>
+        <v>0.001778230269724367</v>
       </c>
       <c r="CM5">
-        <v>0.002289388602940029</v>
+        <v>0.001832911205540958</v>
       </c>
       <c r="CN5">
-        <v>0.00417580462147703</v>
+        <v>0.003714752196946346</v>
       </c>
       <c r="CO5">
-        <v>0.09277404079545035</v>
+        <v>0.09241338329541389</v>
       </c>
       <c r="CP5">
-        <v>0.1433342706120571</v>
+        <v>0.1430279607077872</v>
       </c>
       <c r="CQ5">
-        <v>0.145208091331138</v>
+        <v>0.1448971911523576</v>
       </c>
       <c r="CR5">
-        <v>0.1453807835136805</v>
+        <v>0.1450632337404506</v>
       </c>
       <c r="CS5">
-        <v>0.2220831102013668</v>
+        <v>0.2218515546280116</v>
       </c>
       <c r="CT5">
-        <v>0.2300384338578241</v>
+        <v>0.2298096500405098</v>
       </c>
       <c r="CU5">
-        <v>0.2301420435483498</v>
+        <v>0.2299065265080123</v>
       </c>
       <c r="CV5">
-        <v>0.2542322725080373</v>
+        <v>0.2540190595115663</v>
       </c>
       <c r="CW5">
-        <v>0.2909992809202906</v>
+        <v>0.2908237179830683</v>
       </c>
       <c r="CX5">
-        <v>0.3073729372132105</v>
+        <v>0.3072103369375831</v>
       </c>
       <c r="CY5">
-        <v>0.3083397410414601</v>
+        <v>0.3081714524920069</v>
       </c>
       <c r="CZ5">
-        <v>0.3085183666937463</v>
+        <v>0.308343435732671</v>
       </c>
       <c r="DA5">
-        <v>0.3281860318444177</v>
+        <v>0.3280280511437426</v>
       </c>
       <c r="DB5">
-        <v>0.3291172333642047</v>
+        <v>0.3289535212909361</v>
       </c>
       <c r="DC5">
-        <v>0.344616253694895</v>
+        <v>0.3444644454829968</v>
       </c>
       <c r="DD5">
-        <v>0.3478839857537812</v>
+        <v>0.3477292746821408</v>
       </c>
       <c r="DE5">
-        <v>0.3597491052413978</v>
+        <v>0.3596018989723256</v>
       </c>
       <c r="DF5">
-        <v>0.4014597784401639</v>
+        <v>0.4013562068383506</v>
       </c>
       <c r="DG5">
-        <v>0.4043782911141308</v>
+        <v>0.4042713939011917</v>
       </c>
       <c r="DH5">
-        <v>0.4056389060596924</v>
+        <v>0.4055266762492208</v>
       </c>
       <c r="DI5">
-        <v>0.4130094889414012</v>
+        <v>0.412899323022567</v>
       </c>
       <c r="DJ5">
-        <v>0.4330763490748338</v>
+        <v>0.4329836166662953</v>
       </c>
       <c r="DK5">
-        <v>0.4334644861180725</v>
+        <v>0.4333653649242402</v>
       </c>
       <c r="DL5">
-        <v>0.4509682313621907</v>
+        <v>0.450883440871615</v>
       </c>
       <c r="DM5">
-        <v>0.4552300307781491</v>
+        <v>0.4551435408070498</v>
       </c>
       <c r="DN5">
-        <v>0.4552802060959824</v>
+        <v>0.4551869182162898</v>
       </c>
       <c r="DO5">
-        <v>0.4622602090945579</v>
+        <v>0.4621685122857113</v>
       </c>
       <c r="DP5">
-        <v>0.464102461315002</v>
+        <v>0.4640061360160503</v>
       </c>
       <c r="DQ5">
-        <v>0.4723101969605591</v>
+        <v>0.4722169489777696</v>
       </c>
       <c r="DR5">
-        <v>0.4723422131491766</v>
+        <v>0.4722421452750593</v>
       </c>
       <c r="DS5">
-        <v>0.473444416701579</v>
+        <v>0.4733388244632676</v>
       </c>
       <c r="DT5">
-        <v>0.4766224824643374</v>
+        <v>0.4765138788197586</v>
       </c>
       <c r="DU5">
-        <v>0.4812345020651719</v>
+        <v>0.4811246229029825</v>
       </c>
       <c r="DV5">
-        <v>0.4919383466029371</v>
+        <v>0.4918345664490989</v>
       </c>
       <c r="DW5">
-        <v>0.5053448940239886</v>
+        <v>0.5052504846653286</v>
       </c>
       <c r="DX5">
-        <v>0.5113803711633526</v>
+        <v>0.5112864094693274</v>
       </c>
       <c r="DY5">
-        <v>0.5126847668070236</v>
+        <v>0.5125855255146735</v>
       </c>
       <c r="DZ5">
-        <v>0.5128646077392573</v>
+        <v>0.5127587255064557</v>
       </c>
       <c r="EA5">
-        <v>0.5176676238318438</v>
+        <v>0.5175606972943443</v>
       </c>
       <c r="EB5">
-        <v>0.5338082701348261</v>
+        <v>0.5337140241861045</v>
       </c>
       <c r="EC5">
-        <v>0.5615717569358876</v>
+        <v>0.5615042617338837</v>
       </c>
       <c r="ED5">
-        <v>0.5756860193263772</v>
+        <v>0.5756287516517244</v>
       </c>
       <c r="EE5">
-        <v>0.5969013214102155</v>
+        <v>0.596862877504946</v>
       </c>
       <c r="EF5">
-        <v>0.6074076229565113</v>
+        <v>0.6073750389217429</v>
       </c>
       <c r="EG5">
-        <v>0.6078161729688685</v>
+        <v>0.6077772248599516</v>
       </c>
       <c r="EH5">
-        <v>0.6093251585037044</v>
+        <v>0.6092811784650152</v>
       </c>
       <c r="EI5">
-        <v>0.6240358428684382</v>
+        <v>0.6240028123623085</v>
       </c>
       <c r="EJ5">
-        <v>0.6318824975295881</v>
+        <v>0.6318521072290468</v>
       </c>
       <c r="EK5">
-        <v>0.6372002085999481</v>
+        <v>0.637169397064399</v>
       </c>
       <c r="EL5">
-        <v>0.6421869620846001</v>
+        <v>0.6421553286696824</v>
       </c>
       <c r="EM5">
-        <v>0.6485540948096419</v>
+        <v>0.6485233105486913</v>
       </c>
       <c r="EN5">
-        <v>0.6656012700734766</v>
+        <v>0.6655842638099502</v>
       </c>
       <c r="EO5">
-        <v>0.6826365933378231</v>
+        <v>0.682633350724152</v>
       </c>
       <c r="EP5">
-        <v>0.6890982375587834</v>
+        <v>0.6890959585110148</v>
       </c>
       <c r="EQ5">
-        <v>0.6932361023800938</v>
+        <v>0.6932319738214092</v>
       </c>
       <c r="ER5">
-        <v>0.6935410285669259</v>
+        <v>0.6935304104911263</v>
       </c>
       <c r="ES5">
-        <v>0.7080899629386447</v>
+        <v>0.7080900985871641</v>
       </c>
       <c r="ET5">
-        <v>0.729968820993828</v>
+        <v>0.7299885836867408</v>
       </c>
       <c r="EU5">
-        <v>0.7519067980464583</v>
+        <v>0.7519462593509199</v>
       </c>
       <c r="EV5">
-        <v>0.7778995479239873</v>
+        <v>0.777963616390026</v>
       </c>
       <c r="EW5">
-        <v>0.7913910273413712</v>
+        <v>0.7914645694179543</v>
       </c>
       <c r="EX5">
-        <v>0.7992414460023587</v>
+        <v>0.7993176328410817</v>
       </c>
       <c r="EY5">
-        <v>0.8016359688989536</v>
+        <v>0.8017081958049384</v>
       </c>
       <c r="EZ5">
-        <v>0.8018878411480768</v>
+        <v>0.8019535143119162</v>
       </c>
       <c r="FA5">
-        <v>0.8037347718683189</v>
+        <v>0.8037958222056627</v>
       </c>
       <c r="FB5">
-        <v>0.8174032462780594</v>
+        <v>0.8174739844891905</v>
       </c>
       <c r="FC5">
-        <v>0.8275656508392061</v>
+        <v>0.8276418326125445</v>
       </c>
       <c r="FD5">
-        <v>0.8401119812974053</v>
+        <v>0.8401964925207763</v>
       </c>
       <c r="FE5">
-        <v>0.8489549249155316</v>
+        <v>0.8490432824130919</v>
       </c>
       <c r="FF5">
-        <v>0.8542369506874326</v>
+        <v>0.8543248437507529</v>
       </c>
       <c r="FG5">
-        <v>0.8663239141654691</v>
+        <v>0.8664195805870505</v>
       </c>
       <c r="FH5">
-        <v>0.8670538685339467</v>
+        <v>0.8671435599609728</v>
       </c>
       <c r="FI5">
-        <v>0.8673650592205082</v>
+        <v>0.8674482687139786</v>
       </c>
       <c r="FJ5">
-        <v>0.8688473644564964</v>
+        <v>0.8689255097220638</v>
       </c>
       <c r="FK5">
-        <v>0.869189166661736</v>
+        <v>0.8692608670508598</v>
       </c>
       <c r="FL5">
-        <v>0.8754342453920484</v>
+        <v>0.8755066471813281</v>
       </c>
       <c r="FM5">
-        <v>0.8825959126827789</v>
+        <v>0.88267012545862</v>
       </c>
       <c r="FN5">
-        <v>0.9028079288099431</v>
+        <v>0.9028997508162713</v>
       </c>
       <c r="FO5">
-        <v>0.9246572578664015</v>
+        <v>0.9247686711704676</v>
       </c>
       <c r="FP5">
-        <v>0.9363097603631998</v>
+        <v>0.9364284210839874</v>
       </c>
       <c r="FQ5">
-        <v>0.9455015209662627</v>
+        <v>0.9456244502254935</v>
       </c>
       <c r="FR5">
-        <v>0.9455445551464043</v>
+        <v>0.9456606778522587</v>
       </c>
       <c r="FS5">
-        <v>0.9471978855750069</v>
+        <v>0.9473091510893943</v>
       </c>
       <c r="FT5">
-        <v>0.9478058785987514</v>
+        <v>0.9479110214769305</v>
       </c>
       <c r="FU5">
-        <v>0.9512492238500539</v>
+        <v>0.9513516764589806</v>
       </c>
       <c r="FV5">
-        <v>0.9595195794929069</v>
+        <v>0.9596251852233251</v>
       </c>
       <c r="FW5">
-        <v>0.964610719773051</v>
+        <v>0.9647156299906888</v>
       </c>
       <c r="FX5">
-        <v>0.9725460739303706</v>
+        <v>0.9726537317297516</v>
       </c>
       <c r="FY5">
-        <v>0.9838266114432318</v>
+        <v>0.9839410663730147</v>
       </c>
       <c r="FZ5">
-        <v>0.9855735049677939</v>
+        <v>0.9856832159699491</v>
       </c>
       <c r="GA5">
-        <v>0.9855772199458335</v>
+        <v>0.9856832159699491</v>
       </c>
       <c r="GB5">
-        <v>0.9857670164476373</v>
+        <v>0.9858663835831261</v>
       </c>
       <c r="GC5">
-        <v>0.988342514336417</v>
+        <v>0.9884381406204431</v>
       </c>
       <c r="GD5">
-        <v>0.9904570125451044</v>
+        <v>0.9905483399094135</v>
       </c>
       <c r="GE5">
-        <v>0.9912502527108491</v>
+        <v>0.9913356816919238</v>
       </c>
       <c r="GF5">
-        <v>0.9915027996499431</v>
+        <v>0.9915816757056258</v>
       </c>
       <c r="GG5">
-        <v>0.9916994093614527</v>
+        <v>0.9917716647763148</v>
       </c>
       <c r="GH5">
-        <v>0.9930070855049821</v>
+        <v>0.9930740652927647</v>
       </c>
       <c r="GI5">
-        <v>0.9934134367174342</v>
+        <v>0.9934740497692868</v>
       </c>
       <c r="GJ5">
-        <v>0.9934564708975758</v>
+        <v>0.993510277396052</v>
       </c>
       <c r="GK5">
-        <v>0.9938490341406234</v>
+        <v>0.9938964572119909</v>
       </c>
       <c r="GL5">
-        <v>0.9947478358018096</v>
+        <v>0.9947894882785769</v>
       </c>
       <c r="GM5">
-        <v>0.9955380109376867</v>
+        <v>0.9955737613208139</v>
       </c>
       <c r="GN5">
-        <v>0.9966646629890333</v>
+        <v>0.9966949186043668</v>
       </c>
       <c r="GO5">
-        <v>0.9969542527565277</v>
+        <v>0.9969780002890742</v>
       </c>
       <c r="GP5">
-        <v>0.9970581102370427</v>
+        <v>0.9970751248465309</v>
       </c>
       <c r="GQ5">
-        <v>0.9974559645898617</v>
+        <v>0.9974666021774528</v>
       </c>
       <c r="GR5">
-        <v>0.9978957912908683</v>
+        <v>0.9979001026666516</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>5.710509112696874E-07</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.383207215972569E-05</v>
+        <v>5.296580663834204E-05</v>
       </c>
       <c r="D6">
-        <v>0.0001326923335186827</v>
+        <v>0.000111540968139062</v>
       </c>
       <c r="E6">
-        <v>0.0001404974571727168</v>
+        <v>0.000111540968139062</v>
       </c>
       <c r="F6">
-        <v>0.0001529646824187574</v>
+        <v>0.0001136212222806585</v>
       </c>
       <c r="G6">
-        <v>0.0001746115208459577</v>
+        <v>0.0001248976721231531</v>
       </c>
       <c r="H6">
-        <v>0.0001864437190794661</v>
+        <v>0.0001263417521071512</v>
       </c>
       <c r="I6">
-        <v>0.0002109870125638279</v>
+        <v>0.0001405198893104143</v>
       </c>
       <c r="J6">
-        <v>0.0002213777347688887</v>
+        <v>0.0001405198893104143</v>
       </c>
       <c r="K6">
-        <v>0.0002326113659905844</v>
+        <v>0.0001413643210007316</v>
       </c>
       <c r="L6">
-        <v>0.0002381861666006031</v>
+        <v>0.0001413643210007316</v>
       </c>
       <c r="M6">
-        <v>0.0002546023949245773</v>
+        <v>0.0001474007119001014</v>
       </c>
       <c r="N6">
-        <v>0.0002621249460730348</v>
+        <v>0.0001474007119001014</v>
       </c>
       <c r="O6">
-        <v>0.0002629061823884525</v>
+        <v>0.0001474007119001014</v>
       </c>
       <c r="P6">
-        <v>0.000266118266951843</v>
+        <v>0.0001474007119001014</v>
       </c>
       <c r="Q6">
-        <v>0.0002672314994738126</v>
+        <v>0.0001474007119001014</v>
       </c>
       <c r="R6">
-        <v>0.0002822504127702108</v>
+        <v>0.0001520372635910208</v>
       </c>
       <c r="S6">
-        <v>0.0002905557619341168</v>
+        <v>0.0001520372635910208</v>
       </c>
       <c r="T6">
-        <v>0.0003001548041235539</v>
+        <v>0.0001520372635910208</v>
       </c>
       <c r="U6">
-        <v>0.0003230876515761335</v>
+        <v>0.0001646020455709505</v>
       </c>
       <c r="V6">
-        <v>0.0003230990329733582</v>
+        <v>0.0001646020455709505</v>
       </c>
       <c r="W6">
-        <v>0.00034764232645772</v>
+        <v>0.0001787801827742136</v>
       </c>
       <c r="X6">
-        <v>0.0003583122856682915</v>
+        <v>0.0001790599242076414</v>
       </c>
       <c r="Y6">
-        <v>0.0003627084197550492</v>
+        <v>0.0001790599242076414</v>
       </c>
       <c r="Z6">
-        <v>0.0004109995077080737</v>
+        <v>0.0002170287551023071</v>
       </c>
       <c r="AA6">
-        <v>0.0004163359002133873</v>
+        <v>0.0002170287551023071</v>
       </c>
       <c r="AB6">
-        <v>0.0004164402391854465</v>
+        <v>0.0002170287551023071</v>
       </c>
       <c r="AC6">
-        <v>0.0004271101983960181</v>
+        <v>0.0002173084965357349</v>
       </c>
       <c r="AD6">
-        <v>0.0004480178958086314</v>
+        <v>0.0002278444701417523</v>
       </c>
       <c r="AE6">
-        <v>0.0004611152820671082</v>
+        <v>0.0002305560236506613</v>
       </c>
       <c r="AF6">
-        <v>0.0004618138471108944</v>
+        <v>0.0002305560236506613</v>
       </c>
       <c r="AG6">
-        <v>0.0004658684663909123</v>
+        <v>0.0002305560236506613</v>
       </c>
       <c r="AH6">
-        <v>0.0004662522096984855</v>
+        <v>0.0002305560236506613</v>
       </c>
       <c r="AI6">
-        <v>0.0004664964810033061</v>
+        <v>0.0002305560236506613</v>
       </c>
       <c r="AJ6">
-        <v>0.000483967972348106</v>
+        <v>0.0002376495838516037</v>
       </c>
       <c r="AK6">
-        <v>0.0004842620744339101</v>
+        <v>0.0002376495838516037</v>
       </c>
       <c r="AL6">
-        <v>0.000484283608551335</v>
+        <v>0.0002376495838516037</v>
       </c>
       <c r="AM6">
-        <v>0.0004967299077969627</v>
+        <v>0.0002397088741909966</v>
       </c>
       <c r="AN6">
-        <v>0.0005038193679368732</v>
+        <v>0.0002397088741909966</v>
       </c>
       <c r="AO6">
-        <v>0.0005139723051372413</v>
+        <v>0.0002397088741909966</v>
       </c>
       <c r="AP6">
-        <v>0.0005217774287912755</v>
+        <v>0.0002397088741909966</v>
       </c>
       <c r="AQ6">
-        <v>0.0005279740339135654</v>
+        <v>0.0002397088741909966</v>
       </c>
       <c r="AR6">
-        <v>0.0005476546543019624</v>
+        <v>0.0002490155541185037</v>
       </c>
       <c r="AS6">
-        <v>0.0005505859613598118</v>
+        <v>0.0002490155541185037</v>
       </c>
       <c r="AT6">
-        <v>0.0005507484818830192</v>
+        <v>0.0002490155541185037</v>
       </c>
       <c r="AU6">
-        <v>0.0005510841963596444</v>
+        <v>0.0002490155541185037</v>
       </c>
       <c r="AV6">
-        <v>0.0005537118580115013</v>
+        <v>0.0002490155541185037</v>
       </c>
       <c r="AW6">
-        <v>0.0005683991343013546</v>
+        <v>0.0002533198697169366</v>
       </c>
       <c r="AX6">
-        <v>0.0005689701852126242</v>
+        <v>0.0002533198697169366</v>
       </c>
       <c r="AY6">
-        <v>0.0005832912984952513</v>
+        <v>0.0002572573608526794</v>
       </c>
       <c r="AZ6">
-        <v>0.0005942579907116789</v>
+        <v>0.0002578343713255442</v>
       </c>
       <c r="BA6">
-        <v>0.0005968952720637256</v>
+        <v>0.0002578343713255442</v>
       </c>
       <c r="BB6">
-        <v>0.0006030771271857244</v>
+        <v>0.0002578343713255442</v>
       </c>
       <c r="BC6">
-        <v>0.0006360169578357919</v>
+        <v>0.000280424213625943</v>
       </c>
       <c r="BD6">
-        <v>0.0006395415873053505</v>
+        <v>0.000280424213625943</v>
       </c>
       <c r="BE6">
-        <v>0.0006545605006017486</v>
+        <v>0.0002850607653168625</v>
       </c>
       <c r="BF6">
-        <v>0.0006641595427911857</v>
+        <v>0.0002850607653168625</v>
       </c>
       <c r="BG6">
-        <v>0.0007061424036197173</v>
+        <v>0.0003167099735849872</v>
       </c>
       <c r="BH6">
-        <v>0.0007491699844688664</v>
+        <v>0.0003494057891090651</v>
       </c>
       <c r="BI6">
-        <v>0.0007604234966909544</v>
+        <v>0.0003502701377138241</v>
       </c>
       <c r="BJ6">
-        <v>0.0007708333398963927</v>
+        <v>0.0003502892932553483</v>
       </c>
       <c r="BK6">
-        <v>0.0007858522531927908</v>
+        <v>0.0003549258449462677</v>
       </c>
       <c r="BL6">
-        <v>0.0007992195244565938</v>
+        <v>0.0003579077709944914</v>
       </c>
       <c r="BM6">
-        <v>0.0008104531556782895</v>
+        <v>0.0003587522026848087</v>
       </c>
       <c r="BN6">
-        <v>0.0008145077749583074</v>
+        <v>0.0003587522026848087</v>
       </c>
       <c r="BO6">
-        <v>0.0008157182316821958</v>
+        <v>0.0003587522026848087</v>
       </c>
       <c r="BP6">
-        <v>0.0008429512282196388</v>
+        <v>0.0003756249017574331</v>
       </c>
       <c r="BQ6">
-        <v>0.0009169062456791408</v>
+        <v>0.0004393040227850226</v>
       </c>
       <c r="BR6">
-        <v>0.0009682507916924252</v>
+        <v>0.0004803318276617586</v>
       </c>
       <c r="BS6">
-        <v>0.0009786606348978634</v>
+        <v>0.0004803509832032827</v>
       </c>
       <c r="BT6">
-        <v>0.0009917365721559168</v>
+        <v>0.000483041048965204</v>
       </c>
       <c r="BU6">
-        <v>0.001094030230174682</v>
+        <v>0.0005751100029124716</v>
       </c>
       <c r="BV6">
-        <v>0.001126970060824749</v>
+        <v>0.0005976998452128704</v>
       </c>
       <c r="BW6">
-        <v>0.0011293288518713</v>
+        <v>0.0005976998452128704</v>
       </c>
       <c r="BX6">
-        <v>0.001131416114012492</v>
+        <v>0.0005976998452128704</v>
       </c>
       <c r="BY6">
-        <v>0.001144805071276723</v>
+        <v>0.0006007034964362153</v>
       </c>
       <c r="BZ6">
-        <v>0.001149957979378416</v>
+        <v>0.0006007034964362153</v>
       </c>
       <c r="CA6">
-        <v>0.001167071633716154</v>
+        <v>0.0006074385732151418</v>
       </c>
       <c r="CB6">
-        <v>0.001167858119391675</v>
+        <v>0.0006074385732151418</v>
       </c>
       <c r="CC6">
-        <v>0.001172254253478432</v>
+        <v>0.0006074385732151418</v>
       </c>
       <c r="CD6">
-        <v>0.001258590545182279</v>
+        <v>0.0006835213346500605</v>
       </c>
       <c r="CE6">
-        <v>0.00130225112304392</v>
+        <v>0.0007168512906646014</v>
       </c>
       <c r="CF6">
-        <v>0.001358696348157867</v>
+        <v>0.0007629889887679323</v>
       </c>
       <c r="CG6">
-        <v>0.001400679208986398</v>
+        <v>0.000794638197036057</v>
       </c>
       <c r="CH6">
-        <v>0.001470205954358508</v>
+        <v>0.0008538810465205207</v>
       </c>
       <c r="CI6">
-        <v>0.001505140505047941</v>
+        <v>0.0008784692122239319</v>
       </c>
       <c r="CJ6">
-        <v>0.001574667250420052</v>
+        <v>0.0009377120617083956</v>
       </c>
       <c r="CK6">
-        <v>0.001677020902440001</v>
+        <v>0.00102984111803306</v>
       </c>
       <c r="CL6">
-        <v>0.001778565564443984</v>
+        <v>0.001121159722941082</v>
       </c>
       <c r="CM6">
-        <v>0.001821069181282793</v>
+        <v>0.001153330627939605</v>
       </c>
       <c r="CN6">
-        <v>0.01009934634465456</v>
+        <v>0.009436152599329844</v>
       </c>
       <c r="CO6">
-        <v>0.03819130689904929</v>
+        <v>0.03756845040630937</v>
       </c>
       <c r="CP6">
-        <v>0.08824269188681316</v>
+        <v>0.08769984126688522</v>
       </c>
       <c r="CQ6">
-        <v>0.09119747274512575</v>
+        <v>0.09064955029896218</v>
       </c>
       <c r="CR6">
-        <v>0.0947503415152416</v>
+        <v>0.09419842765923983</v>
       </c>
       <c r="CS6">
-        <v>0.1388085463847301</v>
+        <v>0.1383258120164141</v>
       </c>
       <c r="CT6">
-        <v>0.1399031813063327</v>
+        <v>0.1394120148496324</v>
       </c>
       <c r="CU6">
-        <v>0.1535579825758101</v>
+        <v>0.153081073353497</v>
       </c>
       <c r="CV6">
-        <v>0.2081699016535761</v>
+        <v>0.2077812366846117</v>
       </c>
       <c r="CW6">
-        <v>0.27592638299075</v>
+        <v>0.275649707280378</v>
       </c>
       <c r="CX6">
-        <v>0.2773202661182583</v>
+        <v>0.2770356988966683</v>
       </c>
       <c r="CY6">
-        <v>0.2780904422334577</v>
+        <v>0.2777968568046072</v>
       </c>
       <c r="CZ6">
-        <v>0.2781543421347187</v>
+        <v>0.2778504626453634</v>
       </c>
       <c r="DA6">
-        <v>0.3007348055803441</v>
+        <v>0.3004613070951139</v>
       </c>
       <c r="DB6">
-        <v>0.3013739494929576</v>
+        <v>0.3010911960972373</v>
       </c>
       <c r="DC6">
-        <v>0.3059874435840049</v>
+        <v>0.3057026147459249</v>
       </c>
       <c r="DD6">
-        <v>0.3079122638219912</v>
+        <v>0.3076205025844706</v>
       </c>
       <c r="DE6">
-        <v>0.355209854755409</v>
+        <v>0.3549931247971787</v>
       </c>
       <c r="DF6">
-        <v>0.3845196743338382</v>
+        <v>0.3843454816306227</v>
       </c>
       <c r="DG6">
-        <v>0.3895246694326117</v>
+        <v>0.3893491085143521</v>
       </c>
       <c r="DH6">
-        <v>0.3897659530273734</v>
+        <v>0.3895804184835272</v>
       </c>
       <c r="DI6">
-        <v>0.389858810554206</v>
+        <v>0.3896630342603813</v>
       </c>
       <c r="DJ6">
-        <v>0.3989522907336657</v>
+        <v>0.3987625318720147</v>
       </c>
       <c r="DK6">
-        <v>0.40286535251089</v>
+        <v>0.402672252910353</v>
       </c>
       <c r="DL6">
-        <v>0.4228920109061161</v>
+        <v>0.4227246789864822</v>
       </c>
       <c r="DM6">
-        <v>0.4347471981400781</v>
+        <v>0.4345908725405851</v>
       </c>
       <c r="DN6">
-        <v>0.4350089690452442</v>
+        <v>0.4348427068294832</v>
       </c>
       <c r="DO6">
-        <v>0.4353161087013055</v>
+        <v>0.4351399918256939</v>
       </c>
       <c r="DP6">
-        <v>0.439953982492834</v>
+        <v>0.4397758342155924</v>
       </c>
       <c r="DQ6">
-        <v>0.4474095996399705</v>
+        <v>0.4472345100758883</v>
       </c>
       <c r="DR6">
-        <v>0.447814589027963</v>
+        <v>0.4476298215647582</v>
       </c>
       <c r="DS6">
-        <v>0.4480135998318904</v>
+        <v>0.4478187823793816</v>
       </c>
       <c r="DT6">
-        <v>0.4489749121508619</v>
+        <v>0.4487714217692442</v>
       </c>
       <c r="DU6">
-        <v>0.4548220782662558</v>
+        <v>0.4546187410101156</v>
       </c>
       <c r="DV6">
-        <v>0.472070943606662</v>
+        <v>0.4718883560848893</v>
       </c>
       <c r="DW6">
-        <v>0.488866133938115</v>
+        <v>0.4887034766091188</v>
       </c>
       <c r="DX6">
-        <v>0.4912452607850671</v>
+        <v>0.4910764917391757</v>
       </c>
       <c r="DY6">
-        <v>0.4916228760625193</v>
+        <v>0.491444379667521</v>
       </c>
       <c r="DZ6">
-        <v>0.4918157476463256</v>
+        <v>0.491627190171824</v>
       </c>
       <c r="EA6">
-        <v>0.4970253003491361</v>
+        <v>0.4968357441828414</v>
       </c>
       <c r="EB6">
-        <v>0.513341390671134</v>
+        <v>0.513170899227012</v>
       </c>
       <c r="EC6">
-        <v>0.5350955011004513</v>
+        <v>0.5349538978943722</v>
       </c>
       <c r="ED6">
-        <v>0.5532539284588078</v>
+        <v>0.5531347180661473</v>
       </c>
       <c r="EE6">
-        <v>0.5703194057955949</v>
+        <v>0.5702206138558928</v>
       </c>
       <c r="EF6">
-        <v>0.5769322269260989</v>
+        <v>0.5768349712300026</v>
       </c>
       <c r="EG6">
-        <v>0.5771589587205734</v>
+        <v>0.577051703111779</v>
       </c>
       <c r="EH6">
-        <v>0.580095796978532</v>
+        <v>0.5799834371310768</v>
       </c>
       <c r="EI6">
-        <v>0.5941492622558771</v>
+        <v>0.5940518798097321</v>
       </c>
       <c r="EJ6">
-        <v>0.6042180574545847</v>
+        <v>0.6041284542992275</v>
       </c>
       <c r="EK6">
-        <v>0.6069560406086187</v>
+        <v>0.6068609739926357</v>
       </c>
       <c r="EL6">
-        <v>0.6107136696827755</v>
+        <v>0.6106149815463731</v>
       </c>
       <c r="EM6">
-        <v>0.6165009477969874</v>
+        <v>0.6164023046013338</v>
       </c>
       <c r="EN6">
-        <v>0.6395144972511597</v>
+        <v>0.6394470174082055</v>
       </c>
       <c r="EO6">
-        <v>0.6604083896635006</v>
+        <v>0.6603682441170491</v>
       </c>
       <c r="EP6">
-        <v>0.6651295730566731</v>
+        <v>0.6650875466032897</v>
       </c>
       <c r="EQ6">
-        <v>0.6697794586484386</v>
+        <v>0.6697354224921517</v>
       </c>
       <c r="ER6">
-        <v>0.672544870203014</v>
+        <v>0.6724954201341579</v>
       </c>
       <c r="ES6">
-        <v>0.690586877559073</v>
+        <v>0.6905596099966271</v>
       </c>
       <c r="ET6">
-        <v>0.7208536101563868</v>
+        <v>0.7208706084652613</v>
       </c>
       <c r="EU6">
-        <v>0.748958005711027</v>
+        <v>0.7490153637357025</v>
       </c>
       <c r="EV6">
-        <v>0.7677634260821519</v>
+        <v>0.7678443456813032</v>
       </c>
       <c r="EW6">
-        <v>0.7788211713003764</v>
+        <v>0.7789116566798872</v>
       </c>
       <c r="EX6">
-        <v>0.7858992919400631</v>
+        <v>0.7859921541038586</v>
       </c>
       <c r="EY6">
-        <v>0.7868206011582451</v>
+        <v>0.7869047181292976</v>
       </c>
       <c r="EZ6">
-        <v>0.7872669041270529</v>
+        <v>0.7873414178299347</v>
       </c>
       <c r="FA6">
-        <v>0.7893707623685725</v>
+        <v>0.7894386670953617</v>
       </c>
       <c r="FB6">
-        <v>0.808428352744674</v>
+        <v>0.8085202745786506</v>
       </c>
       <c r="FC6">
-        <v>0.8177138489279232</v>
+        <v>0.8178121350615405</v>
       </c>
       <c r="FD6">
-        <v>0.8305124721805039</v>
+        <v>0.8306234689050296</v>
       </c>
       <c r="FE6">
-        <v>0.8364927245985242</v>
+        <v>0.8366041148623876</v>
       </c>
       <c r="FF6">
-        <v>0.8429094307251579</v>
+        <v>0.843022002960518</v>
       </c>
       <c r="FG6">
-        <v>0.857523072013558</v>
+        <v>0.8576516335806417</v>
       </c>
       <c r="FH6">
-        <v>0.8579673461223258</v>
+        <v>0.8580863007562028</v>
       </c>
       <c r="FI6">
-        <v>0.8596283971551066</v>
+        <v>0.8597399429034467</v>
       </c>
       <c r="FJ6">
-        <v>0.8607142330765356</v>
+        <v>0.8608173308415303</v>
       </c>
       <c r="FK6">
-        <v>0.8624536645108632</v>
+        <v>0.8625494949806615</v>
       </c>
       <c r="FL6">
-        <v>0.8672640453057961</v>
+        <v>0.8673581559993818</v>
       </c>
       <c r="FM6">
-        <v>0.879566548548586</v>
+        <v>0.8796724736166825</v>
       </c>
       <c r="FN6">
-        <v>0.9039806670303985</v>
+        <v>0.9041202855102599</v>
       </c>
       <c r="FO6">
-        <v>0.9232170404100283</v>
+        <v>0.9233809989597801</v>
       </c>
       <c r="FP6">
-        <v>0.9416224687732593</v>
+        <v>0.9418092663315971</v>
       </c>
       <c r="FQ6">
-        <v>0.9470140153796615</v>
+        <v>0.9472001430092422</v>
       </c>
       <c r="FR6">
-        <v>0.9472303418439306</v>
+        <v>0.947406450764096</v>
       </c>
       <c r="FS6">
-        <v>0.9481257503616015</v>
+        <v>0.9482930673006823</v>
       </c>
       <c r="FT6">
-        <v>0.9484561668681223</v>
+        <v>0.9486136711958378</v>
       </c>
       <c r="FU6">
-        <v>0.9535100284678603</v>
+        <v>0.9536662528554622</v>
       </c>
       <c r="FV6">
-        <v>0.9580772381579942</v>
+        <v>0.9582313034927424</v>
       </c>
       <c r="FW6">
-        <v>0.9652804363001493</v>
+        <v>0.9654371043655389</v>
       </c>
       <c r="FX6">
-        <v>0.9770613585326458</v>
+        <v>0.9772288987621035</v>
       </c>
       <c r="FY6">
-        <v>0.9870259077292961</v>
+        <v>0.9872010389342659</v>
       </c>
       <c r="FZ6">
-        <v>0.9889895897680494</v>
+        <v>0.9891578587755104</v>
       </c>
       <c r="GA6">
-        <v>0.9891350579509203</v>
+        <v>0.9892931802469654</v>
       </c>
       <c r="GB6">
-        <v>0.9899342440666922</v>
+        <v>0.9900834005606162</v>
       </c>
       <c r="GC6">
-        <v>0.9918785384050628</v>
+        <v>0.9920207976785508</v>
       </c>
       <c r="GD6">
-        <v>0.992725066021769</v>
+        <v>0.9928584450132288</v>
       </c>
       <c r="GE6">
-        <v>0.9931584739603223</v>
+        <v>0.9932822263893735</v>
       </c>
       <c r="GF6">
-        <v>0.9931592604459978</v>
+        <v>0.9932822263893735</v>
       </c>
       <c r="GG6">
-        <v>0.9934831929823906</v>
+        <v>0.9935963346014279</v>
       </c>
       <c r="GH6">
-        <v>0.9951794542158663</v>
+        <v>0.9952852505548625</v>
       </c>
       <c r="GI6">
-        <v>0.9954911037220167</v>
+        <v>0.9955870535479845</v>
       </c>
       <c r="GJ6">
-        <v>0.995573412803641</v>
+        <v>0.995659101824383</v>
       </c>
       <c r="GK6">
-        <v>0.995782177207761</v>
+        <v>0.9958578338585978</v>
       </c>
       <c r="GL6">
-        <v>0.9961993925159947</v>
+        <v>0.9962653933532326</v>
       </c>
       <c r="GM6">
-        <v>0.9968540238289137</v>
+        <v>0.9969107977328887</v>
       </c>
       <c r="GN6">
-        <v>0.997546918582588</v>
+        <v>0.9975945346743238</v>
       </c>
       <c r="GO6">
-        <v>0.9975844208953282</v>
+        <v>0.9976216952406137</v>
       </c>
       <c r="GP6">
-        <v>0.9976389124934035</v>
+        <v>0.9976658757825474</v>
       </c>
       <c r="GQ6">
-        <v>0.9981536706035623</v>
+        <v>0.9981711542853815</v>
       </c>
       <c r="GR6">
-        <v>0.9983034944665191</v>
+        <v>0.9983108393052443</v>
       </c>
       <c r="GS6">
         <v>0.9999999999999997</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>132</v>
       </c>
       <c r="E2">
-        <v>0.002956493920201198</v>
+        <v>0.00889544352281327</v>
       </c>
       <c r="F2">
-        <v>0.522470255585625</v>
+        <v>0.5223483526887084</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>126</v>
       </c>
       <c r="E3">
-        <v>0.002184565466431852</v>
+        <v>0.002084030279009937</v>
       </c>
       <c r="F3">
-        <v>0.505615482467933</v>
+        <v>0.5055834588231699</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>133</v>
       </c>
       <c r="E4">
-        <v>0.01603984421151782</v>
+        <v>0.0254653770482231</v>
       </c>
       <c r="F4">
-        <v>0.5212948313572069</v>
+        <v>0.5209059679584783</v>
       </c>
       <c r="G4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>126</v>
       </c>
       <c r="E5">
-        <v>0.002205412745566444</v>
+        <v>0.001832911205540958</v>
       </c>
       <c r="F5">
-        <v>0.5053448940239886</v>
+        <v>0.5052504846653286</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>131</v>
       </c>
       <c r="E6">
-        <v>0.001778565564443984</v>
+        <v>0.009436152599329844</v>
       </c>
       <c r="F6">
-        <v>0.513341390671134</v>
+        <v>0.513170899227012</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>149</v>
       </c>
       <c r="E2">
-        <v>0.002956493920201198</v>
+        <v>0.00889544352281327</v>
       </c>
       <c r="F2">
-        <v>0.7116695190377962</v>
+        <v>0.7116676816881211</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="E3">
-        <v>0.002184565466431852</v>
+        <v>0.002084030279009937</v>
       </c>
       <c r="F3">
-        <v>0.7086068640607327</v>
+        <v>0.7086042671850384</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.01603984421151782</v>
+        <v>0.0254653770482231</v>
       </c>
       <c r="F4">
-        <v>0.7257050673416704</v>
+        <v>0.7260544962121402</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>148</v>
       </c>
       <c r="E5">
-        <v>0.002205412745566444</v>
+        <v>0.001832911205540958</v>
       </c>
       <c r="F5">
-        <v>0.7080899629386447</v>
+        <v>0.7080900985871641</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>149</v>
       </c>
       <c r="E6">
-        <v>0.001778565564443984</v>
+        <v>0.009436152599329844</v>
       </c>
       <c r="F6">
-        <v>0.7208536101563868</v>
+        <v>0.7208706084652613</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.002956493920201198</v>
+        <v>0.00889544352281327</v>
       </c>
       <c r="F2">
-        <v>0.8063224474526344</v>
+        <v>0.8063771019350348</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>157</v>
       </c>
       <c r="E3">
-        <v>0.002184565466431852</v>
+        <v>0.002084030279009937</v>
       </c>
       <c r="F3">
-        <v>0.8197112845301214</v>
+        <v>0.8197295789561011</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>158</v>
       </c>
       <c r="E4">
-        <v>0.01603984421151782</v>
+        <v>0.0254653770482231</v>
       </c>
       <c r="F4">
-        <v>0.8066518588490176</v>
+        <v>0.8072130532462388</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.002205412745566444</v>
+        <v>0.001832911205540958</v>
       </c>
       <c r="F5">
-        <v>0.8016359688989536</v>
+        <v>0.8017081958049384</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>157</v>
       </c>
       <c r="E6">
-        <v>0.001778565564443984</v>
+        <v>0.009436152599329844</v>
       </c>
       <c r="F6">
-        <v>0.808428352744674</v>
+        <v>0.8085202745786506</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>170</v>
       </c>
       <c r="E2">
-        <v>0.002956493920201198</v>
+        <v>0.00889544352281327</v>
       </c>
       <c r="F2">
-        <v>0.9181141499563742</v>
+        <v>0.9182256329642463</v>
       </c>
       <c r="G2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>169</v>
       </c>
       <c r="E3">
-        <v>0.002184565466431852</v>
+        <v>0.002084030279009937</v>
       </c>
       <c r="F3">
-        <v>0.9121724028458186</v>
+        <v>0.9121997927478199</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.01603984421151782</v>
+        <v>0.0254653770482231</v>
       </c>
       <c r="F4">
-        <v>0.9129608844967495</v>
+        <v>0.9137239786562318</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>169</v>
       </c>
       <c r="E5">
-        <v>0.002205412745566444</v>
+        <v>0.001832911205540958</v>
       </c>
       <c r="F5">
-        <v>0.9028079288099431</v>
+        <v>0.9028997508162713</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>169</v>
       </c>
       <c r="E6">
-        <v>0.001778565564443984</v>
+        <v>0.009436152599329844</v>
       </c>
       <c r="F6">
-        <v>0.9039806670303985</v>
+        <v>0.9041202855102599</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>47</v>

--- a/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
@@ -1994,40 +1994,40 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.318406875433648E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.251319866742678E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.188506624206501E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.40858439738042E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001896716987349326</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.101560711109493E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.644003897962238E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001171304739224269</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.265856073805857E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.282399385664282E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.282399385664282E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.188506624206501E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2036,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2.763559624821389E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>6.625741182611613E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.424052976487426E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>4.075582640788624E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -2066,37 +2066,37 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>7.293168019848407E-06</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.296392484744877E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.763559624821389E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.763559624821389E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.032643245739711E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.075522653044657E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.644688831168167E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.445033474798038E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.763559624821389E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.104330393181503E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.377644357207048E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.296392484744877E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>4.584438261945051E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>9.431464442009798E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>4.584438261945051E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>2.199353769873593E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -2153,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>5.06846956963744E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>3.582285458464948E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.014953107640349E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>2.104330393181503E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>5.876293331790517E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.049102371443826E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>3.034189048488824E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>5.733087807529007E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>5.614949407904874E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.784120730227803E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.984380416507144E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>5.954277271684963E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>8.359850621140276E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>9.135947223524139E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>7.615570292729446E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>3.918100520432962E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>9.283160383749743E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -2234,364 +2234,364 @@
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>9.149787860917785E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>7.861360684069966E-06</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0001452479877695211</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>9.364889122771163E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>5.108104864033615E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>3.734010600996961E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>3.329482279925096E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1.851939342802256E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.949449206037665E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>3.734010600996961E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.006383993958770431</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.04985295937521125</v>
+        <v>0.1893960007157183</v>
       </c>
       <c r="CP2">
-        <v>0.04750784901176714</v>
+        <v>0.1669884910225654</v>
       </c>
       <c r="CQ2">
-        <v>0.02505168844120347</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.0003023792284572518</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.04141218614814505</v>
+        <v>0.1087444839037679</v>
       </c>
       <c r="CT2">
-        <v>0.005132377957084126</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.001195953053137037</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.008846983389492722</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.04686448651405391</v>
+        <v>0.1608411677969973</v>
       </c>
       <c r="CX2">
-        <v>0.04738402132106294</v>
+        <v>0.1658053184849368</v>
       </c>
       <c r="CY2">
-        <v>0.005136106134910162</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0001587551077457357</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.00433321639592767</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.0001851379685576579</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.005096433893164312</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.002595944604703092</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.01809950390688822</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.04629847414397645</v>
+        <v>0.1554329243869395</v>
       </c>
       <c r="DG2">
-        <v>0.0001394669691365031</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>4.17844546408091E-05</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0001182002048302594</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.01363193351632874</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>8.815919593854205E-05</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.009608399177759019</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.005708987908434268</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.002496284686075878</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.005006080100752583</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.001756397187271964</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.01493122661834392</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.003485776564015647</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0005774645926110068</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001365243706654211</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.003609073774886303</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.008606774050519538</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01594448215046559</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.007406859806940412</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0002992680313194646</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
         <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.00586641716103755</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.02175386513366242</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.03555630757878239</v>
+        <v>0.05279161368907474</v>
       </c>
       <c r="ED2">
-        <v>0.0226075832114263</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.01706131542207651</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.007415104673103845</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0009497333115650602</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0002175399531449496</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.01100818606704124</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.007924371020624413</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.005822932934062742</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.00602084526753835</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.009317334164973387</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.01751496679653052</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.02458506944816833</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.007147151979785643</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.002524093023699864</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.002707516388916927</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.02011246861086716</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0263831167258874</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.02363191593946821</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.02137634732776952</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.008511724740592853</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.004488822812485322</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.001147265557942113</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.0004198010097029961</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001644097470179705</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.01806675794147417</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.01542268744729892</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01765996561898358</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0113645127155215</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.004622047946431852</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.008860889210421975</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.002085619700595083</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0007250677926900662</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.002515182103959087</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0004799259524967446</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.004792932242272687</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.00679484848715891</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.02419853308459183</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.02774900617408818</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.01364311584698383</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.01175289744786494</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0003283754938298894</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002006636179693028</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001783798703536247</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.004271154260535272</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.006879809668699476</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.004376143809321058</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.006383993958770431</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.007488488417642929</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.001329362122805393</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>1.670665732592041E-05</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.002998144842232143</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.005213179507872503</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.002126691235597603</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.001862464617410741</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001005355393742252</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>1.832268734040478E-05</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0006109644641894065</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0009351660429611321</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0001735338073078594</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>9.761573491468483E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0002163191286038923</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0003431477451282759</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0004831918178487414</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0001977285739796254</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>9.752893768016053E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0008646687975993856</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.00102212067920274</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.003335516499045824</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.851093563322725E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.330173950553032E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.623980845393099E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2782,43 +2782,43 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5.425639724797974E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.044135369647421E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.218141896773097E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.703045980379901E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001927992329386241</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001093681253507931</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>5.89978198449265E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.037762025094061E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.196072388376351E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.203071565530661E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1.285833767847306E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2827,28 +2827,28 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>4.069694455085279E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>2.092575909172378E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4.869465718786642E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.000129018793222501</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>2.240983489271375E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001208336566656247</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.61223171673391E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>9.238347252875048E-07</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2857,16 +2857,16 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.722318267150765E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.051868251649256E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.4772067190732E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -2875,43 +2875,43 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.170712843810256E-06</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.171483783444158E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.004235582359937E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.038522649418415E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>9.392004801036854E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>1.780624151332823E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>3.758646221530943E-06</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.372196522743349E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>4.383072913403197E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>9.392004801036854E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>6.469881700347695E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -2929,52 +2929,52 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>6.196417604225738E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>4.100023189072503E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>2.776454422986532E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0001424808869314654</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>5.538629557052433E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0001450204021790436</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0001461820734019359</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>3.739438632877646E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>5.170087560983459E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1.577784239735428E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>3.281114280273147E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>5.34589264790296E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>6.217219089665089E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.268063433226554E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2983,16 +2983,16 @@
         <v>0</v>
       </c>
       <c r="BV3">
-        <v>4.317410279809504E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>3.158330729730222E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1.518621515154558E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1.581187405839816E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>1.708618701631413E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>5.610905417821778E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>1.196072388376351E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>1.394649464353367E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>8.697759996105496E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -3025,346 +3025,346 @@
         <v>0</v>
       </c>
       <c r="CJ3">
-        <v>6.727315597884808E-08</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>2.42887476652872E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>5.610905417821778E-06</v>
+        <v>0</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.08919705192182606</v>
+        <v>0.2830393650945974</v>
       </c>
       <c r="CO3">
-        <v>0.0009463760194525354</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.09129174736480639</v>
+        <v>0.2930561494692112</v>
       </c>
       <c r="CQ3">
-        <v>0.003912506140646416</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.00264998225300541</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01292361486505748</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.002299783014335395</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0001629257122562784</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.06186588744382444</v>
+        <v>0.1523423789524369</v>
       </c>
       <c r="CW3">
-        <v>0.04537527380228021</v>
+        <v>0.07348465211392734</v>
       </c>
       <c r="CX3">
-        <v>0.005781751657520955</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>3.09229118920335E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>9.092053864785003E-05</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.003241966819150998</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.003122591316356481</v>
+        <v>0</v>
       </c>
       <c r="DC3">
         <v>0</v>
       </c>
       <c r="DD3">
-        <v>8.405006883907447E-05</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.07129713366042503</v>
+        <v>0.197442376688226</v>
       </c>
       <c r="DF3">
-        <v>0.01337561508784735</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.005579828954817428</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.0002251197577130188</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.005087986514128051</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.00819633333047997</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.005459590561422137</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0124110732533858</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.005255095292340206</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.001337035284084929</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>5.452114720939097E-05</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.01262638976680222</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.007049341551270817</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001435807748272209</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>7.744391404523063E-05</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0003484340469959699</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.005387110251799342</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01004138419917966</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01527683237204318</v>
+        <v>0</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DY3">
-        <v>2.527591111816506E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.002187364954640163</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.008937263357869971</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.0286161597362591</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.02152066214354507</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.01185258616838517</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.003639705267882114</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0004572826045688478</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>4.525146040210873E-05</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.007427018743853982</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.01282498064742831</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.005364660191159565</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.002579096580417966</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.004761681822566068</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.007320210773501738</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.02614268873079108</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01409672494027974</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.002716977515396391</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.0002964479093167402</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.01244520474805124</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.02976356415443512</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.02900263989346876</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.02767562298613185</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.01525656954801202</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.006590212927807262</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.002844576887792139</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>2.61223171673391E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.001016301268592492</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.006739517209893893</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0219737487321968</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.009844851011535018</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01277735060677766</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.002892315264927914</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.005066169366638182</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.006919799924770659</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>1.647279744147709E-05</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0007808354993919589</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0001773683761976827</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.004580446086734796</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.007262088899454262</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.01201143966641776</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.03014107629143154</v>
+        <v>0.0006350776816013142</v>
       </c>
       <c r="FO3">
-        <v>0.01489943127244148</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.01004604276807348</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.002076888948981963</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.002531685813613462</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.003712308718975991</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.002931562782546682</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.008393268153385702</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.006322021607429196</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.006190337259311998</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.01095281514717369</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.004542407276179459</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0001298013667744272</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0008775587434512496</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.00379724832458963</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.002138403065454996</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0002344375657263644</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0008471857145465638</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>6.675669484717648E-05</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>9.38924435138389E-05</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0009850599472678296</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0001374682688023943</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0001473482861543059</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0001221084659907052</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0004354105185770137</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0004889698760787933</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0007794605063274076</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0001174663626420895</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0001037902168455369</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0006170087664936269</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0004452960677919235</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002636766302191446</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.143954107918326E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3552,19 +3552,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.549098857800833E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001115737385027116</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0003599961218186068</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.828461219060325E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>4.825186247010293E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.299853318000632E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001470926095718472</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0001038512248650162</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.399514783843881E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>8.93516374671939E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.903212201747555E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>6.93349007801478E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>6.88325087855803E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1.676661045253666E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>5.371449433844334E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>7.699462108660894E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>4.659961470540551E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>3.43582655837223E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>1.377593043033575E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>2.403492141268772E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>7.812894378014569E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>8.610957251148703E-07</v>
+        <v>0</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -3735,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>5.026264467849276E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>4.878614488361426E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>5.597886321711191E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>1.377593043033575E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>2.836660322501054E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
         <v>0</v>
@@ -3810,334 +3810,334 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01235959001135595</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.01158964921162325</v>
+        <v>0</v>
       </c>
       <c r="CP4">
         <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.00561894718545857</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.08096199261649031</v>
+        <v>0.4068061875714452</v>
       </c>
       <c r="CS4">
-        <v>0.08391522598333258</v>
+        <v>0.4304634766119773</v>
       </c>
       <c r="CT4">
-        <v>0.0002582589542200426</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.001591902005986826</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01595050882257274</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.02130665623622765</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.02221663857898215</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.04082911158284162</v>
+        <v>0.08531612948724647</v>
       </c>
       <c r="CZ4">
-        <v>0.0001365365161285793</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.001771722634622871</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.002684553027178399</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.006664955949795191</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>5.026264467849276E-05</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.01018160680399785</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.009043429811533535</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.0006594904649213798</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001390598069341362</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.001433726213234211</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.002536320217233109</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001821285895852012</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01215239398526754</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.00480255457658264</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0001786717523112893</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.001353618565089351</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0006925881006723039</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.002760791160731938</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0005580047084554776</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.004299722536958446</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01012171150249316</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.01334336933091054</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.01899860530304648</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01799872861738258</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.002894958248358191</v>
+        <v>0</v>
       </c>
       <c r="DY4">
         <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.001964146770369113</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.005857919059565802</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.01797626787931832</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.02862012547257205</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.03984268312554047</v>
+        <v>0.07741420632933103</v>
       </c>
       <c r="EE4">
-        <v>0.02943200709059593</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.009127567393717895</v>
+        <v>0</v>
       </c>
       <c r="EG4">
         <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.006973963811077069</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.008610590530476409</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.009224343045745313</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.008370237457012307</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.009059385097603947</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.009059385097603947</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.02075477101279056</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.01695268196503559</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.007220905670004644</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.001730111421868735</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.002993096861099193</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.01358907912413909</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.02372085808868387</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0283295445862075</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.02662366815661474</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.02042321565393131</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.007225410917195549</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.001581086490515086</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>8.832663276784186E-05</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.004270740627406677</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.01287065594191529</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.008075452613752103</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.01349428856201686</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0125654760796389</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.00768001937936164</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.008429087815252178</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.001034735939572018</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.002900390038781492</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.001228588735454084</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.001974037657162174</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.002718138733054438</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.009964215275543623</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.02616495519358022</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.01835699200057531</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.01590408089496796</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.005352505798468956</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>9.808972813868149E-05</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.000526336176210711</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.002216166932644486</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.005969720632983656</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.005205520169120441</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.009732051453683298</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.01141547218351105</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.009059385097603947</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.003006755287306719</v>
+        <v>0</v>
       </c>
       <c r="GA4">
         <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001728962991937294</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.004440238587003787</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.001634043147056259</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0009740647399825656</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>3.0339607257951E-05</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0006367451637153851</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001321562688398111</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.000220649249421026</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0001447454372526362</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0007955633900055891</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.001146672035579894</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0008142928140269996</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.000384274335648542</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>4.659961470540551E-05</v>
+        <v>0</v>
       </c>
       <c r="GP4">
         <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0002003864492521438</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0003877706936440825</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.002883026044240295</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,28 +4313,28 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.480370871340969E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.146107391348819E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.977141685739818E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.633763322678464E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5.391026643551793E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.787187274783395E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.362904185066086E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4346,25 +4346,25 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>9.064928590230376E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5.99639096183975E-07</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>6.640103004606095E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>5.986766685567844E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>6.718051848985891E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4.75820829184868E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4379,19 +4379,19 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1.785617368227037E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.988293314436533E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.599603467333863E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>7.510071683915259E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.38272399674738E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -4403,31 +4403,31 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>4.857034778430031E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.937011666370266E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>8.84229917919989E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0001193144011811019</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001042829173019782</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.000168680127020602</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>9.620041511854782E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>5.006804858578527E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>2.828494963792302E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -4436,22 +4436,22 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2.458216176659515E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>8.70453785829252E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.643232517221053E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>2.198269426942949E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>1.412536292975954E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -4463,40 +4463,40 @@
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>3.38272399674738E-06</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>7.327489932677134E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>2.59556604009249E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>4.839997819823202E-07</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>6.429429128465609E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.988293314436533E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>3.002913745557682E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>2.571261154167423E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -4508,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>3.5192135199824E-06</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>5.391026643551793E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>2.803340750984979E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1.606880405546769E-06</v>
+        <v>0</v>
       </c>
       <c r="BT5">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>4.432692025030294E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -4547,25 +4547,25 @@
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>5.057080144125036E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>1.785617368227037E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>5.279457810782921E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>1.687273765478426E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>3.043406002892577E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>2.519629728974543E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>4.394863227963294E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -4574,343 +4574,343 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>1.852349350812665E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>1.567928170181947E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>5.46809358165908E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.001881840991405388</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.08869863109846754</v>
+        <v>0.4059779380550306</v>
       </c>
       <c r="CP5">
-        <v>0.05061457741237329</v>
+        <v>0.1424445555340954</v>
       </c>
       <c r="CQ5">
-        <v>0.001869230444570431</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.0001660425880930124</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.07678832088756099</v>
+        <v>0.3235611774174962</v>
       </c>
       <c r="CT5">
-        <v>0.007958095412498142</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>9.687646750254044E-05</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02411253300355403</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.03680465847150192</v>
+        <v>0.04688291493708574</v>
       </c>
       <c r="CX5">
-        <v>0.01638661895451483</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.0009611155544238072</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.0001719832406641153</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.01968461541107159</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0009254701471935188</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.01551092419206063</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.003264829199143983</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01187262429018481</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.04175430786602504</v>
+        <v>0.08113341405629199</v>
       </c>
       <c r="DG5">
-        <v>0.002915187062841114</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.001255282348029088</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.007372646773346227</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.02008429364372826</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0003817482579449563</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01751807594737483</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.004260099935434805</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>4.337740924000225E-05</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.006981594069421528</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.001837623730338985</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.008210812961719291</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>2.519629728974543E-05</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.001096679188208275</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.003175054356490987</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.004610744083223896</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.01070994354611643</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.01341591821622976</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.00603592480399873</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.001299116045346119</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0001731999917821979</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.00480197178788856</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.01615332689176021</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.02779023754777924</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.01412448991784079</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0212341258532216</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.01051216141679693</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0004021859382086712</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001503953605063564</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.01472163389729333</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.00784929486673838</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.005317289835352146</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.004985931605283397</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.006367981879008909</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.01706095326125888</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.01704908691420181</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.006462607786862793</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.004136015310394381</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0002984366697170429</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.01455968809603777</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.02189848509957672</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.02195767566417906</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.02601735703910609</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01350095302792829</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.007853063423127414</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.002390562963856599</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.0002453185069778473</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.001842307893746553</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.01367816228352785</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.01016784812335405</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.01255465990823185</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.008846789892315566</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.005281561337660986</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01209473683629758</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0007239793739223738</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.000304708753005856</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.00147724100808527</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.0003353573287959696</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.006245780130468278</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.007163478277291896</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.02022962535765131</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.02186892035419635</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.01165974991351986</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.009196029141506067</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>3.622762676527835E-05</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001648473237135619</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0006018703875362168</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.003440654982050039</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.008273508764344475</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.005090444767363799</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.00793810173906276</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.01128733464326312</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.001742149596934413</v>
+        <v>0</v>
       </c>
       <c r="GA5">
         <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0001831676131769794</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.002571757037317041</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002110199288970352</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0007873417825103162</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0002459940137021077</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0001899890706890193</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.00130240051644979</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0003999844765221133</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>3.622762676527835E-05</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0003861798159388815</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.000893031066585987</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0007842730422369168</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001121157283552923</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0002830816847075101</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>9.712455745674826E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0003914773309217646</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0004335004891989157</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.002099897333347359</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5089,37 +5089,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.296580663834204E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.857516150071998E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.080254141596424E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.127644984249471E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.444079983998022E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.417813720326311E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.444316903172781E-07</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6.036390899369807E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>4.636551690919444E-06</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5143,22 +5143,22 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.256478197992975E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>1.417813720326311E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2.797414334277195E-07</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3.796883089466577E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -5167,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.797414334277195E-07</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.053597360601745E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.711553508908942E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>7.093560200942436E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.05929033939289E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>9.306679927507131E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5227,16 +5227,16 @@
         <v>0</v>
       </c>
       <c r="AW6">
-        <v>4.304315598432886E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>3.937491135742791E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>5.770104728648546E-07</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -5245,37 +5245,37 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>2.258984230039883E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>4.636551690919444E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>3.164920826812472E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>3.269581552407794E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>8.643486047590482E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1.915554152412327E-08</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>4.636551690919444E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>2.981926048223719E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>8.444316903172781E-07</v>
+        <v>0</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -5284,25 +5284,25 @@
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>1.68726990726244E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>6.367912102758953E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>4.102780487673599E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.915554152412327E-08</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>2.69006576192129E-06</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>9.206895394726753E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>2.258984230039883E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -5311,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>3.003651223344902E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
         <v>0</v>
       </c>
       <c r="CA6">
-        <v>6.735076778926462E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
         <v>0</v>
@@ -5326,364 +5326,364 @@
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>7.608276143491866E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>3.332995601454104E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>4.613769810333085E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>3.164920826812472E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>5.924284948446368E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>2.458816570341112E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>5.924284948446368E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>9.212905632466402E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>9.131860490802262E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>3.21709049985225E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.00828282197139024</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.02813229780697953</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.05013139086057585</v>
+        <v>0.1758240807216049</v>
       </c>
       <c r="CQ6">
-        <v>0.002949709032076968</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.003548877360277654</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.04412738435717429</v>
+        <v>0.1232718313115115</v>
       </c>
       <c r="CT6">
-        <v>0.001086202833218306</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.01366905850386459</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.05470016333111469</v>
+        <v>0.2158139225436778</v>
       </c>
       <c r="CW6">
-        <v>0.06786847059576635</v>
+        <v>0.3310743186289672</v>
       </c>
       <c r="CX6">
-        <v>0.001385991616290266</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.0007611579079389267</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>5.360584075627162E-05</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.02261084444975044</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0006298890021234808</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.004611418648687518</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.001917887838545757</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.04737262221270808</v>
+        <v>0.1516769553037101</v>
       </c>
       <c r="DF6">
-        <v>0.02935235683344397</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.005003626883729385</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0002313099691751356</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>8.261577685414683E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.009099497611633393</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.003909721038338335</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.02005242607612919</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.01186619355410294</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.000251834288898088</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.0002972849962105998</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.004635842389898524</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.007458675860295908</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0003953114888699372</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0001889608146233069</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0009526393898626237</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.00584731924087137</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.01726961507477376</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01681512052422952</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.002373015130056817</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0003678879283453359</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0001828105043029406</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.005208554011017438</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.01633515504417057</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.02178299866736023</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.01818082017177517</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.01708589578974547</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.006614357374109804</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0002167318817764259</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.002931734019297787</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.01406844267865528</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.01007657448949541</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.002732519693408264</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.003754007553737295</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.005787323054960766</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.02304471280687174</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.02092122670884354</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.004719302486240665</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.00464787588886194</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.002759997642006154</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.01806418986246926</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.03031099846863422</v>
+        <v>0.00233889149052856</v>
       </c>
       <c r="EU6">
-        <v>0.0281447552704413</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01882898194560063</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.01106731099858391</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.007080497423971397</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.000912564025439025</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0004366997006371126</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.002097249265426981</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.01908160748328894</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.009291860482889916</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01281133384348907</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.005980645957358052</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.006417888098130342</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.01462963062012366</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0004346671755611945</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.001653642147243806</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.001077387938083597</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.001732164139131121</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.004808661018720334</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0123143176173007</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.02444781189357739</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.01926071344952016</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.018428267371817</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.005390876677645075</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0002063077548538173</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0008866165365862536</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0003206038951555177</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.005052581659624398</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.004565050637280212</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.00720580087279643</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.01179179439656468</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.009972140172162447</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.001956819841244474</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0001353214714550459</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0007902203136506991</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001937397117934645</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0008376473346780643</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0004237813761446798</v>
+        <v>0</v>
       </c>
       <c r="GF6">
         <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.000314108212054416</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.001688915953434521</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0003018029931219834</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>7.204827639849997E-05</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0001987320342148389</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0004075594946348344</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.000645404379656073</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0006837369414350476</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>2.716056628994238E-05</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>4.418054193361446E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0005052785028341542</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0001396850198628588</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001689160694755286</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>5.318406875433648E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.569726742176326E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8.758233366382827E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0001316681776376325</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.000321339876372565</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00040235548348366</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0004487955224632824</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0005659259963857093</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0006285845571237679</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0006714085509804107</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0007142325448370535</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0007261176110791185</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0007261176110791185</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0007261176110791185</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0007288811707039398</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0007288811707039398</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0007355069118865514</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0007697474416514257</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0007697474416514257</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0007697474416514257</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0008105032680593119</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0008105032680593119</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0008105032680593119</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0008105032680593119</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0008177964360791603</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0008307603609266091</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0008335239205514304</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0008362874801762517</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0008362874801762517</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0009066139126336489</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0009673691391640954</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0009710138279952636</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0009854641627432439</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0009854641627432439</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0009882277223680653</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0009882277223680653</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0009882277223680653</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0009882277223680653</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.00100927102629988</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.001033047469871951</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.001033047469871951</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.001033047469871951</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.001033047469871951</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.001033047469871951</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.001046011394719399</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.00109185577733885</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.001186170421758948</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.001232014804378398</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.001232014804378398</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.001254008342077134</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001254008342077134</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.001254008342077134</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.001254008342077134</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001304693037773509</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001340515892358158</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001350665423434562</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001350665423434562</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001350665423434562</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001350665423434562</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001371708727366376</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.001430471660684282</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.00144096268439872</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.00144096268439872</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.00144096268439872</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001471304574883608</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001528635452958898</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001584784947037947</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001602626154340225</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001632469958505296</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.001632469958505296</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001632469958505296</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001692012731222146</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001775611237433549</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.00186697070966879</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001943126412596085</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.001982307417800414</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.002075139021637912</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.002075139021637912</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.002075139021637912</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.002075139021637912</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.00208428880949883</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0020921501701829</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.00223739815795242</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.002331047049180132</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.002382128097820469</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.002419468203830438</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.00245276302662969</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.002454614965972492</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.002474109458032868</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.002511449564042838</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.00889544352281327</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.05874840289802451</v>
+        <v>0.1893960007157183</v>
       </c>
       <c r="CP2">
-        <v>0.1062562519097917</v>
+        <v>0.3563844917382837</v>
       </c>
       <c r="CQ2">
-        <v>0.1313079403509951</v>
+        <v>0.3563844917382837</v>
       </c>
       <c r="CR2">
-        <v>0.1316103195794524</v>
+        <v>0.3563844917382837</v>
       </c>
       <c r="CS2">
-        <v>0.1730225057275974</v>
+        <v>0.4651289756420516</v>
       </c>
       <c r="CT2">
-        <v>0.1781548836846815</v>
+        <v>0.4651289756420516</v>
       </c>
       <c r="CU2">
-        <v>0.1793508367378186</v>
+        <v>0.4651289756420516</v>
       </c>
       <c r="CV2">
-        <v>0.1881978201273113</v>
+        <v>0.4651289756420516</v>
       </c>
       <c r="CW2">
-        <v>0.2350623066413652</v>
+        <v>0.6259701434390489</v>
       </c>
       <c r="CX2">
-        <v>0.2824463279624282</v>
+        <v>0.7917754619239857</v>
       </c>
       <c r="CY2">
-        <v>0.2875824340973384</v>
+        <v>0.7917754619239857</v>
       </c>
       <c r="CZ2">
-        <v>0.2877411892050841</v>
+        <v>0.7917754619239857</v>
       </c>
       <c r="DA2">
-        <v>0.2920744056010117</v>
+        <v>0.7917754619239857</v>
       </c>
       <c r="DB2">
-        <v>0.2922595435695694</v>
+        <v>0.7917754619239857</v>
       </c>
       <c r="DC2">
-        <v>0.2973559774627337</v>
+        <v>0.7917754619239857</v>
       </c>
       <c r="DD2">
-        <v>0.2999519220674368</v>
+        <v>0.7917754619239857</v>
       </c>
       <c r="DE2">
-        <v>0.318051425974325</v>
+        <v>0.7917754619239857</v>
       </c>
       <c r="DF2">
-        <v>0.3643499001183015</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DG2">
-        <v>0.364489367087438</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DH2">
-        <v>0.3645311515420788</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DI2">
-        <v>0.3646493517469091</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DJ2">
-        <v>0.3782812852632378</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DK2">
-        <v>0.3783694444591764</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DL2">
-        <v>0.3879778436369354</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DM2">
-        <v>0.3936868315453697</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DN2">
-        <v>0.3961831162314455</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DO2">
-        <v>0.4011891963321981</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DP2">
-        <v>0.4029455935194701</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DQ2">
-        <v>0.417876820137814</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DR2">
-        <v>0.4213625967018296</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DS2">
-        <v>0.4219400612944406</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DT2">
-        <v>0.4233053050010948</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DU2">
-        <v>0.4269143787759811</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DV2">
-        <v>0.4355211528265006</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DW2">
-        <v>0.4514656349769662</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DX2">
-        <v>0.4588724947839066</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DY2">
-        <v>0.459171762815226</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="DZ2">
-        <v>0.459171762815226</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="EA2">
-        <v>0.4650381799762636</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="EB2">
-        <v>0.486792045109926</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="EC2">
-        <v>0.5223483526887084</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.5449559359001347</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.5620172513222113</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.5694323559953151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.5703820893068802</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.5705996292600252</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.5816078153270664</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.5895321863476908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.5953551192817536</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.6013759645492919</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.6106932987142653</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.6282082655107958</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.6527933349589641</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.6599404869387497</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.6624645799624496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.6651720963513665</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.6852845649622337</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.7116676816881211</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.7352995976275893</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.7566759449553588</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.7651876696959516</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.7696764925084369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.770823758066379</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.771243559076082</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.7728876565462617</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.7909544144877358</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.8063771019350348</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8240370675540183</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8354015802695398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8400236282159717</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8488845174263936</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.8509701371269887</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.8516952049196788</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.8542103870236378</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.8546903129761346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.8594832452184074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.8662780937055663</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.8904766267901582</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.9182256329642463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.9318687488112302</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9436216462590951</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.943950021752925</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.945956657932618</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9477404566361542</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9520116108966895</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.958891420565389</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9632675643747101</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9696515583334805</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9771400467511234</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9784694088739289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9784861155312548</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9814842603734869</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9866974398813594</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.988824131116957</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9906865957343677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9916919511281099</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9917102738154503</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9923212382796397</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9932564043226009</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9934299381299088</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9935275538648235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9937438729934274</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9940870207385556</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9945702125564043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9947679411303839</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9947776940241519</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9956423628217513</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.996664483500954</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
         <v>0.9999999999999999</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>6.851093563322725E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.181267513875756E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>8.643665598415066E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.643665598415066E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>8.643665598415066E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>9.186229570894864E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.186229570894864E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001023036494054229</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001244850683731538</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0002015155281769528</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0003943147611155769</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.00050368288646637</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0005626807063112965</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0005930583265622371</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0006050190504460006</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0006062221220115313</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0006062221220115313</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0006190804596900044</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0006190804596900044</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0006190804596900044</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0006597774042408572</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.000680703163332581</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0006855726290513677</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0008145914222738688</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0008370012571665825</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0009578349138322072</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0009839572309995462</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0009848810657248337</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0009848810657248337</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0009848810657248337</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.001022104248396341</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.001062622930912834</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.001062622930912834</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.001071100137631907</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.001071100137631907</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.001071100137631907</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.001073270850475717</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.001094985688310159</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.001105028044133758</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.001106066566783177</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.001106066566783177</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.001115458571584214</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.001133264813097542</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.001137023459319073</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.001137023459319073</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.001138395655841816</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.001138395655841816</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.001142778728755219</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.001152170733556256</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.001152170733556256</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.001152170733556256</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.001158640615256604</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001158640615256604</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.001158640615256604</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.00116483703286083</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.00116483703286083</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001168937056049902</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.001196701600279768</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.001339182487211233</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.001394568782781757</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.001539589184960801</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.001685771258362737</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.001723165644691513</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001728335732252497</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001744113574649851</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001744113574649851</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001776924717452583</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.001830383643931612</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.001892555834828263</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001905236469160528</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001905236469160528</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001905236469160528</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001948410571958624</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001979993879255926</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001995180094407471</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001996761281813311</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001996761281813311</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001996761281813311</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.002013847468829625</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.002013847468829625</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.002019458374247447</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.00203141909813121</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.002045365592774744</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.002054063352770849</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.002054063352770849</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.002054063352770849</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.002054130625926828</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.002078419373592115</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.002084030279009937</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.002084030279009937</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.091281082200836</v>
+        <v>0.2830393650945974</v>
       </c>
       <c r="CO3">
-        <v>0.09222745822028854</v>
+        <v>0.2830393650945974</v>
       </c>
       <c r="CP3">
-        <v>0.1835192055850949</v>
+        <v>0.5760955145638086</v>
       </c>
       <c r="CQ3">
-        <v>0.1874317117257414</v>
+        <v>0.5760955145638086</v>
       </c>
       <c r="CR3">
-        <v>0.1900816939787468</v>
+        <v>0.5760955145638086</v>
       </c>
       <c r="CS3">
-        <v>0.2030053088438042</v>
+        <v>0.5760955145638086</v>
       </c>
       <c r="CT3">
-        <v>0.2053050918581396</v>
+        <v>0.5760955145638086</v>
       </c>
       <c r="CU3">
-        <v>0.2054680175703959</v>
+        <v>0.5760955145638086</v>
       </c>
       <c r="CV3">
-        <v>0.2673339050142204</v>
+        <v>0.7284378935162454</v>
       </c>
       <c r="CW3">
-        <v>0.3127091788165006</v>
+        <v>0.8019225456301727</v>
       </c>
       <c r="CX3">
-        <v>0.3184909304740215</v>
+        <v>0.8019225456301727</v>
       </c>
       <c r="CY3">
-        <v>0.3185218533859136</v>
+        <v>0.8019225456301727</v>
       </c>
       <c r="CZ3">
-        <v>0.3186127739245614</v>
+        <v>0.8019225456301727</v>
       </c>
       <c r="DA3">
-        <v>0.3218547407437125</v>
+        <v>0.8019225456301727</v>
       </c>
       <c r="DB3">
-        <v>0.324977332060069</v>
+        <v>0.8019225456301727</v>
       </c>
       <c r="DC3">
-        <v>0.324977332060069</v>
+        <v>0.8019225456301727</v>
       </c>
       <c r="DD3">
-        <v>0.325061382128908</v>
+        <v>0.8019225456301727</v>
       </c>
       <c r="DE3">
-        <v>0.396358515789333</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DF3">
-        <v>0.4097341308771804</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DG3">
-        <v>0.4153139598319978</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DH3">
-        <v>0.4155390795897108</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DI3">
-        <v>0.4206270661038388</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DJ3">
-        <v>0.4288233994343188</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DK3">
-        <v>0.4342829899957409</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DL3">
-        <v>0.4466940632491267</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DM3">
-        <v>0.4519491585414669</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DN3">
-        <v>0.4532861938255519</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DO3">
-        <v>0.4533407149727612</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DP3">
-        <v>0.4659671047395635</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DQ3">
-        <v>0.4730164462908343</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DR3">
-        <v>0.4744522540391065</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DS3">
-        <v>0.4745296979531518</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DT3">
-        <v>0.4748781320001477</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DU3">
-        <v>0.4802652422519471</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DV3">
-        <v>0.4903066264511267</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DW3">
-        <v>0.5055834588231699</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DX3">
-        <v>0.5055834588231699</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DY3">
-        <v>0.505608734734288</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="DZ3">
-        <v>0.5077960996889281</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EA3">
-        <v>0.5167333630467981</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EB3">
-        <v>0.5453495227830572</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EC3">
-        <v>0.5668701849266022</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="ED3">
-        <v>0.5787227710949874</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EE3">
-        <v>0.5823624763628695</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EF3">
-        <v>0.5828197589674384</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EG3">
-        <v>0.5828650104278406</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EH3">
-        <v>0.5902920291716945</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EI3">
-        <v>0.6031170098191229</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EJ3">
-        <v>0.6084816700102824</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EK3">
-        <v>0.6110607665907004</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EL3">
-        <v>0.6158224484132665</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EM3">
-        <v>0.6231426591867683</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EN3">
-        <v>0.6492853479175593</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EO3">
-        <v>0.663382072857839</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EP3">
-        <v>0.6660990503732354</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EQ3">
-        <v>0.6663954982825521</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="ER3">
-        <v>0.6788407030306033</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="ES3">
-        <v>0.7086042671850384</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="ET3">
-        <v>0.7376069070785072</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EU3">
-        <v>0.7652825300646391</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EV3">
-        <v>0.7805390996126511</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EW3">
-        <v>0.7871293125404584</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EX3">
-        <v>0.7899738894282505</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EY3">
-        <v>0.7900000117454179</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="EZ3">
-        <v>0.7910163130140104</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FA3">
-        <v>0.7977558302239043</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FB3">
-        <v>0.8197295789561011</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FC3">
-        <v>0.8295744299676361</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FD3">
-        <v>0.8423517805744137</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FE3">
-        <v>0.8452440958393417</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FF3">
-        <v>0.8503102652059799</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FG3">
-        <v>0.8572300651307505</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FH3">
-        <v>0.8572465379281919</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FI3">
-        <v>0.858027373427584</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FJ3">
-        <v>0.8582047418037816</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FK3">
-        <v>0.8627851878905164</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FL3">
-        <v>0.8700472767899706</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FM3">
-        <v>0.8820587164563883</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="FN3">
-        <v>0.9121997927478199</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9270992240202615</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.937145266788335</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9392221557373169</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9417538415509304</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9454661502699064</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9483977130524531</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9567909812058388</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9631130028132681</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.96930334007258</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9802561552197537</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9847985624959332</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9849283638627077</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.985805922606159</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9896031709307486</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9917415739962036</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9919760115619299</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9928231972764765</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9928899539713236</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9929838464148375</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9939689063621053</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9941063746309077</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9942537229170619</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9943758313830526</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9948112419016296</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9953002117777084</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9960796722840358</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9961971386466779</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9963009288635235</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9969179376300171</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9973632336978091</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.143954107918326E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.143954107918326E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.143954107918326E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.143954107918326E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6.693052965719158E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001785042681599031</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001785042681599031</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0005385003899785099</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0005767850021691131</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0005767850021691131</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0005767850021691131</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0005767850021691131</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0005767850021691131</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0005767850021691131</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0005816101884161234</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0006046087215961297</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0006046087215961297</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.000751701331167977</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0008555525560329931</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0008695477038714319</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0008784828676181512</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0008784828676181512</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0008784828676181512</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0008784828676181512</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0008784828676181512</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0008784828676181512</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0008975149896356268</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0009668498904157746</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0009668498904157746</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0009737331412943326</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0009737331412943326</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0009737331412943326</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0009737331412943326</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0009737331412943326</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0009904997517468693</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.001044214246085313</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.001044214246085313</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001044214246085313</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.001044214246085313</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.001121208867171922</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001121208867171922</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001121208867171922</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001121208867171922</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001121208867171922</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.001167808481877327</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.001167808481877327</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.001202166747461049</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.001202166747461049</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.001202166747461049</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.001202166747461049</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.001202166747461049</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.001202166747461049</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.001202166747461049</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.001202166747461049</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.001202166747461049</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.001215942677891385</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.001239977599304073</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.001318106543084219</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.001318967638809333</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.001318967638809333</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.001318967638809333</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.001318967638809333</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.001318967638809333</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.001318967638809333</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001318967638809333</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.001369230283487826</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.001369230283487826</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.001418016428371441</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.001418016428371441</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.001418016428371441</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001418016428371441</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001418016428371441</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001418016428371441</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.001418016428371441</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.001473995291588552</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001473995291588552</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.001473995291588552</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.001473995291588552</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.001473995291588552</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001473995291588552</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.001473995291588552</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.001473995291588552</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.001487771222018888</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.001487771222018888</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.001487771222018888</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001516137825243899</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.001516137825243899</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.001516137825243899</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001516137825243899</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001516137825243899</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01387572783659985</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.0254653770482231</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.0254653770482231</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.03108432423368167</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.112046316850172</v>
+        <v>0.4068061875714452</v>
       </c>
       <c r="CS4">
-        <v>0.1959615428335046</v>
+        <v>0.8372696641834225</v>
       </c>
       <c r="CT4">
-        <v>0.1962198017877246</v>
+        <v>0.8372696641834225</v>
       </c>
       <c r="CU4">
-        <v>0.1978117037937114</v>
+        <v>0.8372696641834225</v>
       </c>
       <c r="CV4">
-        <v>0.2137622126162842</v>
+        <v>0.8372696641834225</v>
       </c>
       <c r="CW4">
-        <v>0.2350688688525118</v>
+        <v>0.8372696641834225</v>
       </c>
       <c r="CX4">
-        <v>0.257285507431494</v>
+        <v>0.8372696641834225</v>
       </c>
       <c r="CY4">
-        <v>0.2981146190143356</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="CZ4">
-        <v>0.2982511555304642</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DA4">
-        <v>0.3000228781650871</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DB4">
-        <v>0.3027074311922655</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DC4">
-        <v>0.3093723871420607</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DD4">
-        <v>0.3094226497867392</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DE4">
-        <v>0.319604256590737</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DF4">
-        <v>0.3286476864022706</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DG4">
-        <v>0.329307176867192</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DH4">
-        <v>0.3306977749365334</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DI4">
-        <v>0.3321315011497676</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DJ4">
-        <v>0.3346678213670007</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DK4">
-        <v>0.3364891072628527</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DL4">
-        <v>0.3486415012481202</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DM4">
-        <v>0.3534440558247028</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DN4">
-        <v>0.3536227275770141</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DO4">
-        <v>0.3549763461421035</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DP4">
-        <v>0.3556689342427758</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DQ4">
-        <v>0.3584297254035077</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DR4">
-        <v>0.3589877301119632</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DS4">
-        <v>0.3632874526489216</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DT4">
-        <v>0.3734091641514148</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DU4">
-        <v>0.3867525334823253</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DV4">
-        <v>0.4057511387853718</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DW4">
-        <v>0.4237498674027544</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DX4">
-        <v>0.4266448256511126</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DY4">
-        <v>0.4266448256511126</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="DZ4">
-        <v>0.4286089724214817</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="EA4">
-        <v>0.4344668914810474</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="EB4">
-        <v>0.4524431593603658</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="EC4">
-        <v>0.4810632848329378</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="ED4">
-        <v>0.5209059679584783</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.5503379750490742</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.5594655424427921</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.5594655424427921</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.5664395062538692</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.5750500967843456</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.5842744398300909</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.5926446772871031</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.6017040623847071</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.610763447482311</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.6315182184951016</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.6484709004601372</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.6556918061301419</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.6574219175520106</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.6604150144131098</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.6740040935372489</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.6977249516259327</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.7260544962121402</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.752678164368755</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.7731013800226864</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.7803267909398819</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.781907877430397</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.7819962040631648</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.7862669446905715</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.7991376006324867</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8072130532462388</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8207073418082557</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8332728178878945</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8409528372672562</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8493819250825084</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8504166610220805</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.853317051060862</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.854545639796316</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8565196774534782</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8592378161865327</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8692020314620763</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8953669866556565</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9137239786562318</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9296280595511998</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9349805653496687</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9350786550778073</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.935604991254018</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9378211581866625</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9437908788196461</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9489963989887665</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9587284504424498</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9701439226259608</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9792033077235648</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9822100630108715</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9822100630108715</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9839390260028088</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9883792645898126</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9900133077368689</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9909873724768514</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9910177120841094</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9916544572478247</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9929760199362229</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9931966691856439</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9933414146228965</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9941369780129021</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9952836500484821</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9960979428625091</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9964822171981577</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9965288168128631</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9965288168128631</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9967292032621152</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9971169739557593</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.480370871340969E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001162647826268979</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.000146036199484296</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001723738327110807</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001777648593546325</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001777648593546325</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002156367321024664</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002292657739531273</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002292657739531273</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002292657739531273</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002292657739531273</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002383307025433577</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002389303416395417</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002389303416395417</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0003053313716856026</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.000365199038541281</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.00043237955703114</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0004799616399496268</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0004799616399496268</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0004799616399496268</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0004799616399496268</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0004799616399496268</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0004978178136318971</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0005177007467762624</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0005336967814496011</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0005412068531335163</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0005445895771302637</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0005445895771302637</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0005445895771302637</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0005445895771302637</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000593159924914564</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0006225300415782667</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0007109530333702656</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0008302674345513674</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0009345503518533456</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001103230478873948</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001199430893992496</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001249498942578281</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001277783892216204</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001277783892216204</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001277783892216204</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.001302366053982799</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001311070591841091</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.001327502917013302</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.001329701186440245</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.001329701186440245</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.001343826549370004</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.001343826549370004</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.001343826549370004</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.001343826549370004</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001347209273366752</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001347209273366752</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001354536763299429</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001380492423700354</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001380492423700354</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001380976423482336</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001387405852610802</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001407288785755167</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001407288785755167</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.001437317923210744</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.001437317923210744</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001463030534752418</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001463030534752418</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001463030534752418</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.001463030534752418</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001466549748272401</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001466549748272401</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.001471940774915953</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.001499974182425802</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.001501581062831349</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.001501581062831349</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.001501581062831349</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.001545907983081652</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.001545907983081652</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001545907983081652</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001545907983081652</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001545907983081652</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001545907983081652</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001596478784522903</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001614334958205173</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001667129536313002</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001684002273967786</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001714436333996712</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.001739632631286458</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.001744027494514421</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.001744027494514421</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.001744027494514421</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001762550988022548</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.001778230269724367</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001832911205540958</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.003714752196946346</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.09241338329541389</v>
+        <v>0.4059779380550306</v>
       </c>
       <c r="CP5">
-        <v>0.1430279607077872</v>
+        <v>0.548422493589126</v>
       </c>
       <c r="CQ5">
-        <v>0.1448971911523576</v>
+        <v>0.548422493589126</v>
       </c>
       <c r="CR5">
-        <v>0.1450632337404506</v>
+        <v>0.548422493589126</v>
       </c>
       <c r="CS5">
-        <v>0.2218515546280116</v>
+        <v>0.8719836710066222</v>
       </c>
       <c r="CT5">
-        <v>0.2298096500405098</v>
+        <v>0.8719836710066222</v>
       </c>
       <c r="CU5">
-        <v>0.2299065265080123</v>
+        <v>0.8719836710066222</v>
       </c>
       <c r="CV5">
-        <v>0.2540190595115663</v>
+        <v>0.8719836710066222</v>
       </c>
       <c r="CW5">
-        <v>0.2908237179830683</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="CX5">
-        <v>0.3072103369375831</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="CY5">
-        <v>0.3081714524920069</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="CZ5">
-        <v>0.308343435732671</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="DA5">
-        <v>0.3280280511437426</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="DB5">
-        <v>0.3289535212909361</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="DC5">
-        <v>0.3444644454829968</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="DD5">
-        <v>0.3477292746821408</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="DE5">
-        <v>0.3596018989723256</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="DF5">
-        <v>0.4013562068383506</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.4042713939011917</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.4055266762492208</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.412899323022567</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.4329836166662953</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.4333653649242402</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.450883440871615</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.4551435408070498</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.4551869182162898</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.4621685122857113</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.4640061360160503</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.4722169489777696</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.4722421452750593</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.4733388244632676</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.4765138788197586</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.4811246229029825</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.4918345664490989</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.5052504846653286</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.5112864094693274</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.5125855255146735</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.5127587255064557</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.5175606972943443</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.5337140241861045</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.5615042617338837</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.5756287516517244</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.596862877504946</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.6073750389217429</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.6077772248599516</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.6092811784650152</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.6240028123623085</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.6318521072290468</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.637169397064399</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.6421553286696824</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.6485233105486913</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.6655842638099502</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.682633350724152</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.6890959585110148</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.6932319738214092</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.6935304104911263</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.7080900985871641</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.7299885836867408</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.7519462593509199</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.777963616390026</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.7914645694179543</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.7993176328410817</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8017081958049384</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8019535143119162</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8037958222056627</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8174739844891905</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8276418326125445</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8401964925207763</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8490432824130919</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8543248437507529</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8664195805870505</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8671435599609728</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8674482687139786</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8689255097220638</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8692608670508598</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8755066471813281</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.88267012545862</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9028997508162713</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9247686711704676</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9364284210839874</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9456244502254935</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9456606778522587</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9473091510893943</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9479110214769305</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9513516764589806</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9596251852233251</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9647156299906888</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9726537317297516</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9839410663730147</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9856832159699491</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9856832159699491</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9858663835831261</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9884381406204431</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9905483399094135</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9913356816919238</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9915816757056258</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9917716647763148</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9930740652927647</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9934740497692868</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.993510277396052</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9938964572119909</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9947894882785769</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9955737613208139</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9966949186043668</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9969780002890742</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9970751248465309</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9974666021774528</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9979001026666516</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9740,769 +9740,769 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.296580663834204E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.000111540968139062</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.000111540968139062</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001136212222806585</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001248976721231531</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001263417521071512</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001405198893104143</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001405198893104143</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0001413643210007316</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0001413643210007316</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001474007119001014</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001474007119001014</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001474007119001014</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001474007119001014</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001474007119001014</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001520372635910208</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001520372635910208</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0001520372635910208</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001646020455709505</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001646020455709505</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001787801827742136</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001790599242076414</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0001790599242076414</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0002170287551023071</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0002170287551023071</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002170287551023071</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0002173084965357349</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002278444701417523</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0002305560236506613</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0002305560236506613</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0002305560236506613</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002305560236506613</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0002305560236506613</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0002376495838516037</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0002376495838516037</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0002376495838516037</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0002397088741909966</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0002397088741909966</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002397088741909966</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0002397088741909966</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0002397088741909966</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0002490155541185037</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0002490155541185037</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0002490155541185037</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0002490155541185037</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0002490155541185037</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0002533198697169366</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0002533198697169366</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0002572573608526794</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0002578343713255442</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0002578343713255442</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0002578343713255442</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.000280424213625943</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.000280424213625943</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0002850607653168625</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0002850607653168625</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0003167099735849872</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0003494057891090651</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0003502701377138241</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0003502892932553483</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0003549258449462677</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0003579077709944914</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0003587522026848087</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0003587522026848087</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0003587522026848087</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0003756249017574331</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0004393040227850226</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0004803318276617586</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0004803509832032827</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.000483041048965204</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0005751100029124716</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0005976998452128704</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0005976998452128704</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0005976998452128704</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0006007034964362153</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0006007034964362153</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0006074385732151418</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0006074385732151418</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0006074385732151418</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0006835213346500605</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0007168512906646014</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0007629889887679323</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.000794638197036057</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0008538810465205207</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0008784692122239319</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0009377120617083956</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.00102984111803306</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.001121159722941082</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.001153330627939605</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.009436152599329844</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.03756845040630937</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.08769984126688522</v>
+        <v>0.1758240807216049</v>
       </c>
       <c r="CQ6">
-        <v>0.09064955029896218</v>
+        <v>0.1758240807216049</v>
       </c>
       <c r="CR6">
-        <v>0.09419842765923983</v>
+        <v>0.1758240807216049</v>
       </c>
       <c r="CS6">
-        <v>0.1383258120164141</v>
+        <v>0.2990959120331164</v>
       </c>
       <c r="CT6">
-        <v>0.1394120148496324</v>
+        <v>0.2990959120331164</v>
       </c>
       <c r="CU6">
-        <v>0.153081073353497</v>
+        <v>0.2990959120331164</v>
       </c>
       <c r="CV6">
-        <v>0.2077812366846117</v>
+        <v>0.5149098345767942</v>
       </c>
       <c r="CW6">
-        <v>0.275649707280378</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="CX6">
-        <v>0.2770356988966683</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="CY6">
-        <v>0.2777968568046072</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="CZ6">
-        <v>0.2778504626453634</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="DA6">
-        <v>0.3004613070951139</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="DB6">
-        <v>0.3010911960972373</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="DC6">
-        <v>0.3057026147459249</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="DD6">
-        <v>0.3076205025844706</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="DE6">
-        <v>0.3549931247971787</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DF6">
-        <v>0.3843454816306227</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DG6">
-        <v>0.3893491085143521</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DH6">
-        <v>0.3895804184835272</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DI6">
-        <v>0.3896630342603813</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DJ6">
-        <v>0.3987625318720147</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DK6">
-        <v>0.402672252910353</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DL6">
-        <v>0.4227246789864822</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DM6">
-        <v>0.4345908725405851</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DN6">
-        <v>0.4348427068294832</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DO6">
-        <v>0.4351399918256939</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DP6">
-        <v>0.4397758342155924</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DQ6">
-        <v>0.4472345100758883</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DR6">
-        <v>0.4476298215647582</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DS6">
-        <v>0.4478187823793816</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DT6">
-        <v>0.4487714217692442</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DU6">
-        <v>0.4546187410101156</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DV6">
-        <v>0.4718883560848893</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DW6">
-        <v>0.4887034766091188</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DX6">
-        <v>0.4910764917391757</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DY6">
-        <v>0.491444379667521</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="DZ6">
-        <v>0.491627190171824</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EA6">
-        <v>0.4968357441828414</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EB6">
-        <v>0.513170899227012</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EC6">
-        <v>0.5349538978943722</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="ED6">
-        <v>0.5531347180661473</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EE6">
-        <v>0.5702206138558928</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EF6">
-        <v>0.5768349712300026</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EG6">
-        <v>0.577051703111779</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EH6">
-        <v>0.5799834371310768</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EI6">
-        <v>0.5940518798097321</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EJ6">
-        <v>0.6041284542992275</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EK6">
-        <v>0.6068609739926357</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EL6">
-        <v>0.6106149815463731</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EM6">
-        <v>0.6164023046013338</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EN6">
-        <v>0.6394470174082055</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EO6">
-        <v>0.6603682441170491</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EP6">
-        <v>0.6650875466032897</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="EQ6">
-        <v>0.6697354224921517</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="ER6">
-        <v>0.6724954201341579</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="ES6">
-        <v>0.6905596099966271</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="ET6">
-        <v>0.7208706084652613</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7490153637357025</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.7678443456813032</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.7789116566798872</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.7859921541038586</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.7869047181292976</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.7873414178299347</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.7894386670953617</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8085202745786506</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8178121350615405</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8306234689050296</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8366041148623876</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.843022002960518</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8576516335806417</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8580863007562028</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8597399429034467</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8608173308415303</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.8625494949806615</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8673581559993818</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8796724736166825</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9041202855102599</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9233809989597801</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9418092663315971</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9472001430092422</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.947406450764096</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9482930673006823</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9486136711958378</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9536662528554622</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9582313034927424</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9654371043655389</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9772288987621035</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9872010389342659</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9891578587755104</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9892931802469654</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9900834005606162</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9920207976785508</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9928584450132288</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9932822263893735</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9932822263893735</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9935963346014279</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9952852505548625</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9955870535479845</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.995659101824383</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9958578338585978</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9962653933532326</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9969107977328887</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9975945346743238</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9976216952406137</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9976658757825474</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9981711542853815</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9983108393052443</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.00889544352281327</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5223483526887084</v>
+        <v>0.6259701434390489</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002084030279009937</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5055834588231699</v>
+        <v>0.5760955145638086</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -10652,16 +10652,16 @@
         <v>93</v>
       </c>
       <c r="D4">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>0.0254653770482231</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5209059679584783</v>
+        <v>0.8372696641834225</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.001832911205540958</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5052504846653286</v>
+        <v>0.548422493589126</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -10734,16 +10734,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.009436152599329844</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.513170899227012</v>
+        <v>0.5149098345767942</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.00889544352281327</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7116676816881211</v>
+        <v>0.7917754619239857</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.002084030279009937</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7086042671850384</v>
+        <v>0.7284378935162454</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -10911,16 +10911,16 @@
         <v>93</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>0.0254653770482231</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7260544962121402</v>
+        <v>0.8372696641834225</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>0.001832911205540958</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7080900985871641</v>
+        <v>0.8719836710066222</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -10993,16 +10993,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.009436152599329844</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7208706084652613</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="E2">
-        <v>0.00889544352281327</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8063771019350348</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.002084030279009937</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8197295789561011</v>
+        <v>0.8019225456301727</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -11170,16 +11170,16 @@
         <v>93</v>
       </c>
       <c r="D4">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>0.0254653770482231</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8072130532462388</v>
+        <v>0.8372696641834225</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>0.001832911205540958</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8017081958049384</v>
+        <v>0.8719836710066222</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -11252,16 +11252,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.009436152599329844</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8085202745786506</v>
+        <v>0.8459841532057615</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="E2">
-        <v>0.00889544352281327</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9182256329642463</v>
+        <v>0.9472083863109252</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>0.002084030279009937</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9121997927478199</v>
+        <v>0.9993649223183987</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -11429,16 +11429,16 @@
         <v>93</v>
       </c>
       <c r="D4">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.0254653770482231</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9137239786562318</v>
+        <v>0.922585793670669</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.001832911205540958</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9028997508162713</v>
+        <v>0.918866585943708</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -11511,16 +11511,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.009436152599329844</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9041202855102599</v>
+        <v>0.9976611085094717</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>47</v>

--- a/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/47_225-80R17.xlsx
@@ -674,61 +674,61 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.006717760015064258</v>
       </c>
       <c r="E2">
-        <v>0.1654927223823996</v>
+        <v>0.1397770317773231</v>
       </c>
       <c r="F2">
-        <v>0.1550796652416082</v>
+        <v>0.1325986074883479</v>
       </c>
       <c r="G2">
-        <v>0.0553669665007934</v>
+        <v>0.06385990290980667</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1280129281279332</v>
+        <v>0.1139396756786888</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0028865413027049</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0142570142133272</v>
       </c>
       <c r="M2">
-        <v>0.1522229252965034</v>
+        <v>0.1306292635068486</v>
       </c>
       <c r="N2">
-        <v>0.1545298297886526</v>
+        <v>0.1322195687375689</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.002897953320952403</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0004402936331514499</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.002776515887479863</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.02449699298584501</v>
+        <v>0.0425791431210551</v>
       </c>
       <c r="V2">
-        <v>0.1497096452206969</v>
+        <v>0.1288966896337549</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.004659519030426995</v>
+        <v>0.02890383115953231</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01658772140463941</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.004651554559461711</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.002499941331262894</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01042880542514065</v>
+        <v>0.03288099031902953</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -784,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2603539547508051</v>
+        <v>0.2239483152900972</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2676231487004246</v>
+        <v>0.2295015550073057</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02174007473126673</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -808,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1655069753842639</v>
+        <v>0.1514907613266197</v>
       </c>
       <c r="M3">
-        <v>0.1082798165100032</v>
+        <v>0.1077725535354815</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.002806306315494903</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -835,31 +835,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.1982361046545031</v>
+        <v>0.1764939049808979</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.02293837093122052</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.002270989748966309</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.0009670679853523517</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.009207595291252578</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.001952226167380411</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.02038127746830636</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.001410089479179437</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.02095210231928025</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.006166809421898033</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.007414615189126769</v>
+        <v>0.0304594668943248</v>
       </c>
       <c r="E4">
-        <v>0.003633617323575072</v>
+        <v>0.0277874967991231</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.007067024177317712</v>
       </c>
       <c r="H4">
-        <v>0.3443048513108958</v>
+        <v>0.2685343530200437</v>
       </c>
       <c r="I4">
-        <v>0.3588074845787825</v>
+        <v>0.2787831296053266</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02504877143242995</v>
+        <v>0.04292124016468483</v>
       </c>
       <c r="M4">
-        <v>0.05135154944554512</v>
+        <v>0.06150898836525615</v>
       </c>
       <c r="N4">
-        <v>0.0558202583343831</v>
+        <v>0.06466695272803022</v>
       </c>
       <c r="O4">
-        <v>0.1472217280638264</v>
+        <v>0.1292588944478706</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -939,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.01069704889947383</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0229010857825137</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.01895120432673544</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.006397124321435336</v>
+        <v>0.02974042253955745</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.004233849681801296</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.002488842567940631</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2957682761688052</v>
+        <v>0.2240655399078617</v>
       </c>
       <c r="F5">
-        <v>0.1446032054980258</v>
+        <v>0.1224484730596089</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2484932959478843</v>
+        <v>0.1922860765434605</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.008631109534692908</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03941000707959987</v>
+        <v>0.05173488672492526</v>
       </c>
       <c r="M5">
-        <v>0.08978820628966167</v>
+        <v>0.08560041408588998</v>
       </c>
       <c r="N5">
-        <v>0.008743934795235542</v>
+        <v>0.03112036047580036</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1043,22 +1043,22 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02183450208454216</v>
+        <v>0.03992017808853513</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.005268084725715396</v>
+        <v>0.02878380423763225</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.01907597829582865</v>
       </c>
       <c r="V5">
-        <v>0.1094345944259084</v>
+        <v>0.09880722388466723</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1067,16 +1067,16 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.007068997108550591</v>
       </c>
       <c r="Z5">
-        <v>0.0234209242858946</v>
+        <v>0.0409866120879309</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01323496869872677</v>
+        <v>0.03413934952111197</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1085,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.006025578015524376</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.009305418427979361</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01082574759788641</v>
       </c>
       <c r="E6">
-        <v>0.06037479492570968</v>
+        <v>0.06703071596047668</v>
       </c>
       <c r="F6">
-        <v>0.1505270526164697</v>
+        <v>0.1293224529979929</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1259226409640006</v>
+        <v>0.1123217524068252</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001104457120379483</v>
+        <v>0.02607719586829163</v>
       </c>
       <c r="L6">
-        <v>0.1692498768752241</v>
+        <v>0.1422592032824563</v>
       </c>
       <c r="M6">
-        <v>0.2232135846963477</v>
+        <v>0.1795460464882402</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1153,25 +1153,25 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.03774788550377535</v>
+        <v>0.05139639322928575</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.0004299512903165988</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1392216219132204</v>
+        <v>0.1215108359126135</v>
       </c>
       <c r="V6">
-        <v>0.06537459539401939</v>
+        <v>0.07048538547169758</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.001540512174879173</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.01313821312103466</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02726348999085336</v>
+        <v>0.0441520798308517</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.0209722768113513</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.0004991085624496702</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.008492128993350919</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.006717760015064258</v>
       </c>
       <c r="E2">
-        <v>0.1654927223823996</v>
+        <v>0.1464947917923873</v>
       </c>
       <c r="F2">
-        <v>0.3205723876240077</v>
+        <v>0.2790933992807352</v>
       </c>
       <c r="G2">
-        <v>0.3759393541248012</v>
+        <v>0.3429533021905419</v>
       </c>
       <c r="H2">
-        <v>0.3759393541248012</v>
+        <v>0.3429533021905419</v>
       </c>
       <c r="I2">
-        <v>0.5039522822527344</v>
+        <v>0.4568929778692307</v>
       </c>
       <c r="J2">
-        <v>0.5039522822527344</v>
+        <v>0.4597795191719355</v>
       </c>
       <c r="K2">
-        <v>0.5039522822527344</v>
+        <v>0.4597795191719355</v>
       </c>
       <c r="L2">
-        <v>0.5039522822527344</v>
+        <v>0.4740365333852627</v>
       </c>
       <c r="M2">
-        <v>0.6561752075492377</v>
+        <v>0.6046657968921113</v>
       </c>
       <c r="N2">
-        <v>0.8107050373378903</v>
+        <v>0.7368853656296802</v>
       </c>
       <c r="O2">
-        <v>0.8107050373378903</v>
+        <v>0.7397833189506327</v>
       </c>
       <c r="P2">
-        <v>0.8107050373378903</v>
+        <v>0.7397833189506327</v>
       </c>
       <c r="Q2">
-        <v>0.8107050373378903</v>
+        <v>0.7402236125837841</v>
       </c>
       <c r="R2">
-        <v>0.8107050373378903</v>
+        <v>0.7402236125837841</v>
       </c>
       <c r="S2">
-        <v>0.8107050373378903</v>
+        <v>0.743000128471264</v>
       </c>
       <c r="T2">
-        <v>0.8107050373378903</v>
+        <v>0.743000128471264</v>
       </c>
       <c r="U2">
-        <v>0.8352020303237353</v>
+        <v>0.7855792715923191</v>
       </c>
       <c r="V2">
-        <v>0.9849116755444323</v>
+        <v>0.914475961226074</v>
       </c>
       <c r="W2">
-        <v>0.9849116755444323</v>
+        <v>0.914475961226074</v>
       </c>
       <c r="X2">
-        <v>0.9849116755444323</v>
+        <v>0.914475961226074</v>
       </c>
       <c r="Y2">
-        <v>0.9849116755444323</v>
+        <v>0.914475961226074</v>
       </c>
       <c r="Z2">
-        <v>0.9895711945748593</v>
+        <v>0.9433797923856063</v>
       </c>
       <c r="AA2">
-        <v>0.9895711945748593</v>
+        <v>0.9433797923856063</v>
       </c>
       <c r="AB2">
-        <v>0.9895711945748593</v>
+        <v>0.9599675137902457</v>
       </c>
       <c r="AC2">
-        <v>0.9895711945748593</v>
+        <v>0.9646190683497075</v>
       </c>
       <c r="AD2">
-        <v>0.9895711945748593</v>
+        <v>0.9646190683497075</v>
       </c>
       <c r="AE2">
-        <v>0.9895711945748593</v>
+        <v>0.9671190096809703</v>
       </c>
       <c r="AF2">
-        <v>0.9895711945748593</v>
+        <v>0.9671190096809703</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,103 +1457,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2603539547508051</v>
+        <v>0.2239483152900972</v>
       </c>
       <c r="E3">
-        <v>0.2603539547508051</v>
+        <v>0.2239483152900972</v>
       </c>
       <c r="F3">
-        <v>0.5279771034512297</v>
+        <v>0.4534498702974029</v>
       </c>
       <c r="G3">
-        <v>0.5279771034512297</v>
+        <v>0.4534498702974029</v>
       </c>
       <c r="H3">
-        <v>0.5279771034512297</v>
+        <v>0.4534498702974029</v>
       </c>
       <c r="I3">
-        <v>0.5279771034512297</v>
+        <v>0.4751899450286696</v>
       </c>
       <c r="J3">
-        <v>0.5279771034512297</v>
+        <v>0.4751899450286696</v>
       </c>
       <c r="K3">
-        <v>0.5279771034512297</v>
+        <v>0.4751899450286696</v>
       </c>
       <c r="L3">
-        <v>0.6934840788354936</v>
+        <v>0.6266807063552893</v>
       </c>
       <c r="M3">
-        <v>0.8017638953454967</v>
+        <v>0.7344532598907708</v>
       </c>
       <c r="N3">
-        <v>0.8017638953454967</v>
+        <v>0.7372595662062658</v>
       </c>
       <c r="O3">
-        <v>0.8017638953454967</v>
+        <v>0.7372595662062658</v>
       </c>
       <c r="P3">
-        <v>0.8017638953454967</v>
+        <v>0.7372595662062658</v>
       </c>
       <c r="Q3">
-        <v>0.8017638953454967</v>
+        <v>0.7372595662062658</v>
       </c>
       <c r="R3">
-        <v>0.8017638953454967</v>
+        <v>0.7372595662062658</v>
       </c>
       <c r="S3">
-        <v>0.8017638953454967</v>
+        <v>0.7372595662062658</v>
       </c>
       <c r="T3">
-        <v>0.8017638953454967</v>
+        <v>0.7372595662062658</v>
       </c>
       <c r="U3">
-        <v>0.9999999999999999</v>
+        <v>0.9137534711871637</v>
       </c>
       <c r="V3">
-        <v>0.9999999999999999</v>
+        <v>0.9366918421183842</v>
       </c>
       <c r="W3">
-        <v>0.9999999999999999</v>
+        <v>0.9389628318673505</v>
       </c>
       <c r="X3">
-        <v>0.9999999999999999</v>
+        <v>0.9389628318673505</v>
       </c>
       <c r="Y3">
-        <v>0.9999999999999999</v>
+        <v>0.9399298998527029</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999999</v>
+        <v>0.9491374951439555</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999999</v>
+        <v>0.951089721311336</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>0.9714709987796423</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.9728810882588217</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>0.9728810882588217</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.9728810882588217</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.9938331905781019</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,97 +1567,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.007414615189126769</v>
+        <v>0.0304594668943248</v>
       </c>
       <c r="E4">
-        <v>0.01104823251270184</v>
+        <v>0.0582469636934479</v>
       </c>
       <c r="F4">
-        <v>0.01104823251270184</v>
+        <v>0.0582469636934479</v>
       </c>
       <c r="G4">
-        <v>0.01104823251270184</v>
+        <v>0.0653139878707656</v>
       </c>
       <c r="H4">
-        <v>0.3553530838235976</v>
+        <v>0.3338483408908093</v>
       </c>
       <c r="I4">
-        <v>0.7141605684023802</v>
+        <v>0.612631470496136</v>
       </c>
       <c r="J4">
-        <v>0.7141605684023802</v>
+        <v>0.612631470496136</v>
       </c>
       <c r="K4">
-        <v>0.7141605684023802</v>
+        <v>0.612631470496136</v>
       </c>
       <c r="L4">
-        <v>0.7392093398348101</v>
+        <v>0.6555527106608208</v>
       </c>
       <c r="M4">
-        <v>0.7905608892803552</v>
+        <v>0.717061699026077</v>
       </c>
       <c r="N4">
-        <v>0.8463811476147383</v>
+        <v>0.7817286517541072</v>
       </c>
       <c r="O4">
-        <v>0.9936028756785646</v>
+        <v>0.9109875462019777</v>
       </c>
       <c r="P4">
-        <v>0.9936028756785646</v>
+        <v>0.9109875462019777</v>
       </c>
       <c r="Q4">
-        <v>0.9936028756785646</v>
+        <v>0.9109875462019777</v>
       </c>
       <c r="R4">
-        <v>0.9936028756785646</v>
+        <v>0.9109875462019777</v>
       </c>
       <c r="S4">
-        <v>0.9936028756785646</v>
+        <v>0.9216845951014516</v>
       </c>
       <c r="T4">
-        <v>0.9936028756785646</v>
+        <v>0.9216845951014516</v>
       </c>
       <c r="U4">
-        <v>0.9936028756785646</v>
+        <v>0.9445856808839653</v>
       </c>
       <c r="V4">
-        <v>0.9936028756785646</v>
+        <v>0.9635368852107008</v>
       </c>
       <c r="W4">
-        <v>0.9936028756785646</v>
+        <v>0.9635368852107008</v>
       </c>
       <c r="X4">
-        <v>0.9936028756785646</v>
+        <v>0.9635368852107008</v>
       </c>
       <c r="Y4">
-        <v>0.9936028756785646</v>
+        <v>0.9635368852107008</v>
       </c>
       <c r="Z4">
-        <v>0.9936028756785646</v>
+        <v>0.9635368852107008</v>
       </c>
       <c r="AA4">
-        <v>0.9936028756785646</v>
+        <v>0.9635368852107008</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9932773077502582</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9975111574320595</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9975111574320595</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9975111574320595</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9975111574320595</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9975111574320595</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9975111574320595</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -1680,100 +1680,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2957682761688052</v>
+        <v>0.2240655399078617</v>
       </c>
       <c r="F5">
-        <v>0.440371481666831</v>
+        <v>0.3465140129674705</v>
       </c>
       <c r="G5">
-        <v>0.440371481666831</v>
+        <v>0.3465140129674705</v>
       </c>
       <c r="H5">
-        <v>0.440371481666831</v>
+        <v>0.3465140129674705</v>
       </c>
       <c r="I5">
-        <v>0.6888647776147154</v>
+        <v>0.5388000895109311</v>
       </c>
       <c r="J5">
-        <v>0.6888647776147154</v>
+        <v>0.547431199045624</v>
       </c>
       <c r="K5">
-        <v>0.6888647776147154</v>
+        <v>0.547431199045624</v>
       </c>
       <c r="L5">
-        <v>0.7282747846943153</v>
+        <v>0.5991660857705492</v>
       </c>
       <c r="M5">
-        <v>0.8180629909839769</v>
+        <v>0.6847664998564391</v>
       </c>
       <c r="N5">
-        <v>0.8268069257792124</v>
+        <v>0.7158868603322395</v>
       </c>
       <c r="O5">
-        <v>0.8268069257792124</v>
+        <v>0.7158868603322395</v>
       </c>
       <c r="P5">
-        <v>0.8268069257792124</v>
+        <v>0.7158868603322395</v>
       </c>
       <c r="Q5">
-        <v>0.8486414278637546</v>
+        <v>0.7558070384207746</v>
       </c>
       <c r="R5">
-        <v>0.8486414278637546</v>
+        <v>0.7558070384207746</v>
       </c>
       <c r="S5">
-        <v>0.85390951258947</v>
+        <v>0.7845908426584068</v>
       </c>
       <c r="T5">
-        <v>0.85390951258947</v>
+        <v>0.7845908426584068</v>
       </c>
       <c r="U5">
-        <v>0.85390951258947</v>
+        <v>0.8036668209542355</v>
       </c>
       <c r="V5">
-        <v>0.9633441070153784</v>
+        <v>0.9024740448389027</v>
       </c>
       <c r="W5">
-        <v>0.9633441070153784</v>
+        <v>0.9024740448389027</v>
       </c>
       <c r="X5">
-        <v>0.9633441070153784</v>
+        <v>0.9024740448389027</v>
       </c>
       <c r="Y5">
-        <v>0.9633441070153784</v>
+        <v>0.9095430419474533</v>
       </c>
       <c r="Z5">
-        <v>0.986765031301273</v>
+        <v>0.9505296540353841</v>
       </c>
       <c r="AA5">
-        <v>0.986765031301273</v>
+        <v>0.9505296540353841</v>
       </c>
       <c r="AB5">
-        <v>0.9999999999999998</v>
+        <v>0.9846690035564961</v>
       </c>
       <c r="AC5">
-        <v>0.9999999999999998</v>
+        <v>0.9846690035564961</v>
       </c>
       <c r="AD5">
-        <v>0.9999999999999998</v>
+        <v>0.9846690035564961</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999998</v>
+        <v>0.9906945815720205</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999998</v>
+        <v>0.9906945815720205</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01082574759788641</v>
       </c>
       <c r="E6">
-        <v>0.06037479492570968</v>
+        <v>0.07785646355836308</v>
       </c>
       <c r="F6">
-        <v>0.2109018475421794</v>
+        <v>0.207178916556356</v>
       </c>
       <c r="G6">
-        <v>0.2109018475421794</v>
+        <v>0.207178916556356</v>
       </c>
       <c r="H6">
-        <v>0.2109018475421794</v>
+        <v>0.207178916556356</v>
       </c>
       <c r="I6">
-        <v>0.33682448850618</v>
+        <v>0.3195006689631812</v>
       </c>
       <c r="J6">
-        <v>0.33682448850618</v>
+        <v>0.3195006689631812</v>
       </c>
       <c r="K6">
-        <v>0.3379289456265595</v>
+        <v>0.3455778648314728</v>
       </c>
       <c r="L6">
-        <v>0.5071788225017835</v>
+        <v>0.4878370681139291</v>
       </c>
       <c r="M6">
-        <v>0.7303924071981313</v>
+        <v>0.6673831146021693</v>
       </c>
       <c r="N6">
-        <v>0.7303924071981313</v>
+        <v>0.6673831146021693</v>
       </c>
       <c r="O6">
-        <v>0.7303924071981313</v>
+        <v>0.6673831146021693</v>
       </c>
       <c r="P6">
-        <v>0.7303924071981313</v>
+        <v>0.6673831146021693</v>
       </c>
       <c r="Q6">
-        <v>0.7681402927019066</v>
+        <v>0.7187795078314551</v>
       </c>
       <c r="R6">
-        <v>0.7681402927019066</v>
+        <v>0.7187795078314551</v>
       </c>
       <c r="S6">
-        <v>0.7681402927019066</v>
+        <v>0.7192094591217717</v>
       </c>
       <c r="T6">
-        <v>0.7681402927019066</v>
+        <v>0.7192094591217717</v>
       </c>
       <c r="U6">
-        <v>0.9073619146151271</v>
+        <v>0.8407202950343853</v>
       </c>
       <c r="V6">
-        <v>0.9727365100091464</v>
+        <v>0.9112056805060829</v>
       </c>
       <c r="W6">
-        <v>0.9727365100091464</v>
+        <v>0.912746192680962</v>
       </c>
       <c r="X6">
-        <v>0.9727365100091464</v>
+        <v>0.912746192680962</v>
       </c>
       <c r="Y6">
-        <v>0.9727365100091464</v>
+        <v>0.912746192680962</v>
       </c>
       <c r="Z6">
-        <v>0.9727365100091464</v>
+        <v>0.9258844058019967</v>
       </c>
       <c r="AA6">
-        <v>0.9727365100091464</v>
+        <v>0.9258844058019967</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999998</v>
+        <v>0.9700364856328484</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999998</v>
+        <v>0.9910087624441997</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999998</v>
+        <v>0.9910087624441997</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999998</v>
+        <v>0.9910087624441997</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>0.9915078710066494</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5039522822527344</v>
+        <v>0.6046657968921113</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -1992,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5279771034512297</v>
+        <v>0.6266807063552893</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -2030,19 +2030,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0.01104823251270184</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7141605684023802</v>
+        <v>0.612631470496136</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6888647776147154</v>
+        <v>0.5388000895109311</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5071788225017835</v>
+        <v>0.6673831146021693</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8107050373378903</v>
+        <v>0.7368853656296802</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8017638953454967</v>
+        <v>0.7344532598907708</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -2289,19 +2289,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0.01104823251270184</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7141605684023802</v>
+        <v>0.717061699026077</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -2333,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7158868603322395</v>
+      </c>
+      <c r="G5">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7282747846943153</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7303924071981313</v>
+        <v>0.7187795078314551</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>47</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8107050373378903</v>
+        <v>0.914475961226074</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>47</v>
@@ -2510,16 +2510,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8017638953454967</v>
+        <v>0.9137534711871637</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>47</v>
@@ -2548,19 +2548,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>0.01104823251270184</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8463811476147383</v>
+        <v>0.9109875462019777</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8180629909839769</v>
+        <v>0.8036668209542355</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>47</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9073619146151271</v>
+        <v>0.8407202950343853</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9849116755444323</v>
+        <v>0.914475961226074</v>
       </c>
       <c r="G2">
         <v>19</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999999999</v>
+        <v>0.9137534711871637</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -2807,19 +2807,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4">
-        <v>0.01104823251270184</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9936028756785646</v>
+        <v>0.9109875462019777</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>47</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9633441070153784</v>
+        <v>0.9024740448389027</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9073619146151271</v>
+        <v>0.9112056805060829</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>47</v>
